--- a/output/2025/scraped_data/Ministry of Health 2025.xlsx
+++ b/output/2025/scraped_data/Ministry of Health 2025.xlsx
@@ -543,13 +543,13 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -623,17 +623,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mariella Parodi</t>
+          <t>Mariella Parogi</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
     </row>
@@ -759,13 +759,13 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Corporación de Ayuda a Pacientes con Enfermedad Hipofisaria</t>
+          <t>Patient help corporation with pituitary disease</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Alberto FRANGINI</t>
+          <t>Alberto Frangini</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -919,13 +919,13 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Paulo Luis Olivera Berríos</t>
+          <t>Paulo Luis Olivera Berrios</t>
         </is>
       </c>
     </row>
@@ -942,12 +942,12 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>carolina pavez</t>
+          <t>Carolina Pavez</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -998,18 +998,18 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Leticia Amaza</t>
+          <t>Eacia waves</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Leticia Elena Amaza Cea</t>
+          <t>The lecture Elena amaza the one</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1076,18 +1076,18 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -1109,13 +1109,13 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -1137,13 +1137,13 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>BJ Adaptacones Chile limitada</t>
+          <t>BJ Adaptacones Chile Limitada</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>BJ Adaptaciones Spa (Qinera)</t>
+          <t>BJ Spa Adaptations (Qinera)</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>BJ Adaptacones Chile limitada</t>
+          <t>BJ Adaptacones Chile Limitada</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>BJ Adaptaciones SpA (Qinera)</t>
+          <t>BJ Spa Adaptations (Qinera)</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Scienza SPA</t>
+          <t>Science spa</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Novartis Chile SA</t>
+          <t>Novartis Chile in</t>
         </is>
       </c>
     </row>
@@ -1631,13 +1631,13 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Novartis Chile SA</t>
+          <t>Novartis Chile in</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Puerto del Agua del sur SPA</t>
+          <t>South Spa Water Puerto</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -1715,13 +1715,13 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Fundación Padece</t>
+          <t>Foundation suffers</t>
         </is>
       </c>
     </row>
@@ -1743,13 +1743,13 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Fundación Padece</t>
+          <t>Foundation suffers</t>
         </is>
       </c>
     </row>
@@ -1771,13 +1771,13 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Fundación Padece</t>
+          <t>Foundation suffers</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -1847,13 +1847,13 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SOCIEDAD CHILENA DE TRASTORNOS BIPOLARES</t>
+          <t>Chilean Society of Bipolar Disorders</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>It is intended to know the state of advance or novelties of the inclusion of the glucose sensor to the basket Type 1 diabetes Diabetes for the period 2025-2028, which is already coded in Fonasa 3 years ago with the code 2301071 the sensor, and with the code 2301073 the reader.</t>
+          <t>It is intended to know the state of advance or novelties of the inclusion of the glucose sensor to the basket GES Diabetes type 1 for the period 2025-2028, which is already coded in Fonasa 3 years ago with the code 2301071 the sensor, and with the code 2301073 the reader.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1895,13 +1895,13 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>FUNDACION DIABETES FUTURO</t>
+          <t>Future Diabetes Foundation</t>
         </is>
       </c>
     </row>
@@ -1918,18 +1918,18 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ANGELITA GARCIA LISONI</t>
+          <t>Angelita Garcia Lisoni</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Angelita Grcía Lisoni</t>
+          <t>Angelita Geison</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M41" t="inlineStr"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2047,13 +2047,13 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -2095,13 +2095,13 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2118,18 +2118,18 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Danitza Chavez</t>
+          <t>Dance Chavez</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Danitza Chavez</t>
+          <t>Dance Chavez</t>
         </is>
       </c>
     </row>
@@ -2146,18 +2146,18 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Panos Kanavos</t>
+          <t>Bet</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Panos Kanavos</t>
+          <t>Bet</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Roche Chile limitada</t>
+          <t>Roche Chile Limitada</t>
         </is>
       </c>
     </row>
@@ -2251,13 +2251,13 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -2299,17 +2299,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Fundalurp</t>
+          <t>Background</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Fundación Lucha Contra la Retinitis Pigmentosa - Fundalurp</t>
+          <t>Foundation Fight against pigmenta retinitis - Fundalurp</t>
         </is>
       </c>
     </row>
@@ -2348,18 +2348,18 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Rosa MONTERO</t>
+          <t>Rosa Montero</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>corporación de ayuda al niño con artritis crónica juvenil anacroj</t>
+          <t>Corporation for child help with chronic youth arthritis Anacroj</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Roche Chile limitada</t>
+          <t>Roche Chile Limitada</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -2489,12 +2489,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -2516,18 +2516,18 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Olimpia Karola Vaca Onofre</t>
+          <t>OLIMPIA KAROLA VACA ONOFRE</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Karola Dufeu</t>
+          <t>Karol Dufeu</t>
         </is>
       </c>
     </row>
@@ -2565,18 +2565,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2598,13 +2598,13 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2621,18 +2621,18 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Danitza Chavez</t>
+          <t>Dance Chavez</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Danitza Chavez</t>
+          <t>Dance Chavez</t>
         </is>
       </c>
     </row>
@@ -2649,18 +2649,18 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Panos Kanavos</t>
+          <t>Bet</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Panos Kanavos</t>
+          <t>Bet</t>
         </is>
       </c>
     </row>
@@ -2698,18 +2698,18 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2731,13 +2731,13 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2759,13 +2759,13 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -2787,13 +2787,13 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Experto</t>
+          <t>Expert</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Scienza SPA</t>
+          <t>Science spa</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Scienza</t>
+          <t>Science</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Laboratorio Recalcine</t>
+          <t>Recalcine Laboratory</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -3168,12 +3168,12 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Camila andrea Mendoza rondanelli</t>
+          <t>Camila Andrea Mendoza Rondanelli</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3253,12 +3253,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -3429,17 +3429,17 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+          <t>MHOVILOVIC COMMERCIAL SOCIETY. AND ODHER LATDA.</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
+          <t>Mihovilovic and Hnos Commercial Society and another limited</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+          <t>MHOVILOVIC COMMERCIAL SOCIETY. AND ODHER LATDA.</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
+          <t>Mihovilovic and Hnos Commercial Society and another limited</t>
         </is>
       </c>
     </row>
@@ -3524,13 +3524,13 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -3552,13 +3552,13 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -3613,13 +3613,13 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -3641,13 +3641,13 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ABBVIE LTDA</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>María Zuleta</t>
+          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>TOMAS AYALA GRANDI</t>
+          <t>Tomas Ayala Grandi</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -3930,13 +3930,13 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Universidad de Santiago de Chile</t>
+          <t>University of Santiago de Chile</t>
         </is>
       </c>
     </row>
@@ -3958,13 +3958,13 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Universidad de Santiago de Chile</t>
+          <t>University of Santiago de Chile</t>
         </is>
       </c>
     </row>
@@ -3986,13 +3986,13 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Universidad de Santiago de Chile</t>
+          <t>University of Santiago de Chile</t>
         </is>
       </c>
     </row>
@@ -4070,17 +4070,17 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO DENTISTAS</t>
+          <t>Dental Surgeon College</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO-DENTISTAS DE CHILE A.G</t>
+          <t>College of Surgeon-Dentists of Chile A.G</t>
         </is>
       </c>
     </row>
@@ -4102,13 +4102,13 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO-DENTISTAS DE CHILE A.G</t>
+          <t>College of Surgeon-Dentists of Chile A.G</t>
         </is>
       </c>
     </row>
@@ -4130,17 +4130,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO DENTISTAS</t>
+          <t>Dental Surgeon College</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO-DENTISTAS DE CHILE A.G</t>
+          <t>College of Surgeon-Dentists of Chile A.G</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO DENTISTAS</t>
+          <t>Dental Surgeon College</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>COLEGIO DE CIRUJANO-DENTISTAS DE CHILE A.G</t>
+          <t>College of Surgeon-Dentists of Chile A.G</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Catalina Valeria Alcalde Cardenas</t>
+          <t>Catalina Valeria Mayor Cardenas</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
@@ -4280,13 +4280,13 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>AIDA SpA</t>
+          <t>Aida SPA</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -4407,22 +4407,22 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Jorge Dinamarca</t>
+          <t>Jorge Denmark</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>GE Healthcare International LLC - Agencia en Chile</t>
+          <t>Ge Healthcare International LLC - Agency in Chile</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Sonda S.A.</t>
+          <t>S.A.</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4444,17 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Sonda S.A.</t>
+          <t>S.A.</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Sonda S.A.</t>
+          <t>S.A.</t>
         </is>
       </c>
     </row>
@@ -4498,12 +4498,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -4611,18 +4611,18 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Jaime Kriman</t>
+          <t>Jaime kriman</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Salud Digital Integrada SPA</t>
+          <t>Integrated Spa Digital Health</t>
         </is>
       </c>
     </row>
@@ -4644,13 +4644,13 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Salud Digital Integrada SPA</t>
+          <t>Integrated Spa Digital Health</t>
         </is>
       </c>
     </row>
@@ -4687,22 +4687,22 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Ekaterina Podnebesnova</t>
+          <t>Ecaterine of the climate</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Siemens Healthcare Equipos Médicos SpA.</t>
+          <t>Siemens Healthcare Medical Equiples Spa.</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Ekaterina Podnebesnova</t>
+          <t>Ecaterine of the climate</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>TOMAS AYALA GRANDI</t>
+          <t>Tomas Ayala Grandi</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -4820,13 +4820,13 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Campus Med</t>
+          <t>Campus with</t>
         </is>
       </c>
     </row>
@@ -4863,18 +4863,18 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Alan Nudman</t>
+          <t>Nudman</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>alan nudman</t>
+          <t>Nudman</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dispositivos Médicos de Chile</t>
+          <t>Guild Association of Medical Devices of Chile</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -4971,12 +4971,12 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Branggela Romero</t>
+          <t>Romero Brangel</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M122" t="inlineStr"/>
@@ -5024,13 +5024,13 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>ENTEL S.A.</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
     </row>
@@ -5047,18 +5047,18 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Hugo Cantuarias</t>
+          <t>Hugo Canterbury</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>ENTEL S.A.</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
     </row>
@@ -5080,13 +5080,13 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>ENTEL S.A.</t>
+          <t>Entel S.A.</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>DATAMEDICA SPA</t>
+          <t>Computory spa</t>
         </is>
       </c>
     </row>
@@ -5195,18 +5195,18 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Carla Torres</t>
+          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>municipalidad de Coronel</t>
+          <t>Colonel Municipality</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -5325,12 +5325,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -5462,12 +5462,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Pontificia Universidad Católica de Chile</t>
+          <t>Pontifical Catholic University of Chile</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -5489,18 +5489,18 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Katia Abarca</t>
+          <t>Katia Embracka</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>KATIA GABRIELA ABARCA VILLASECA</t>
+          <t>Katia Gabriela Abarca Villaseca</t>
         </is>
       </c>
     </row>
@@ -5544,13 +5544,13 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Fundación Covid Persistente</t>
+          <t>Persistent Covid Foundation</t>
         </is>
       </c>
     </row>
@@ -5572,13 +5572,13 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Agrupación de Profesionales de la Salud e Investigadores Independientes APSIIN</t>
+          <t>Grouping of Health Professionals and Independent Researchers Apsiin</t>
         </is>
       </c>
     </row>
@@ -5660,13 +5660,13 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Frabakar Ltda</t>
+          <t>FRABAKAR LTDA</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>NOVOFARMA SERVICE SA</t>
+          <t>Novofarma Service SA</t>
         </is>
       </c>
     </row>
@@ -5773,17 +5773,17 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>NOVOFARMA SERVICE SA</t>
+          <t>Novofarma Service SA</t>
         </is>
       </c>
     </row>
@@ -5805,13 +5805,13 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
-          <t>NOVOFARMA SERVICE SA</t>
+          <t>Novofarma Service SA</t>
         </is>
       </c>
     </row>
@@ -5853,17 +5853,17 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Farmacias Cruz Verde S.A.</t>
+          <t>Pharmacias Cruz Verde S.A.</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Femsa Salud SpA</t>
+          <t>FEMSA Health Spa</t>
         </is>
       </c>
     </row>
@@ -5885,13 +5885,13 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Femsa Salud SpA</t>
+          <t>FEMSA Health Spa</t>
         </is>
       </c>
     </row>
@@ -5908,22 +5908,22 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Sergio Sapaj</t>
+          <t>Sergio soap</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Farmacias Cruz Verde S.A.</t>
+          <t>Pharmacias Cruz Verde S.A.</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Femsa Salud SpA</t>
+          <t>FEMSA Health Spa</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -6082,12 +6082,12 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Constanza Pestan</t>
+          <t>Constanza weigh</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -6198,13 +6198,13 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Estudio Lunar SpA</t>
+          <t>Lunar spa study</t>
         </is>
       </c>
     </row>
@@ -6248,13 +6248,13 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Santo Tomás Educación Continua</t>
+          <t>Santo Tomás continues education</t>
         </is>
       </c>
     </row>
@@ -6296,13 +6296,13 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
-          <t>protege infancia</t>
+          <t>Protects childhood</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6339,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Ignacio Jose Barra Converti</t>
+          <t>Ignacio Jose bars convents</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -6450,12 +6450,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Katterine Reinoso</t>
+          <t>Catsine Reinoso</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>katterine</t>
+          <t>cat</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -6569,13 +6569,13 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Embajada Real de Dinamarca</t>
+          <t>Denmark's Royal Embassy</t>
         </is>
       </c>
     </row>
@@ -6597,13 +6597,13 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Partisia</t>
+          <t>Partisy</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>CORPORACIÓN CHILENA PARA EL DESARROLLO Y ADMINISTRACIÓN DE ESTÁNDARES  o GS1 CHILE</t>
+          <t>Chilean corporation for the development and administration of standards or GS1 Chile</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Camara de Comercio Industrias, Servicios yTurismo de Iquique</t>
+          <t>Commercial Camara Industries, Yquique Services Andurism</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -6756,18 +6756,18 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Michael Van Waes</t>
+          <t>Michael van Waes</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>Michael Van Waes</t>
+          <t>Michael van Waes</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Novartis Chile SA</t>
+          <t>Novartis Chile in</t>
         </is>
       </c>
     </row>
@@ -6925,13 +6925,13 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Novartis Chile SA</t>
+          <t>Novartis Chile in</t>
         </is>
       </c>
     </row>
@@ -6973,13 +6973,13 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
-          <t>Obrascón Huarte Lain, S.A. Agencia en Chile</t>
+          <t>WORKSCONCÓN HUARTE LAIN, S.A. Agency in Chile</t>
         </is>
       </c>
     </row>
@@ -7001,13 +7001,13 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Obrascón Huarte Lain, S.A. Agencia en Chile</t>
+          <t>WORKSCONCÓN HUARTE LAIN, S.A. Agency in Chile</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7067,12 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Alex Pesso</t>
+          <t>ALEX PEOPLE</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>microsoft chile ltda</t>
+          <t>Microsoft Chile Ltda</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>reinaldo andres roepke del solar</t>
+          <t>Reinaldo Andres Roepke del Solar</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M175" t="inlineStr"/>
@@ -7155,17 +7155,17 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>CORPORACION MARTIN ALTO A LA NEGLIGENCIA MEDICA</t>
+          <t>Martin Corporation Alto to Medical Negligence</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>corpracion Martin alto a las nagligencia medicas</t>
+          <t>Martin Corpracion Alto to Medical Nagligence</t>
         </is>
       </c>
     </row>
@@ -7182,18 +7182,18 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Margarita Lineros</t>
+          <t>MARGARITA LINEROS</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>Margarita  Lineros</t>
+          <t>MARGARITA LINEROS</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M178" t="inlineStr"/>
@@ -7262,12 +7262,12 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Maria De Frutos</t>
+          <t>Fruit Maria</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -7319,17 +7319,17 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Asociación de Aseguradores de Chile A.G..</t>
+          <t>Chilean insurers association A.G ..</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>ASOCIACIÓN DE ASEGURADORES DE CHILE A.G.</t>
+          <t>Chilean Insurers Association A.G.</t>
         </is>
       </c>
     </row>
@@ -7351,17 +7351,17 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Asociación de Aseguradores de Chile A.G..</t>
+          <t>Chilean insurers association A.G ..</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>ASOCIACIÓN DE ASEGURADORES DE CHILE A.G.</t>
+          <t>Chilean Insurers Association A.G.</t>
         </is>
       </c>
     </row>
@@ -7403,13 +7403,13 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>Comunidad Indígena Atacameña de Camar</t>
+          <t>Sample Atacameña indigenous community</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M183" t="inlineStr"/>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Biomarin Chile SPA</t>
+          <t>Biomarin chile spa</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -7567,12 +7567,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Biomarin Chile SPA</t>
+          <t>Biomarin chile spa</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -7594,17 +7594,17 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Andres Lombar</t>
+          <t>Andres lumbar</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Biomarin Chile SPA</t>
+          <t>Biomarin chile spa</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Biomarin Chile SPA</t>
+          <t>Biomarin chile spa</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -7688,17 +7688,17 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>GLAXOSMITHKLINE CHILE FARMACEUTICA LIMITADA</t>
+          <t>Glaxosmithkline Chile Pharmaceutical</t>
         </is>
       </c>
     </row>
@@ -7715,22 +7715,22 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Mariella Parodi</t>
+          <t>A Marches Parogi</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>GLAXOSMITHKLINE CHILE FARMACEUTICA LIMITADA</t>
+          <t>Glaxosmithkline Chile Pharmaceutical</t>
         </is>
       </c>
     </row>
@@ -7752,17 +7752,17 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>GlaxoSmithKline Chile Farmacéutica Ltda</t>
+          <t>Glaxosmithkline Chile Farmacéutica Ltda</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>GLAXOSMITHKLINE CHILE FARMACEUTICA LIMITADA</t>
+          <t>Glaxosmithkline Chile Pharmaceutical</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -7926,12 +7926,12 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Alberto FRANGINI</t>
+          <t>Alberto Frangini</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M198" t="inlineStr"/>
@@ -8042,18 +8042,18 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M200" t="inlineStr"/>
@@ -8103,13 +8103,13 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -8126,18 +8126,18 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Báltica Cabieses</t>
+          <t>Baltic Cabieses</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>Báltica Cabieses</t>
+          <t>Baltic Cabieses</t>
         </is>
       </c>
     </row>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -8249,18 +8249,18 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Mónica Toro</t>
+          <t>Monica Toro</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>Corporación Valientes</t>
+          <t>Valiente Corporation</t>
         </is>
       </c>
     </row>
@@ -8282,13 +8282,13 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>Corporación Valientes</t>
+          <t>Valiente Corporation</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -8423,12 +8423,12 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Consiglieri Asesorias Limitada</t>
+          <t>Limited Advice Directors</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -8524,7 +8524,7 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -8544,13 +8544,13 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr">
         <is>
-          <t>WILLIMAS MORALES</t>
+          <t>Willimas morales</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Formal response on the payment owed of qualification Items and others for the lease contract for the facilities of the Seremi Region of Los Lagos in the capital building of the city of Puerto Montt, have been requested by all the roads pronouncement and we have no concrete answers., The legal pronouncement has been requested for positive silence before resolutions according to the procedure of the 19880 An answer by the lessee (MINSAL).</t>
+          <t>Formal response on the payment owed of qualification and others for the lease contract for the facilities of the Seremi Region of Los Lagos in the capital building of the city of Puerto Montt, have been requested by all the roads pronouncement and we have no concrete answers., The legal pronouncement has been requested for positive silence before resolutions according to procedure of the 19880 An answer by the lessee (MINSAL).</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -8592,13 +8592,13 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>SOCIEDAD INMOBILIARIA E INVERSIONES CAPITAL LIMITADA</t>
+          <t>Real estate company and investments Limited Capital</t>
         </is>
       </c>
     </row>
@@ -8620,13 +8620,13 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
-          <t>CONSTANZA MARDONES MODINGER</t>
+          <t>Constanza Mardones Modinger</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -8668,17 +8668,17 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>inversiones asutrales spa</t>
+          <t>ASSEMBAL INVERSIONES SPA</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>BERTONATI VEHICULOS ESPECIALES LIMITADA</t>
+          <t>Bertonati Limitada Special Vehicles</t>
         </is>
       </c>
     </row>
@@ -8700,13 +8700,13 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr">
         <is>
-          <t>BERTONATI VEHICULOS ESPECIALES LIMITADA</t>
+          <t>Bertonati Limitada Special Vehicles</t>
         </is>
       </c>
     </row>
@@ -8728,13 +8728,13 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>BERTONATI VEHICULOS ESPECIALES LIMITADA</t>
+          <t>Bertonati Limitada Special Vehicles</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M217" t="inlineStr"/>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>DATAMEDICA SPA</t>
+          <t>Computory spa</t>
         </is>
       </c>
     </row>
@@ -8894,13 +8894,13 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>VIVIANA BRITO MUÑOZ</t>
+          <t>Viviana Brito Muñoz</t>
         </is>
       </c>
     </row>
@@ -8917,18 +8917,18 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>SUSANA MAYOL GOMEZ</t>
+          <t>Susana Mayol Gomez</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>SUSANA MAYOL GOMEZ</t>
+          <t>Susana Mayol Gomez</t>
         </is>
       </c>
     </row>
@@ -8945,18 +8945,18 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>SERGIO MUNIZAGA ALVAREZ</t>
+          <t>Sergio Munizaga Alvarez</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>sergio munizaga alvarez</t>
+          <t>Sergio Munizaga Alvarez</t>
         </is>
       </c>
     </row>
@@ -9029,22 +9029,22 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Mónica Donaire</t>
+          <t>Monica Donaire</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Importadora Arquimed Ltda</t>
+          <t>Importadora Archimed Ltda</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>CARDIOMEDICS TECNOLOGIA EN SALUD SPA</t>
+          <t>Cardiomedics Spa Health Technology</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M223" t="inlineStr"/>
@@ -9140,17 +9140,17 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>PHILIPS CHILENA S.A.</t>
+          <t>Philips Chilena S.A.</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Philips Chilena</t>
+          <t>Chilean Philips</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M225" t="inlineStr"/>
@@ -9257,22 +9257,22 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Francis Sanz</t>
+          <t>Francis Toulon</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>corpoaracion gestion y accion</t>
+          <t>CORPOARACION MANAGEMENT AND ACTION</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>corporacion gestion y accion</t>
+          <t>CORPORATION MANAGEMENT AND ACTION</t>
         </is>
       </c>
     </row>
@@ -9329,13 +9329,13 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr">
         <is>
-          <t>claudia alejandra jara pavez</t>
+          <t>Claudia Alejandra Jara Pavez</t>
         </is>
       </c>
     </row>
@@ -9385,18 +9385,18 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -9418,13 +9418,13 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -9446,13 +9446,13 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -9474,13 +9474,13 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -9502,13 +9502,13 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
 &lt;Br /&gt;
 Topics addressed at meeting &lt;Br /&gt;
 &lt;Br /&gt;
-Juan Francisco Collao, in his capacity as head of the Department of Pharmaceutical Policies and Regulations, Health and Complementary Medicine providers, greets the applicants for the meeting and presents Yenive Cavieres of complementary medicine equipment. &lt;Br /&gt;
+Juan Francisco Collao, in his capacity as Head of the Department of Pharmaceutical Policies and Regulations, Health and Complementary Medicine providers, greets the applicants for the meeting and presents Yenive Cavieres of complementary medicine equipment. &lt;Br /&gt;
 The meeting applicants are presented and indicated by the 3 relevant aspects to talk at this meeting: &lt;Br /&gt;
 1. Regarding the role of anthroposophical medicine in the framework of integrative medicines, they ask about the difference between the fact of recognition of a complementary or integrative practice and the registration in the REM, which is specified that the registration in the REM is an activity in which the production of the health establishments is reported and that what exists is that since the complementary medicine is the anthroposophia as one of the benefits of this area. Registering your activities, but that does not mean legal recognition.  &lt;Br /&gt;
 &lt;Br /&gt;
@@ -9568,13 +9568,13 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
-          <t>Asociación de Medicina Antroposófica de Chile, AMAChile</t>
+          <t>Chile's Anthroposophical Medicine Association, Amachile</t>
         </is>
       </c>
     </row>
@@ -9596,13 +9596,13 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>Asociación de Medicina Antroposófica de Chile</t>
+          <t>Chile's Anthroposophical Medicine Association</t>
         </is>
       </c>
     </row>
@@ -9662,13 +9662,13 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>Asociación de Medicina Antroposófica de Chile, AMAChile</t>
+          <t>Chile's Anthroposophical Medicine Association, Amachile</t>
         </is>
       </c>
     </row>
@@ -9690,13 +9690,13 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>Asociación de Medicina Antroposófica de Chile</t>
+          <t>Chile's Anthroposophical Medicine Association</t>
         </is>
       </c>
     </row>
@@ -9743,17 +9743,17 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Pharol SpA</t>
+          <t>Pharol spa</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>centro de entrenamiento medico quirurgico spa</t>
+          <t>SPA Surgical Medical Training Center</t>
         </is>
       </c>
     </row>
@@ -9775,13 +9775,13 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>centro de entranmiento medico quirurgico spa</t>
+          <t>MEDICAL SURGICAL ENTRANMITION CENTER SPA</t>
         </is>
       </c>
     </row>
@@ -9842,12 +9842,12 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>LABORATORIO SANDERSON S.a</t>
+          <t>LABORATORIO SANDERSON S.A</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -9874,12 +9874,12 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Labortorio Sanderson S.A.</t>
+          <t>LABORTORIO SANDERSON S.A.</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -9938,13 +9938,13 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr">
         <is>
-          <t>Asociacióin Industrial de Laboratorios Farmacéuticos A.G.</t>
+          <t>Industrial association of Pharmaceutical Laboratories A.G.</t>
         </is>
       </c>
     </row>
@@ -9961,22 +9961,22 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Patricio Huenchuñir</t>
+          <t>Patricio Huechuñuñe</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Asociación Industrial de laboratorios farmaceuticos</t>
+          <t>Industrial Association of Pharmaceutical Laboratories</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Asociaición Industrial de Laboratorios Farmacéuticos A.G.</t>
+          <t>Industrial Association of Pharmaceutical Laboratories A.G.</t>
         </is>
       </c>
     </row>
@@ -10018,17 +10018,17 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>PRO SALUD CHILE A.G.</t>
+          <t>PRO HEALTH A.G.</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Pro Salud Chile AG.</t>
+          <t>PRO HEALTH CHILE AG.</t>
         </is>
       </c>
     </row>
@@ -10050,13 +10050,13 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Pro Salud Chile AG.</t>
+          <t>PRO HEALTH CHILE AG.</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       <c r="I246" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
-Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -10101,13 +10101,13 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Pet ct Concepción SA</t>
+          <t>PET CT Concepción SA</t>
         </is>
       </c>
     </row>
@@ -10160,13 +10160,13 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr">
         <is>
-          <t>Instituto Profesional San Sebastián</t>
+          <t>San Sebastián Professional Institute</t>
         </is>
       </c>
     </row>
@@ -10216,17 +10216,17 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10248,17 +10248,17 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10280,17 +10280,17 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10312,17 +10312,17 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10372,17 +10372,17 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10404,17 +10404,17 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10436,17 +10436,17 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10468,17 +10468,17 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Laboratorios Saval</t>
+          <t>Saval Laboratories</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>Laboratorios Saval S.A.</t>
+          <t>LABORATORIOS SAVAL S.A.</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M257" t="inlineStr"/>
@@ -10609,17 +10609,17 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Farmamondo SA</t>
+          <t>Farmamondo with</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>Fartmamondo</t>
+          <t>Fartmamamondo</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Daniel Tanana</t>
+          <t>Daniel Town</t>
         </is>
       </c>
       <c r="L259" t="inlineStr"/>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -10743,12 +10743,12 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Angela Del Pino</t>
+          <t>Angela del Pino</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>Angela Del Pino</t>
+          <t>Angela del Pino</t>
         </is>
       </c>
     </row>
@@ -10803,13 +10803,13 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>CORPORACION CHILENA DE CANCER DE PROSTATA</t>
+          <t>Chilean Prostata Cancer Corporation</t>
         </is>
       </c>
     </row>
@@ -10826,18 +10826,18 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Felipe Balbontín Fox</t>
+          <t>Felipe Balbontin Fox</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr">
         <is>
-          <t>CORPORACION CHILENA DE PROSTATA DE CANCER</t>
+          <t>Chilean Cancer Prostate Corporation</t>
         </is>
       </c>
     </row>
@@ -10854,18 +10854,18 @@
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>María Duvauchelle</t>
+          <t>Maria Duvachle</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>CORPORACION CHILENA CONTRA EL CANCER DE PROSTATA</t>
+          <t>Chilean corporation against prostate cancer</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>Sugg y asociados SPA</t>
+          <t>Sugg and Associates Spa</t>
         </is>
       </c>
     </row>
@@ -11006,18 +11006,18 @@
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Diva Barbosa</t>
+          <t>Barbosa Diva</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>ROCHE CHILE LTDA</t>
+          <t>Roche Chile Ltda</t>
         </is>
       </c>
     </row>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>ROCHE CHILE LTDA</t>
+          <t>Roche Chile Ltda</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M273" t="inlineStr"/>
@@ -11220,12 +11220,12 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Saez y Zamora ltda</t>
+          <t>SAEZ AND ZAMORA LTDA</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -11247,7 +11247,7 @@
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Maria Carolina  Asela Araya</t>
+          <t>MARIA CAROLINA ASELA ARAYA</t>
         </is>
       </c>
       <c r="L275" t="inlineStr"/>
@@ -11267,7 +11267,7 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Andrea Peralta De la Rosa</t>
+          <t>Andrea Peralta de la Rosa</t>
         </is>
       </c>
       <c r="L276" t="inlineStr"/>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Present vision regarding treatment alternatives according to profiles and typologies, which are related to recent resolutions related to the list of high -cost drugs, which aims to prioritize and ensure the financing of specialized medications for patients with cancer diseases. &lt;Br /&gt;
+          <t>Present vision regarding treatment alternatives according to profiles and typologies, which are related to recent resolutions related to the list of high -cost drugs, which aims to prioritize and ensure the financing of specialized medicines for patients with cancer diseases. &lt;Br /&gt;
 &lt;Br /&gt;
 It was expected until 3:20 p.m. without the managers of interest. The meeting is terminated.</t>
         </is>
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Consiglieri Asesorias Limitada</t>
+          <t>Limited Advice Directors</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -11516,12 +11516,12 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -11563,18 +11563,18 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Leonardo Améstica</t>
+          <t>Leonardo airetic</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="inlineStr">
         <is>
-          <t>fundacion mama con cancer</t>
+          <t>Mama Foundation with Cancer</t>
         </is>
       </c>
     </row>
@@ -11638,12 +11638,12 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -11670,12 +11670,12 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -11702,12 +11702,12 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -11843,18 +11843,18 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -11876,13 +11876,13 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -11904,13 +11904,13 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -11932,13 +11932,13 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="inlineStr">
         <is>
-          <t>Cámara de la Innovación Farmacéutica de Chile</t>
+          <t>Chile's pharmaceutical innovation chamber</t>
         </is>
       </c>
     </row>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M295" t="inlineStr"/>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -12033,12 +12033,12 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>AMANDA CAETANO BATISTA</t>
+          <t>Amanda Caetano Batista</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M297" t="inlineStr"/>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -12238,18 +12238,18 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Sonia Margarit</t>
+          <t>Sonia Daisy</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="inlineStr">
         <is>
-          <t>Sonia Beatriz Margarit</t>
+          <t>Sonia Beatriz Daisy</t>
         </is>
       </c>
     </row>
@@ -12296,18 +12296,18 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Sonia Margarit</t>
+          <t>Sonia Daisy</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Sonia Beatriz Margarit</t>
+          <t>Sonia Beatriz Daisy</t>
         </is>
       </c>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -12383,12 +12383,12 @@
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Maria De Frutos</t>
+          <t>Fruit Maria</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M306" t="inlineStr"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -12523,17 +12523,17 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>ALATHEIA MEDICAL</t>
+          <t>Alathei Medical</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>ALATHEIA MEDICAL SPA</t>
+          <t>AFATHEIA Medical SPA</t>
         </is>
       </c>
     </row>
@@ -12555,17 +12555,17 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>ALATHEIA MEDICAL</t>
+          <t>Athhei medical</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>ALATHEIA MEDICAL SPA</t>
+          <t>AFATHEIA Medical SPA</t>
         </is>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -12702,17 +12702,17 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Farmamondo SA</t>
+          <t>Farmamondo with</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Daniel Tanana</t>
+          <t>Daniel Town</t>
         </is>
       </c>
     </row>
@@ -12729,22 +12729,22 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Daniel Tanana</t>
+          <t>Daniel Town</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>FarmaMondo SRL</t>
+          <t>Farmamondo srl</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>Farmamondo</t>
+          <t>Farmamond</t>
         </is>
       </c>
     </row>
@@ -12806,12 +12806,12 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Víctor Schnettler</t>
+          <t>Víctor shutters</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -12866,12 +12866,12 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Museo de Arte Contemporàneo</t>
+          <t>Museo de Artemoràneo</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -12926,12 +12926,12 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -13026,12 +13026,12 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -13118,13 +13118,13 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
         <is>
-          <t>Fundación Fuera Acosadores</t>
+          <t>Outsosadores Foundation</t>
         </is>
       </c>
     </row>
@@ -13146,13 +13146,13 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="inlineStr">
         <is>
-          <t>Fundación Fuera Acosadores</t>
+          <t>Outsosadores Foundation</t>
         </is>
       </c>
     </row>
@@ -13199,7 +13199,7 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -13215,17 +13215,17 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>COLEGIO DE QUIMICO FARMACEUTICOS DE CHILE</t>
+          <t>Chilean Pharmaceutical Chemical College</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>COLEGIO DE QUÍMICO- FARMACÉUTICOS DE CHILE</t>
+          <t>Chile's Chemist-Pharmaceutical College</t>
         </is>
       </c>
     </row>
@@ -13242,18 +13242,18 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Pamela QUINTEROS</t>
+          <t>Pamela Quinteros</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="inlineStr">
         <is>
-          <t>COLEGIO DE QUÍMICO- FARMACÉUTICOS DE CHILE</t>
+          <t>Chile's Chemist-Pharmaceutical College</t>
         </is>
       </c>
     </row>
@@ -13275,17 +13275,17 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>COLEGIO DE QUÍMICO- FARMACÉUTICOS DE CHILE REGIONAL SANTIAGO</t>
+          <t>CHEMISTA- PHARMACISTS OF CHILE SANTIAGO SANTIAGO SANTIAGO</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>COLEGIO DE QUÍMICO- FARMACÉUTICOS DE CHILE</t>
+          <t>Chile's Chemist-Pharmaceutical College</t>
         </is>
       </c>
     </row>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M330" t="inlineStr"/>
@@ -13399,18 +13399,18 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Danae Harding Ahumada</t>
+          <t>Daahe flesh</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="inlineStr">
         <is>
-          <t>Corporacion de Educación Municipal de Puente Alto (Liceo Camino de Luz)</t>
+          <t>Municipal Education Corporation of Puente Alto (Liceo Camino de Luz)</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M333" t="inlineStr"/>
@@ -13547,13 +13547,13 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="inlineStr">
         <is>
-          <t>lorena miño</t>
+          <t>Lorena Miño</t>
         </is>
       </c>
     </row>
@@ -13598,13 +13598,13 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="inlineStr">
         <is>
-          <t>FABIOLA ANDREA ROMAN ESPINACE</t>
+          <t>Fabiola Andrea Roman Espinace</t>
         </is>
       </c>
     </row>
@@ -13626,13 +13626,13 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="inlineStr">
         <is>
-          <t>HECTOR LIZANDRO VALDIVIA PARRA</t>
+          <t>Hector Lizandro Valdivia Parra</t>
         </is>
       </c>
     </row>
@@ -13649,18 +13649,18 @@
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
-          <t>DIEGO FLORES</t>
+          <t>Diego Flores</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="inlineStr">
         <is>
-          <t>DIEGO IGNACIO FLORES ROMAN</t>
+          <t>Diego Ignacio Flores Roman</t>
         </is>
       </c>
     </row>
@@ -13716,18 +13716,18 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Danae Harding Ahumada</t>
+          <t>Daahe flesh</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="inlineStr">
         <is>
-          <t>Liceo Camino de luz</t>
+          <t>Light Lyceum</t>
         </is>
       </c>
     </row>
@@ -13774,13 +13774,13 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr">
         <is>
-          <t>claudia baez</t>
+          <t>Claudia Baez</t>
         </is>
       </c>
     </row>
@@ -13827,13 +13827,13 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
         <is>
-          <t>DIRECCION DE EDUCACION MUNICIPAL</t>
+          <t>Municipal Education Directorate</t>
         </is>
       </c>
     </row>
@@ -13883,17 +13883,17 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+          <t>MHOVILOVIC COMMERCIAL SOCIETY. AND ODHER LATDA.</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos</t>
+          <t>Mihovilovic and Hnos Commercial Society</t>
         </is>
       </c>
     </row>
@@ -13915,17 +13915,17 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+          <t>MHOVILOVIC COMMERCIAL SOCIETY. AND ODHER LATDA.</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos</t>
+          <t>Mihovilovic and Hnos Commercial Society</t>
         </is>
       </c>
     </row>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>-Akish the state of progress of compliance with the commitments acquired by the State of Chile in terms of HIV /AIDS prevention and ITS. &lt;Br /&gt;
+          <t>-Akish the state of progress of compliance with the commitments acquired by the State of Chile in the matter of prevention of HIV /AIDS and STIs. &lt;Br /&gt;
 -Present observations to the National Plan for the Prevention of HIV and STI (2021-2022). &lt;Br /&gt;
 -Obain information on the progress and design of the new National Plan for the Prevention of HIV and STIs.</t>
         </is>
@@ -14095,13 +14095,13 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="inlineStr">
         <is>
-          <t>ORGANIZACION NO GUBERNAMENTAL DE DESARROLLO TRANSDISCIPLINA, SALUD, EDUCACION Y DERECHO u ONG TRANSED</t>
+          <t>Non -governmental development of transdiscipline development, health, education and law or NGO transed</t>
         </is>
       </c>
     </row>
@@ -14118,18 +14118,18 @@
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>JAVIER NUÑEZ TAPIA</t>
+          <t>Javier Nuñez Tapia</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr">
         <is>
-          <t>ORGANIZACION NO GUBERNAMENTAL DE DESARROLLO TRANSDISCIPLINA, SALUD, EDUCACION Y DERECHO u ONG TRANSED</t>
+          <t>Non -governmental development of transdiscipline development, health, education and law or NGO transed</t>
         </is>
       </c>
     </row>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -14209,7 +14209,7 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -14225,17 +14225,17 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Clínica Regional del Elqui</t>
+          <t>Elqui Regional Clinic</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>CLINICA REGIONAL DEL ELQUI</t>
+          <t>Elqui Regional Clinic</t>
         </is>
       </c>
     </row>
@@ -14257,17 +14257,17 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Clínica Regional del Elqui</t>
+          <t>Elqui Regional Clinic</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>CLINICA REGIONAL DEL ELQUI</t>
+          <t>Elqui Regional Clinic</t>
         </is>
       </c>
     </row>
@@ -14309,13 +14309,13 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="inlineStr">
         <is>
-          <t>Sociedad Chilena de la Hemofilia</t>
+          <t>Chilean Hemophilia Society</t>
         </is>
       </c>
     </row>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -14446,18 +14446,18 @@
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
-          <t>julie Kompatzki</t>
+          <t>Julie Kompatzki</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="inlineStr">
         <is>
-          <t>Julie kompatzki</t>
+          <t>Julie Kompatzki</t>
         </is>
       </c>
     </row>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M354" t="inlineStr"/>
@@ -14564,17 +14564,17 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>María TORRES</t>
+          <t>María Torres</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>BOSTOM MEDICAL DIVICE</t>
+          <t>Bostom Medical Divice</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -14596,17 +14596,17 @@
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Daisy Jabre</t>
+          <t>Daisy jabre</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>BOSTOM MEDICAL DIVICE</t>
+          <t>Bostom Medical Divice</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -14757,17 +14757,17 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>PRO SALUD CHILE A.G.</t>
+          <t>PRO HEALTH A.G.</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>Antonio Morris Perlata</t>
+          <t>Antonio Morris</t>
         </is>
       </c>
     </row>
@@ -14832,13 +14832,13 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="inlineStr">
         <is>
-          <t>Fundación MSUD Chile</t>
+          <t>MSUD Chile Foundation</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M365" t="inlineStr"/>
@@ -14930,12 +14930,12 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Juan Carlos Sola Alcazar</t>
+          <t>JUAN CARLOS SOLA ALCAZAR</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -14958,17 +14958,17 @@
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
-          <t>José Allemant</t>
+          <t>José Allermant</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Laboratorio Recalcine</t>
+          <t>Recalcine Laboratory</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -15052,12 +15052,12 @@
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Larissa Yllada</t>
+          <t>In the larissa</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M370" t="inlineStr"/>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M371" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M372" t="inlineStr"/>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M373" t="inlineStr"/>
@@ -15266,17 +15266,17 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>ASOCIACION GREMIAL DE ALIMENTOS Y BEBIDAS  DE CHILE A.G.</t>
+          <t>Gremial Food and Beverage Association of Chile A.G.</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>Asociación de Alimentos y Bebidas de Chile A.G.</t>
+          <t>Food and Drink Association of Chile A.G.</t>
         </is>
       </c>
     </row>
@@ -15298,13 +15298,13 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
       <c r="N375" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Empresas de Alimentos de Chile Chilealimentos</t>
+          <t>Guild Association of Food Business of Chile Chilealimentos</t>
         </is>
       </c>
     </row>
@@ -15346,18 +15346,18 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Luisette Foitzick</t>
+          <t>Lisette Fitzick</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M376" t="inlineStr"/>
       <c r="N376" t="inlineStr">
         <is>
-          <t>sociedad comercial san daniel SpA</t>
+          <t>San Daniel Spa Commercial Society</t>
         </is>
       </c>
     </row>
@@ -15417,18 +15417,18 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Dorka Han</t>
+          <t>He can</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
       <c r="N377" t="inlineStr">
         <is>
-          <t>Dorka Han</t>
+          <t>He can</t>
         </is>
       </c>
     </row>
@@ -15476,17 +15476,17 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Lets Energy Chile Spa</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>AWA SOLAR SPA</t>
+          <t>Awa Solar Spa</t>
         </is>
       </c>
     </row>
@@ -15508,13 +15508,13 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M379" t="inlineStr"/>
       <c r="N379" t="inlineStr">
         <is>
-          <t>AWA SOLAR SPA</t>
+          <t>Awa Solar Spa</t>
         </is>
       </c>
     </row>
@@ -15536,13 +15536,13 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M380" t="inlineStr"/>
       <c r="N380" t="inlineStr">
         <is>
-          <t>AWA SOLAR SPA</t>
+          <t>Awa Solar Spa</t>
         </is>
       </c>
     </row>
@@ -15591,17 +15591,17 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Productos Farmaceuticos Heel Chile Ltda</t>
+          <t>Heel Chile Ltda Pharmaceutical Products</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>Biobalance Nutrition S.P.A.</t>
+          <t>Biobalance nutrition s.p.a.</t>
         </is>
       </c>
     </row>
@@ -15618,18 +15618,18 @@
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
-          <t>MARCOS CARRASCO</t>
+          <t>Marcos Carrasco</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>Biobalance Nutrition S.P.A.</t>
+          <t>Biobalance nutrition s.p.a.</t>
         </is>
       </c>
     </row>
@@ -15674,17 +15674,17 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Fabricantes y Distribuidores de Licores y Bebidas Espirituosas de Chile A.G.</t>
+          <t>Guild Association of manufacturers and distributors of spirits and spirits of Chile A.G.</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>Asociación Pro Consumo Responsable de Alcohol (APROCOR)</t>
+          <t>Association Pro Consumption of Alcohol (APROCOR)</t>
         </is>
       </c>
     </row>
@@ -15701,12 +15701,12 @@
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Larissa Yllada</t>
+          <t>In the larissa</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M385" t="inlineStr"/>
@@ -15779,18 +15779,18 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>MAXIMO PICALLO CERDA</t>
+          <t>Maximo Picallo Cerda</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M386" t="inlineStr"/>
       <c r="N386" t="inlineStr">
         <is>
-          <t>Asociacion Chilena de Gastronomia</t>
+          <t>Chilean Association of Gastronomy</t>
         </is>
       </c>
     </row>
@@ -15812,13 +15812,13 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr">
         <is>
-          <t>Asociacion Chilena de gastronomia</t>
+          <t>Chilean Association of Gastronomy</t>
         </is>
       </c>
     </row>
@@ -15840,13 +15840,13 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M388" t="inlineStr"/>
       <c r="N388" t="inlineStr">
         <is>
-          <t>Asociacion Chilena de Gastronomia</t>
+          <t>Chilean Association of Gastronomy</t>
         </is>
       </c>
     </row>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>Abbvie productos farmaceuticos Ltda</t>
+          <t>Abbvie Products Farmaceticos Ltda</t>
         </is>
       </c>
     </row>
@@ -15921,13 +15921,13 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr">
         <is>
-          <t>Abbvie Productos Farmaceuticos Ltda</t>
+          <t>Abbvie Products Farmaceticos Ltda</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M391" t="inlineStr"/>
@@ -15992,12 +15992,12 @@
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Denisse L Lara</t>
+          <t>Denisse l Lara</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M392" t="inlineStr"/>
@@ -16020,12 +16020,12 @@
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Angela Del Pino</t>
+          <t>Angela del Pino</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M394" t="inlineStr"/>
@@ -16105,13 +16105,13 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
       <c r="N395" t="inlineStr">
         <is>
-          <t>Fundación Chile Asma</t>
+          <t>Chile Astma Foundation</t>
         </is>
       </c>
     </row>
@@ -16128,7 +16128,7 @@
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Gloria Gárate</t>
+          <t>Galoria Gárate</t>
         </is>
       </c>
       <c r="L396" t="inlineStr"/>
@@ -16173,7 +16173,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M399" t="inlineStr"/>
@@ -16252,12 +16252,12 @@
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>AMANDA CAETANO BATISTA</t>
+          <t>Amanda Caetano Batista</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -16305,17 +16305,17 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>Reinaldo cornejo</t>
+          <t>Reinaldo Cornejo</t>
         </is>
       </c>
     </row>
@@ -16347,18 +16347,18 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Revisión avance del decreto GES Asma Grave y la incorporación de terapias biológicas.&lt;br /&gt;
-Además mostrar modelo farmacoeconómico específico para el sector público</t>
+          <t>Review of the GESA GEic Asthma Decree and the incorporation of biological therapies. &lt;Br /&gt;
+Also show specific pharmacoeconomic model for the public sector</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Beethoven Coronel Núñez</t>
+          <t>Beethoven Colonel Núñez</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>Sanofi Aventis de Chile S.A.</t>
+          <t>SANOFI AVENTIS DE CHILE S.A.</t>
         </is>
       </c>
     </row>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>Sanofi Aventis de Chile S.A.</t>
+          <t>SANOFI AVENTIS DE CHILE S.A.</t>
         </is>
       </c>
     </row>
@@ -16432,7 +16432,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Dar seguimiento y entregar información comprometida en  reunión sostenida el día viernes 14 de marzo</t>
+          <t>Monitor and deliver committed information in sustained meeting on Friday, March 14</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -16442,12 +16442,12 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -16474,12 +16474,12 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -16506,12 +16506,12 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Reunión seguimiento iSLGT2 en GES</t>
+          <t>ISLGT2 monitoring meeting in GES</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -16558,17 +16558,17 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -16590,17 +16590,17 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Se solicita audiencia con el objeto de dar seguimiento y realizar consultas sobre temas abordados en audiencia de lobby AO001AW1744903.</t>
+          <t>Hearing is requested in order to follow up and make consultations on topics addressed at the AO001AW1744903 lobby audience.</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -16642,12 +16642,12 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -16674,12 +16674,12 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -16706,12 +16706,12 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -16748,7 +16748,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Presentación oferta PEGVISOMANT</t>
+          <t>Presentation Offer Pegvisomant</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M412" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -16809,12 +16809,12 @@
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Denisse L Lara</t>
+          <t>Denisse l Lara</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M414" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Información cotización iSGLT-2</t>
+          <t>INFORMATION ISGLT-2 quotation</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -16862,12 +16862,12 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -16894,12 +16894,12 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -16926,12 +16926,12 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Actualización contexto GES-iSLGT2</t>
+          <t>GES-ISLGT2 Context Update</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -16978,17 +16978,17 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -17010,17 +17010,17 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA.</t>
+          <t>Boehringer Ingelheim Ltda.</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>BOEHRINGER INGELHEIM LTDA</t>
+          <t>Boehringer Ingelheim Ltda</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Implementación Decreto 36/2024 que agrega tratamiento a Ley Ricarte Soto y flujo de atención de pacientes en regiones sin centro confirmador.</t>
+          <t>Implementation Decree 36/2024 that adds treatment to Ricarte Soto law and patient care flow in regions without confirmating center.</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -17094,13 +17094,13 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
       <c r="N421" t="inlineStr">
         <is>
-          <t>Novartis Chile SA</t>
+          <t>Novartis Chile in</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Incumplimiento de GES en hospitales</t>
+          <t>Non -compliance with hospitals</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -17143,13 +17143,13 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr">
         <is>
-          <t>Corporación para la Fibrosis Quistica</t>
+          <t>CORPORATION FOR QUALE FIBROSIS</t>
         </is>
       </c>
     </row>
@@ -17181,8 +17181,8 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Solicitar resultados del estudio de verificación de costos, GES 2025-2028&lt;br /&gt;
-Entraron de Minsal Hugo Ossandon y Fabiola Rosso</t>
+          <t>Request results of the cost verification study, GES 2025-2028 &lt;Br /&gt;
+They entered from Minsal Hugo Ossandon and Fabiola Rosso</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -17192,13 +17192,13 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M423" t="inlineStr"/>
       <c r="N423" t="inlineStr">
         <is>
-          <t>fundacion chile asma</t>
+          <t>Chile Astma Foundation</t>
         </is>
       </c>
     </row>
@@ -17215,7 +17215,7 @@
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Gloria Gárate</t>
+          <t>Galoria Gárate</t>
         </is>
       </c>
       <c r="L424" t="inlineStr"/>
@@ -17250,8 +17250,8 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Se solicita audiencia de lobby para hacer seguimiento a requerimiento planteado de forma previa con relación al PS GES N°38 EPOC.&lt;br /&gt;
-TAMBIEN SE TRATARON TEMAS DE OLAPARIB</t>
+          <t>Lobby hearing is requested to monitor the requirement raised prior in relation to PS GES N ° 38 COPD. &lt;Br /&gt;
+Olaparib songs were also discussed</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -17261,12 +17261,12 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -17293,12 +17293,12 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -17325,12 +17325,12 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -17352,12 +17352,12 @@
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Rodrigo Enríquez</t>
+          <t>Rodrigo Enriquez</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -17395,8 +17395,8 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Se solicita audiencia con el objeto de profundizar información de valor del portfolio oncológico de AstraZeneca para el cáncer de mama y explorar oportunidades en materia de Acuerdos de Riesgo Compartido, en continuación a audiencia de lobby AO001AW1712237.&lt;br /&gt;
-Participo de Minsal Hugo, Valentina Cortinez.</t>
+          <t>Hearing is requested in order to deepen value information from the Oncological Portfolio of Astrazeneca for breast cancer and explore opportunities regarding shared risk agreements, in continuation to lobby audience AO001AW171212237. &lt;Br /&gt;
+I participate in Minsal Hugo, Valentina Cortinez.</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -17406,12 +17406,12 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -17438,12 +17438,12 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -17470,12 +17470,12 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -17502,12 +17502,12 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -17534,12 +17534,12 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -17576,9 +17576,9 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Presentación propuesta de Acuerdo de Riesgo Compartido para Keytruda&lt;br /&gt;
-Desde Minsal entra, Valentina Cortinez, Hugo Ossandon, Fabiola Rosso. &lt;br /&gt;
-Solo quedaron en solicitar nueva lobby</t>
+          <t>Presentation Proposal for Shared Risk Agreement for Keytruda &lt;Br /&gt;
+From Minsal, Valentina Cortinez, Hugo Ossandon, Fabiola Rosso. &lt;Br /&gt;
+They only remained in request new lobby</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M435" t="inlineStr"/>
@@ -17639,12 +17639,12 @@
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
-          <t>AMANDA CAETANO BATISTA</t>
+          <t>Amanda Caetano Batista</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -17672,7 +17672,7 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M437" t="inlineStr"/>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -17738,8 +17738,8 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Solicitamos seguimiento para revisar propuesta de Acuerdo de Riesgo Compartido para la implementación del tratamiento temprano con pembrolizumab en personas con cancer de mama triple negativo. Via correo electronico se ha hecho llegar minuta con la información entregada en reuniones anteriores.&lt;br /&gt;
-Asisten de Minsal Alain Palacios, Tamara Doberti, Kathi Cerda, Rodrigo Soverino</t>
+          <t>We request monitoring to review a shared risk agreement for the implementation of early treatment with Pmbrolizumab in people with triple negative breast cancer. Via email, minute has been sent to the information delivered in previous meetings. &lt;Br /&gt;
+They attend Minsal Alain Palacios, Tamara Doberti, Kathi Cerda, Rodrigo Saverino</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M439" t="inlineStr"/>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M440" t="inlineStr"/>
@@ -17800,12 +17800,12 @@
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
-          <t>AMANDA CAETANO BATISTA</t>
+          <t>Amanda Caetano Batista</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M441" t="inlineStr"/>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M442" t="inlineStr"/>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Única red social de salud y bienestar integral del mundo</t>
+          <t>Only social network of health and integral well -being in the world</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M444" t="inlineStr"/>
@@ -17952,7 +17952,7 @@
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
-          <t>BRUNO SOLARI</t>
+          <t>Bruno Solari</t>
         </is>
       </c>
       <c r="L446" t="inlineStr"/>
@@ -17982,12 +17982,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>presentarles propuesta en el ámbito de Hospitalización Domiciliaria en Salud Mental</t>
+          <t>present proposal in the field of home health hospitalization</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -17997,17 +17997,17 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE PROFESIONALES INNRED SPA</t>
+          <t>Innred Spa Professional Society</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>Sociedad de Profesionales Innred SpA</t>
+          <t>Innred Spa Professional Society</t>
         </is>
       </c>
     </row>
@@ -18029,13 +18029,13 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M448" t="inlineStr"/>
       <c r="N448" t="inlineStr">
         <is>
-          <t>Sociedad de Profesionales Innred SpA</t>
+          <t>Innred Spa Professional Society</t>
         </is>
       </c>
     </row>
@@ -18052,12 +18052,12 @@
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
-          <t>JORGE SALAZAR CASTRO</t>
+          <t>Jorge Salazar Castro</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M449" t="inlineStr"/>
@@ -18095,15 +18095,15 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Solicitud de reunión para presentar plan piloto en beneficio de pacientes con nutrición enteral domiciliaria.&lt;br /&gt;
-Estimada Andrea:&lt;br /&gt;
-Mi nombre es Bárbara Cabrera, Jefe de Acceso a Mercados en Fresenius Kabi, uno de los principales proveedores de nutrición enteral para beneficiarios de Ley Ricarte Soto. Me permito dirigirme a ustedes para solicitar una reunión con el objetivo de presentar un plan piloto que hemos desarrollado para beneficiar a 100 pacientes de 6 instituciones de salud que requieren nutrición enteral.&lt;br /&gt;
-Actualmente, estos pacientes deben retirar mensualmente más de 30 kilos de producto y transportarlos por sus propios medios a sus domicilios, lo que genera una carga considerable y un gasto de bolsillo para la familia. Nuestro plan piloto propone incorporar un servicio de traslado directo al domicilio del paciente, complementado con un seguimiento clínico personalizado para garantizar la continuidad y efectividad del tratamiento y así también apoyar a las instituciones de la Red en su labor diaria.&lt;br /&gt;
-Además, una de las principales fortalezas de este programa es que no representa un costo adicional, y su expectativa es que pueda escalarse progresivamente a nivel nacional, ampliando el beneficio a un mayor número de pacientes en condiciones similares.&lt;br /&gt;
-Estamos convencidos de que este proyecto puede transformar la experiencia de los pacientes, simplificar su acceso a los tratamientos y mejorar su calidad de vida, por lo que consideramos clave contar con la participación y apoyo del Ministerio de Salud para su implementación y evaluación inicial.&lt;br /&gt;
-Quedamos atentos a su disponibilidad para coordinar esta reunión, ya sea de manera presencial o virtual, según consideren más conveniente.&lt;br /&gt;
-Agradeciendo de antemano su atención e interés, quedo a su disposición para ampliar cualquier detalle o facilitar información adicional.&lt;br /&gt;
-Atentamente,&lt;br /&gt;
+          <t>Meeting request to present pilot plan for the benefit of patients with home enteral nutrition. &lt;Br /&gt;
+Estimated Andrea: &lt;Br /&gt;
+My name is Barbara Cabrera, head of access to markets in Fresenius Kabi, one of the main suppliers of enteral nutrition for beneficiaries of Ricarte Soto law. I allow myself to address you to request a meeting with the objective of presenting a pilot plan that we have developed to benefit 100 patients from 6 health institutions who require enteral nutrition. &lt;Br /&gt;
+Currently, these patients should remove more than 30 kilos of product monthly and transport them by their own means to their homes, which generates a considerable load and a pocket expense for the family. Our pilot plan proposes to incorporate a direct transfer service to the patient's home, complemented with personalized clinical monitoring to guarantee the continuity and effectiveness of the treatment and thus support the network institutions in their daily work. &lt;Br /&gt;
+In addition, one of the main strengths of this program is that it does not represent an additional cost, and its expectation is that it can be lavished progressively nationwide, expanding the benefit to a greater number of patients in similar conditions. &lt;Br /&gt;
+We are convinced that this project can transform the experience of patients, simplify their access to treatments and improve their quality of life, so we consider the participation and support of the Ministry of Health for its implementation and initial evaluation. &lt;Br /&gt;
+We are attentive to its availability to coordinate this meeting, either in person or virtual, as they consider more convenient. &lt;Br /&gt;
+Thanking in advance your attention and interest, I remain at your disposal to expand any detail or provide additional information. &lt;Br /&gt;
+Sincerely, &lt;Br /&gt;
 Bárbara Cabrera Leyton</t>
         </is>
       </c>
@@ -18114,17 +18114,17 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>Fresenius Kabi S.A. (Recetario Magistral S.A.)</t>
+          <t>Fresenius Kabi S.A. (Receetary MASTISTRICAL S.A.)</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>Recetario Magistral Endovenoso SA</t>
+          <t>Endovenous Master Receiving to</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18156,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Presentación de nueva tecnología para tratamiento en Oncología y Radioterapia,</t>
+          <t>New Technology presentation for treatment in oncology and radiotherapy,</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -18166,13 +18166,13 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M451" t="inlineStr"/>
       <c r="N451" t="inlineStr">
         <is>
-          <t>Ingeniería en Electrónica Computación y Medicina S.A.</t>
+          <t>INGENIERÍA IN ELECTRONICAS COMPUTA Y MEDICINA S.A.</t>
         </is>
       </c>
     </row>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>En el marco del segundo prestador, conocer aspectos respecto a su implementación en Hospitales Públicos de Salud</t>
+          <t>Within the second provider, knowing aspects regarding its implementation in public health hospitals</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
@@ -18303,12 +18303,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Obras en construcción Hospitalarias</t>
+          <t>Hospital construction works</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -18318,17 +18318,17 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>Constructora San Jose S.A. Agencia en Chile</t>
+          <t>CONSTRUCTORA SAN JOSE S.A. Agency in Chile</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>san jose constructora chile s.a.</t>
+          <t>San Jose Constructora Chile S.A.</t>
         </is>
       </c>
     </row>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Se requiere reunión presencial para ver temas del Hospital de Curacautín</t>
+          <t>Face -to -face meeting is required to see themes of the Curacautín hospital</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -18370,17 +18370,17 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>MOLLER Y PEREZ COTAPOS S.A.</t>
+          <t>Moller y Perez Cotapos S.A.</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>Empresa Constructora Moller y Pérez-Cotapos S.A</t>
+          <t>Construction company Moller y Pérez-Cotapos S.A</t>
         </is>
       </c>
     </row>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Situación recepción de obras Hospital de Casablanca y gastos generales.</t>
+          <t>Situation Reception of Casablanca Hospital and general expenses.</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -18422,17 +18422,17 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>Constructora San Jose S.A. Agencia en Chile</t>
+          <t>CONSTRUCTORA SAN JOSE S.A. Agency in Chile</t>
         </is>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>san jose constructora chile s.a.</t>
+          <t>San Jose Constructora Chile S.A.</t>
         </is>
       </c>
     </row>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Solicitamos reunión con Unidad de Monitoreo para plantear elementos asociados a dos solicitudes de Mayores Gastos Generales presentadas ante el Servicio de Salud Viña del Mar - Quillota, las cuales no han tenido respuesta a la fecha, sin perjuicio de los dictamenes emitidos por Contraloría General de la República. Queremos solicitar sus buenos oficios como forma de destrabar esta situación en atención a que la Constructora actualmente se encuentra desarrollando diversos proyectos con este y otros servicios, siendo la respuesta a dichas solicitudes fundamental para continuar, potenciar y mejorar el trabajo de la Constructora. Adicionalmente queremos consultar la falta de aplicación del DS304 en proyecto que cumplía con los requerimientos y los pasos a seguir para obtener dicha retribución. Agradecidos.</t>
+          <t>We request meeting with a monitoring unit to raise elements associated with two requests for higher general expenses submitted to the Viña del Mar - Quillota Health Service, which have not had a response to the date, without prejudice to the dictatorships issued by Comptroller General of the Republic. We want to request their good trades as a way of unlocking this situation in view of the construction company is currently developing various projects with this and other services, being the response to these fundamental requests to continue, enhance and improve the construction of the construction company. Additionally we want to consult the lack of application of the DS304 in the project that met the requirements and the steps to follow to obtain such compensation. Grateful.</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -18474,12 +18474,12 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>GMPG Ingeniería y Construcción SpA.</t>
+          <t>GMPG Engineering and Construction Spa.</t>
         </is>
       </c>
       <c r="N458" t="inlineStr">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
@@ -18571,14 +18571,14 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Estimada Ministra Ximena Aguilera, &lt;br /&gt;
-&lt;br /&gt;
-Es un placer saludarle. Le solicito amablemente que tome un momento para revisar esta solicitud de audiencia. Si es posible derivar con el encargado del departamento de Infraestructura, en caso que lo considere pertinente, motivado a que nos gustaría programar una breve Reunión Online de 30 minutos con el propósito de presentarle las nuevas funcionalidades de nuestro "Software de Presupuesto de Obras diseñado específicamente para Entidades del Estado". Cabe destacar que somos proveedores exclusivos para el Estado.</t>
+          <t>Dear Minister Ximena Aguilera, &lt;Br /&gt;
+&lt;Br /&gt;
+It is a pleasure to greet him. I kindly ask you to take a moment to review this audience application. If possible to derive with the person in charge of the Infrastructure Department, in case I consider it pertinent, motivated that we would like to schedule a brief 30 -minute online meeting with the purpose of presenting the new functionalities of our "works budget software designed specifically for state entities". It should be noted that we are exclusive suppliers for the State.</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -18626,7 +18626,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Situación y Dictamen Contraloría por Liquidación proyecto Hospital de Putaendo y temas varios sobre construcción Hospital Provincial Marga Marga.</t>
+          <t>Situation and Comptroller's Comptroller for Liquidation Project Hospital de Putaendo and various topics on construction Marga Marga Provincial Hospital.</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -18636,17 +18636,17 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>Constructora PACAL</t>
+          <t>PACAL CONSTRUCTOR</t>
         </is>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>Acciona Chile SpA</t>
+          <t>Chile Spa acts</t>
         </is>
       </c>
     </row>
@@ -18663,22 +18663,22 @@
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>BONIFACIO SALVADOR</t>
+          <t>Bonifacio Salvador</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>ACCIONA CONSTRUCCIÓN S.A., AGENCIA CHILE</t>
+          <t>ACCIONA CONSTRUCTO S.A., AGENCY CHILE</t>
         </is>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>Acciona Chile Spa</t>
+          <t>Chile Spa acts</t>
         </is>
       </c>
     </row>
@@ -18710,17 +18710,17 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Tema:  Cobro indebido de Boletas de Garantía Hospital Quellón</t>
+          <t>Topic: Improper Collection of Quellón Hospital Warranty Ballots</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Rodrigo Bezanilla Lafrentz</t>
+          <t>Rodrigo Bezanilla</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
@@ -18752,12 +18752,12 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>DRAGADOS AGENCIA CHILE S.A.</t>
+          <t>DRAGADOS AGENCY CHILE S.A.</t>
         </is>
       </c>
       <c r="N465" t="inlineStr">
@@ -18779,12 +18779,12 @@
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
-          <t>PAOLO FELICE</t>
+          <t>Paolo Felice</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M466" t="inlineStr"/>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -18850,14 +18850,14 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Estimados,&lt;br /&gt;
-Junto con saludar, escribo para solicitar una reunión de presentación de nuestro equipo de trabajo y las soluciones que trabajamos en cuanto a equipamiento médico, mobiliario clínico y software de gestión de activos hospitalarios.&lt;br /&gt;
-&lt;br /&gt;
-¿Es posible agendar una reunión online con la persona a cargo de proyectos para presentar nuestras soluciones?&lt;br /&gt;
-&lt;br /&gt;
-Quedo atenta a sus comentarios&lt;br /&gt;
-&lt;br /&gt;
-Saludos cordiales</t>
+          <t>Estimated, &lt;Br /&gt;
+Together with greeting, I write to request a meeting to present our work team and the solutions we work in terms of medical equipment, clinical furniture and hospital asset management software. &lt;Br /&gt;
+&lt;Br /&gt;
+Is it possible to schedule an online meeting with the person in charge of projects to present our solutions? &lt;Br /&gt;
+&lt;Br /&gt;
+I am attentive to your comments &lt;Br /&gt;
+&lt;Br /&gt;
+Kind regards</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -18867,17 +18867,17 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>Drogueria Hofmann SAC</t>
+          <t>Drugotria Hofmann Sac</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>DROGUERIA HOFMANN LTDA Y CIA EN CPA</t>
+          <t>Hofmann Ltda and CIA drugstore</t>
         </is>
       </c>
     </row>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>quisiera saber el estado de las salas era e ira en cuanto a renovación de espirómetros, mas el espacio ver el tema del espacios protegidos (cardio protegido) requerido por ley 21156</t>
+          <t>I would like to know the status of the rooms was and anger in terms of spratometers renewal, but the space to see the issue of protected spaces (protected cardio) required by Law 21156</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -18919,13 +18919,13 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M469" t="inlineStr"/>
       <c r="N469" t="inlineStr">
         <is>
-          <t>cardiomedcs tecnologia en salud spa</t>
+          <t>Cardiomedcs Spa Health Technology</t>
         </is>
       </c>
     </row>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Evaluar solución integral de Diálisis, con diseño de construcción, modular, con planta de tratamiento.</t>
+          <t>Evaluate comprehensive dialysis solution, with construction, modular design, with treatment plant.</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M470" t="inlineStr"/>
@@ -18990,17 +18990,17 @@
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
-          <t>CRISTIAN NUÑEZ</t>
+          <t>Cristian Nuñez</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>PENTAFARMA S.A.</t>
+          <t>Pentafarma S.A.</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -19027,7 +19027,7 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M472" t="inlineStr"/>
@@ -19055,7 +19055,7 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M473" t="inlineStr"/>
@@ -19088,13 +19088,13 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>i)	 Cierre Administrativo de los Contratos de los Proyectos de Construcción Hospital de Alto Hospicio y Hospital BI Provincial de Quillota Petorca, en particular pago de montos reconocidos como indemnizaciones por la Contraloría General de la República y la Dirección de Arquitectura MOP.   &lt;br /&gt;
-ii)	Dificultades en el avance de obra de los proyectos de Construcción de los Hospitales Sotero del Rio y Hospital Provincia de Cordillera.</t>
+          <t>i) Administrative closure of the contracts of the construction projects Hospital of Alto Hospicio and BI hospital provincial of Quillota Petorca, in particular payment of amounts recognized as compensation for the Comptroller General of the Republic and the MOP Architecture Department.   &lt;Br /&gt;
+ii) Difficulties in the work advance of the construction projects of the Sotero del Rio and Hospital Province hospital.</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M475" t="inlineStr"/>
@@ -19155,12 +19155,12 @@
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
-          <t>JUAN ANTONIO MARIN RODENAS</t>
+          <t>Juan Antonio Marin Roden</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M476" t="inlineStr"/>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>La propuesta consiste en capturar datos sobre los problemas encontrados en etapas de ingeniería, construcción y operación en conjunto con sus soluciones adoptadas, implementando para esto una plataforma centralizada para la gestión de proyectos hospitalarios a nivel MINSAL, que permita integrar, estandarizar y monitorear en tiempo real el avance físico-financiero de iniciativas de infraestructura y equipamiento, utilizando para ello las lecciones aprendidas. Esta herramienta busca optimizar la asignación de recursos, reducir brechas de ejecución, mejorar la trazabilidad presupuestaria y apoyar la toma de decisiones estratégicas mediante información consolidada y oportuna.</t>
+          <t>The proposal is to capture data on the problems encountered in engineering, construction and operation stages in conjunction with its solutions adopted, implementing for this a centralized platform for the management of hospital projects at the MINSAL level, which allows integrating, standardizing and monitoring in real time the physical-financial progress of infrastructure and equipment initiatives, using the lessons learned for it. This tool seeks to optimize the allocation of resources, reduce execution gaps, improve budget traceability and support strategic decision making through consolidated and timely information.</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M477" t="inlineStr"/>
@@ -19236,7 +19236,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -19269,12 +19269,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Suministro eléctrico nuevo Hospital de Parral Región del Maule</t>
+          <t>Electric supply New Hospital of Parral Maule Region</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -19284,12 +19284,12 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>Luzlinares S.A.</t>
+          <t>LUZLINARES S.A.</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M480" t="inlineStr"/>
@@ -19339,12 +19339,12 @@
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
-          <t>SERGIO ESPINOZA</t>
+          <t>Sergio Espinoza</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -19377,22 +19377,22 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>TEMA: CIERRES CONTRACTUALES PENDIENTES DE OBRA HOSPITAL DE ANCUD</t>
+          <t>Theme: contractual closures pending work hospital of Ancud</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Rodrigo Bezanilla Lafrentz</t>
+          <t>Rodrigo Bezanilla</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>BESALCO S.A HOSPITAL DE ANCUD</t>
+          <t>Besalco S.A Ancud Hospital</t>
         </is>
       </c>
     </row>
@@ -19459,7 +19459,7 @@
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
-          <t>MAURICIO TOLEDO</t>
+          <t>Mauricio Toledo</t>
         </is>
       </c>
       <c r="L485" t="inlineStr"/>
@@ -19479,7 +19479,7 @@
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>LEONEL SANCHEZ</t>
+          <t>Leonel Sanchez</t>
         </is>
       </c>
       <c r="L486" t="inlineStr"/>
@@ -19534,7 +19534,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>CESFAM El Manzano; Actividades relacionadas a la salud comunal</t>
+          <t>Cesfam el Manzano; Activities related to communal health</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -19544,13 +19544,13 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M488" t="inlineStr"/>
       <c r="N488" t="inlineStr">
         <is>
-          <t>Departamento de Salud I. Municipalidad de Las Cabras</t>
+          <t>Health Department I. Municipality of Las Cabras</t>
         </is>
       </c>
     </row>
@@ -19567,7 +19567,7 @@
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
-          <t>JUAN FLORES</t>
+          <t>Juan Flores</t>
         </is>
       </c>
       <c r="L489" t="inlineStr"/>
@@ -19607,7 +19607,7 @@
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Samuel Sepúlveda</t>
+          <t>Samuel Sepulveda</t>
         </is>
       </c>
       <c r="L491" t="inlineStr"/>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Tema a tratar: Perfeccionamiento de las bases de licitación</t>
+          <t>Topic to be treated: improvement of bidding bases</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -19692,17 +19692,17 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>CÁMARA CHILENA DE LA CONSTRUCCIÓN A.G.</t>
+          <t>Chilean Construction Chamber A.G.</t>
         </is>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>Cámara Chilena de la Construcción</t>
+          <t>Chilean Construction Chamber</t>
         </is>
       </c>
     </row>
@@ -19724,17 +19724,17 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>MOLLER Y PEREZ COTAPOS S.A.</t>
+          <t>Moller y Perez Cotapos S.A.</t>
         </is>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>Cámara Chilena de la Construcción</t>
+          <t>Chilean Construction Chamber</t>
         </is>
       </c>
     </row>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>Cámara Chilena de la Construcción</t>
+          <t>Chilean Construction Chamber</t>
         </is>
       </c>
     </row>
@@ -19788,17 +19788,17 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>CÁMARA CHILENA DE LA CONSTRUCCIÓN A.G.</t>
+          <t>Chilean Construction Chamber A.G.</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>Cámara Chilena de la construcción</t>
+          <t>Chilean Construction Chamber</t>
         </is>
       </c>
     </row>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>BUENAS TARDES SRTA XIMENA AGUILERA SOY REPRESENTANTE DE EMPRESA ARENYSMED ,LLEVO 2 AÑOS ESPERANDO REGULARIZAR PENDIENTES DE ORDEN DE COMPRA PESE A ESTAR LICITADOS ( HOSPITAL DE CURICO) ,ENVIO MAIL TRAS MAIL SIN OBTENER RESPUESTA .HE AGOTADO TODAS LAS INSTANCIAS A TRAVES DE SR DIRECTOR JORGE CANTEROS,SRA DRA MARTA CARO DIRECTORA DEL SERVICIO SALUD DEL MAULE POR ESTE MOTIVO RECURRO A USTED YA QUE LA DEUDA ASCIENDE A $ 163.594.650.</t>
+          <t>Good afternoon, Mr. Ximena Aguilera I am a representative of the Arenysmed Company, I have been waiting for regular slopes of purchase to be tendered (Curico Hospital), Mail Shipping after Mail without obtaining an answer. I have exhausted all instances through SR Director Jorge Canteros, Mrs. Dra Marta Caro Director of the Maule Health Service for this reason I resort to you since the debt ascends to $ 163,594,650.</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -19840,13 +19840,13 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M498" t="inlineStr"/>
       <c r="N498" t="inlineStr">
         <is>
-          <t>ELISA MORAGA MAURELIA</t>
+          <t>Elisa Moraga</t>
         </is>
       </c>
     </row>
@@ -19873,13 +19873,13 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Termino de obra Hospital Leopoldo Ortega de Chile Chico.&lt;br /&gt;
-Pago de indemnizaciones</t>
+          <t>Term of work LEOPOLDO ORTEGA HOSPITAL DE CHILE CHICA. &lt;BR /&gt;
+Payment of compensation</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -19889,7 +19889,7 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M499" t="inlineStr"/>
@@ -19917,7 +19917,7 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M500" t="inlineStr"/>
@@ -19940,12 +19940,12 @@
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Juan Erique Ossa Frugone</t>
+          <t>Juan Erique Bones Fruit</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M502" t="inlineStr"/>
@@ -20015,9 +20015,9 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Buenos días, el motivo de esta solicitud trata lo referente al proyecto de construcción de Cesfam en la comuna de Pumanque.&lt;br /&gt;
-solicitamos una reunión para abordar puntos relevantes referente a la aprobación de este proyecto.&lt;br /&gt;
-Solicita asistir el Alcalde junto a su Administrador Municipal y Secplan.</t>
+          <t>Good morning, the reason for this request deals with the Cesfam construction project in the commune of Pmanque. &lt;Br /&gt;
+We request a meeting to address relevant points regarding the approval of this project. &lt;Br /&gt;
+The mayor requests to attend with his municipal administrator and SECPLAN.</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -20027,13 +20027,13 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M503" t="inlineStr"/>
       <c r="N503" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pumanque</t>
+          <t>Illustrious Municipality of Pmanqueque</t>
         </is>
       </c>
     </row>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Solicitamos una reunión para conocer las iniciativas de proyectos de inversión y de reposición del sector para 2025, con el objetivo de disponer de las mejores opciones de tecnología y disponibilidad de equipos para ofrecer en los procesos licitatorios y cumplir con expectativas y requerimientos.</t>
+          <t>We request a meeting to learn about the initiatives of investment and replacement projects of the sector by 2025, with the aim of having the best technology and availability options to offer in bidding processes and meet expectations and requirements.</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -20076,17 +20076,17 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>PHILIPS CHILENA S.A.</t>
+          <t>Philips Chilena S.A.</t>
         </is>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>Philips Chilena SA</t>
+          <t>PHILIPS CHILENA SA</t>
         </is>
       </c>
     </row>
@@ -20120,10 +20120,10 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Estado de la obra pública fiscal Red Maule &lt;br /&gt;
-Proyectos &lt;br /&gt;
-Negociaciones&lt;br /&gt;
-Otros</t>
+          <t>State of the Fiscal Public Works Red Maule &lt;Br /&gt;
+Projects &lt;Br /&gt;
+Negotiations &lt;Br /&gt;
+Others</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -20133,13 +20133,13 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M505" t="inlineStr"/>
       <c r="N505" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Red Maule S.A.</t>
+          <t>CONCESSIONARY COMPANY NETWORK S.A.</t>
         </is>
       </c>
     </row>
@@ -20156,18 +20156,18 @@
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
-          <t>JOSE IGNACIO AGUIRRE DURAN</t>
+          <t>Jose Ignacio Aguirre Duran</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M506" t="inlineStr"/>
       <c r="N506" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Red Maule S.A.</t>
+          <t>CONCESSIONARY COMPANY NETWORK S.A.</t>
         </is>
       </c>
     </row>
@@ -20189,13 +20189,13 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M507" t="inlineStr"/>
       <c r="N507" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Red Maule S.A.</t>
+          <t>CONCESSIONARY COMPANY NETWORK S.A.</t>
         </is>
       </c>
     </row>
@@ -20212,18 +20212,18 @@
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Purificación Torreblanca</t>
+          <t>Torreblanca purification</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M508" t="inlineStr"/>
       <c r="N508" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Red Maule S.A.</t>
+          <t>CONCESSIONARY COMPANY NETWORK S.A.</t>
         </is>
       </c>
     </row>
@@ -20255,23 +20255,23 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Seguimiento reunión modificación de contrato hospital de Antofagasta.</t>
+          <t>Meeting Meeting Contract Modification Hospital of Antofagasta.</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>fernando Ruiz</t>
+          <t>Fernando Ruiz</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M509" t="inlineStr"/>
       <c r="N509" t="inlineStr">
         <is>
-          <t>Sacyr Concesiones Chile SpA.</t>
+          <t>Sacyr Concessions Chile Spa.</t>
         </is>
       </c>
     </row>
@@ -20293,13 +20293,13 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M510" t="inlineStr"/>
       <c r="N510" t="inlineStr">
         <is>
-          <t>Sacyr Concesiones Chile SpA.</t>
+          <t>Sacyr Concessions Chile Spa.</t>
         </is>
       </c>
     </row>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>Sacyr Concesiones Chile SpA.</t>
+          <t>Sacyr Concessions Chile Spa.</t>
         </is>
       </c>
     </row>
@@ -20364,10 +20364,10 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Informe CEI 57.&lt;br /&gt;
-Orientaciones técnicas 2025 programa de acompañamiento a la identidad de Género.&lt;br /&gt;
-Fueron recibido desde el Gabinete de la Subsecretaría de Salud Pública por Sara Correa Paz y Alberto Inzulza.&lt;br /&gt;
-Se genera primera reunión de contacto entre la subsecretaría de Salud Pública y la agrupación, se establece que se enviaran las preguntas por correo electrónico para poder gestionarla en el ministerio de Salud</t>
+          <t>CEI 57. &lt;Br /&gt;
+Technical orientations 2025 Program for accompaniment to gender identity. &lt;Br /&gt;
+They were received from the Cabinet of the Undersecretariat of Public Health by Sara Correa Paz and Alberto Inzulza. &lt;Br /&gt;
+First contact meeting is generated between the Undersecretariat of Public Health and the Group, it is established that the questions by email will be sent to be able to manage it in the Ministry of Health</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -20377,13 +20377,13 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M512" t="inlineStr"/>
       <c r="N512" t="inlineStr">
         <is>
-          <t>Red Nacional de Mapadres y Cuidadores de niñeces y juventudes transdiversas</t>
+          <t>National Network of Mapadres and Caregivers of Children and Youth Transdiversas</t>
         </is>
       </c>
     </row>
@@ -20405,13 +20405,13 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M513" t="inlineStr"/>
       <c r="N513" t="inlineStr">
         <is>
-          <t>Red Nacional de Mapadres y Cuidadores de niñeces y juventudes transdiversas</t>
+          <t>National Network of Mapadres and Caregivers of Children and Youth Transdiversas</t>
         </is>
       </c>
     </row>
@@ -20443,49 +20443,49 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Corporación Educacional “San Francisco de Asís”&lt;br /&gt;
-Padre Orellana #1128 - Fono: 22554 49 68- Santiago&lt;br /&gt;
-Email: snfcoasis@yahoo.es&lt;br /&gt;
-Participaron de la Corporación Educacional San Francisco de Asís para Niños Sordos en la audiencia lobby la Sra. Yanett Corrotea, Octavio Poblete. &lt;br /&gt;
-Fueron recibidos desde el Minsal por Sara Correa Paz y Javiera Vivanco Escobar, asesoras del Gabinete de la Subsecretaría de Salud Pública.&lt;br /&gt;
-Tema: Atención de niños hasta los 14 años, el sistema no cubre atención,&lt;br /&gt;
-Necesitan un establecimiento para seguir funcionando.&lt;br /&gt;
-&lt;br /&gt;
- &lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-Santiago, diciembre 16 de 2024.&lt;br /&gt;
-&lt;br /&gt;
-Señora&lt;br /&gt;
-Ximena Aguilera Sanhueza&lt;br /&gt;
-Ministra de Salud&lt;br /&gt;
-Presente&lt;br /&gt;
-&lt;br /&gt;
-Estimada Ministra&lt;br /&gt;
-Junto con saludar, exponemos la siguiente situación que nos afecta severamente, solicitando apoyo para poder revertirla. &lt;br /&gt;
-Nuestro proyecto educativo se inició el año 1999 a cargo de un grupo de profesoras especialistas del “Colegio la Purísima para niños sordos” de la Comuna de San Miguel, perteneciente a la Congregación de las Hermanas Franciscanas de la Inmaculada. &lt;br /&gt;
-Luego del cierre de ese establecimiento y de un esfuerzo titánico, logramos inaugurar el año 1999 el Colegio San Francisco de Asís para niños sordos, en la comuna de Santiago. La iniciativa contó con el apoyo de la Parroquia San Andrés, de Santiago Centro, al brindarnos la posibilidad de funcionar en sus terrenos con un bajo costo de arriendo. &lt;br /&gt;
-Es un establecimiento de enseñanza de Enseñanza Diferencial que atiende Discapacidad Auditiva, con un curso por nivel desde pre kínder a sexto básico, que atiende a niños de 4 a 14 años y de no más de 8 estudiantes por curso. &lt;br /&gt;
-El sostenimiento del establecimiento está a cargo de la Corporación Educacional San Francisco de Asís, sin fines de lucro. Nuestra comunidad está conformada por familias de nivel socioeconómico y cultural medio bajo y bajo. Nuestro equipo lo conforman 15 personas entre profesionales y personal administrativo.&lt;br /&gt;
-Desde sus orígenes hemos asumido nuestra labor con un alto compromiso por la población sorda, esforzándonos por avanzar hacia una propuesta pertinente a los desafíos que como tenemos en esta área como país. Coherentemente con lineamientos internacionales y, últimamente, con la Política de Salud Nacional (Programa Nacional de Implantes), nuestro proyecto se diferencia de otros establecimientos especiales de este tipo por potenciar todas las capacidades comunicativas los/as estudiantes: desde el habla hasta las señas.&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-En esta línea el proyecto apuesta a un fuerte énfasis en el trabajo artístico expresivo, particularmente en las áreas de la plástica, música y expresión corporal y, coherentemente, con aquello en las habilidades socioemocionales. Es así como dentro de nuestros logros destaca la adjudicación de varios fondos concursables externos: Fondos de Cultura (2), FONADIS, SENADIS, entre otros. Asimismo, estudiantes y profesores/as realizan práctica de meditación diariamente, una experiencia publicada en Europa en una revista académica indexada. En los siguientes enlaces puede revisar con más detalle estos antecedentes: &lt;br /&gt;
-https://www.youtube.com/watch?v=FddzAKxhEQw&lt;br /&gt;
-https://digibug.ugr.es/bitstream/handle/10481/42928/5-20.pdf?sequence=1&amp;isAllowed=y&lt;br /&gt;
-Sin embargo, desde hace tres años hemos estado buscando infructuosamente un local donde continuar nuestro trabajo dado que el párroco a cargo de la parroquia nos solicitó el local pues se ha decidido desarrollar un proyecto más rentable.  Y debido a nuestra demora en dejarlo nos ha demandado judicialmente. Hemos acudido sin éxito al episcopado, a bienes nacionales, a congresistas y otras autoridades. &lt;br /&gt;
-En caso de no contar con un local para el próximo año, nos veremos obligados a cerrar, dejando a nuestro/as estudiantes y sus familias sin esta valiosa alternativa, a nuestros trabajadores sin su fuente laboral y al medio nacional sin toda la experticia acumulada en casi 26 años de un proyecto altamente innovador, pertinente y humanizador.&lt;br /&gt;
-Señora Ministra de Salud, en virtud a lo anteriormente expuesto, es que solicitamos su buena acogida, y nos permita una entrevista para exponerles nuestro caso, con más detalles y gestionar un local en su prestigiosa comuna que dirige para poder seguir funcionando.&lt;br /&gt;
-Agradeciendo su respuesta, le saluda atentamente a usted&lt;br /&gt;
- &lt;br /&gt;
-  &lt;br /&gt;
- &lt;br /&gt;
-&lt;br /&gt;
-Elvira Rojas González&lt;br /&gt;
-Representante Legal&lt;br /&gt;
-Corporación Educacional San Francisco de Asís&lt;br /&gt;
-Rut 75.678.900-7</t>
+          <t>Educational Corporation "San Francisco de Asís" &lt;Br /&gt;
+Father Orellana #1128 - Phone: 22554 49 68- Santiago &lt;Br /&gt;
+Email: snfcoasis@yahoo.es &lt;Br /&gt;
+They participated in the San Francisco de Asís Educational Corporation for deaf children at the Lobby Audience Mrs. Yanett Corrotea, Octavio Poblete. &lt;Br /&gt;
+They were received from the Minsal by Sara Correa Paz and Javiera Vivanco Escobar, advisors to the Cabinet of the Undersecretariat of Public Health. &lt;Br /&gt;
+Topic: Children's care until 14, the system does not cover attention, &lt;Br /&gt;
+They need an establishment to continue working. &lt;Br /&gt;
+&lt;Br /&gt;
+ &lt;Br /&gt;
+&lt;Br /&gt;
+&lt;Br /&gt;
+Santiago, December 16, 2024. &lt;Br /&gt;
+&lt;Br /&gt;
+Lady &lt;Br /&gt;
+Ximena Aguilera Sanhueza &lt;Br /&gt;
+Minister of Health &lt;Br /&gt;
+Present &lt;Br /&gt;
+&lt;Br /&gt;
+Dear Minister &lt;Br /&gt;
+Together with greeting, we present the following situation that affects us severely, requesting support to be able to reverse it. &lt;Br /&gt;
+Our educational project began in 1999 by a group of specialist teachers of the “La Purísima School for Deaf Children” of the San Miguel commune, belonging to the Congregation of the Franciscan Sisters of the Immaculate. &lt;Br /&gt;
+After the closing of that establishment and a titanic effort, we managed to inaugurate the year 1999 the San Francisco de Asís College for deaf children, in the commune of Santiago. The initiative was supported by the San Andrés parish, from Santiago Centro, by providing us with the possibility of operating on its land with a low rental cost. &lt;Br /&gt;
+It is a differential teaching teaching establishment that attends auditory disability, with a course per level from pre Kinder to sixth basic, which serves children from 4 to 14 years and not more than 8 students per course. &lt;Br /&gt;
+The maintenance of the establishment is in charge of the San Francisco de Asís Educational Corporation, without profit. Our community is made up of families of medium and low medium socioeconomic and cultural level. Our team is made up of 15 people among professionals and administrative staff. &lt;Br /&gt;
+From its origins we have assumed our work with a high commitment to the deaf population, striving to move towards a proposal relevant to the challenges that we have in this area as a country. Coherently with international guidelines and, lately, with the National Health Policy (National Implant Program), our project differs from other special establishments of this type by enhancing all communicative abilities students: from speech to signs. &lt;Br /&gt;
+&lt;Br /&gt;
+&lt;Br /&gt;
+&lt;Br /&gt;
+In this line the project bets on a strong emphasis on expressive artistic work, particularly in the areas of plastic, music and body expression and, consistently, with that in socio -emotional skills. This is how within our achievements highlights the award of several external competitive funds: Culture Funds (2), Fonadis, Senadis, among others. Likewise, students and teachers carry out a meditation practice daily, an experience published in Europe in an indexed academic magazine. In the following links you can review these background in more detail: &lt;Br /&gt;
+https://www.youtube.com/watch?v=fddzakxheqw&lt;br/&gt;
+https://digibug.ug.es/bitstream/handle/10481/42928/5-20.pdf?sequence=1&amp;isallowed=y&lt;br/&gt;
+However, for three years we have been unsuccessfully looking for a place where to continue our work since the pastor in charge of the parish requested the premises because it has been decided to develop a more profitable project.  And due to our delay in leaving it, he has demanded judicially. We have left the Episcopate, national goods, congressmen and other authorities without success. &lt;Br /&gt;
+In case of not having a place for next year, we will be forced to close, leaving our students and their families without this valuable alternative, to our workers without their work source and to the national environment without all the expertise accumulated in almost 26 years of a highly innovative, relevant and humanizing project. &lt;Br /&gt;
+Mrs. Minister of Health, by virtue of the above, is that we request their good reception, and allow us an interview to expose our case, with more details and manage a place in their prestigious commune that he directs to continue working. &lt;Br /&gt;
+Thanking your answer, you greet you carefully &lt;Br /&gt;
+ &lt;Br /&gt;
+  &lt;Br /&gt;
+ &lt;Br /&gt;
+&lt;Br /&gt;
+Elvira Rojas González &lt;Br /&gt;
+Legal representative &lt;Br /&gt;
+San Francisco de Asís Educational Corporation &lt;Br /&gt;
+RUT 75,678,900-7</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -20495,13 +20495,13 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M514" t="inlineStr"/>
       <c r="N514" t="inlineStr">
         <is>
-          <t>Corporacion Educacional San Francisco de Asís</t>
+          <t>San Francisco de Asís Educational Corporation</t>
         </is>
       </c>
     </row>
@@ -20573,11 +20573,11 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Solicitud de traslado pendiente de Sr Mauro Leonardo Arce Soto funcionario desde SEREMI de Salud de Región de los Lagos a Región Metropolitana&lt;br /&gt;
-Fueron recibidos desde la Subsecretaría de Salud Pública, por Sara Correa Paz, Paz Martínez y Pablo Bustamante.&lt;br /&gt;
-Participaron en la audiencia los siguientes asistentes:&lt;br /&gt;
-Mauro Arce Soto, Tomas Godoy y Joaquin Bouffanis.&lt;br /&gt;
-Tema:  El funcionario solicita traslado a la Seremi de la RM, se indica que, aunque no puede asegurarse una respuesta positiva, se realizaran las consultas y gestiones correspondientes para evaluar factibilidad de la solicitud.</t>
+          <t>Application for pending transfer of Muro Leonardo Arce Soto Official from Seremi de Salud de Los Lagos Region to Metropolitan Region &lt;Br /&gt;
+They were received from the Undersecretariat of Public Health, by Sara Correa Paz, Paz Martínez and Pablo Bustamante. &lt;Br /&gt;
+The following attendees participated in the audience: &lt;Br /&gt;
+Mauro Arce Soto, Tomas Godoy and Joaquin Bouffanis. &lt;Br /&gt;
+Topic: The official requests transfer to the Seremi of the RM, it is indicated that, although a positive response cannot be ensured, the corresponding consultations and efforts will be made to evaluate the feasibility of the application.</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -20587,13 +20587,13 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M517" t="inlineStr"/>
       <c r="N517" t="inlineStr">
         <is>
-          <t>Seremi De Salud Los Lagos</t>
+          <t>The Health Seremi lakes</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M518" t="inlineStr"/>
@@ -20653,25 +20653,25 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Presentar propuestas para fortalecer la investigación clínica en Chile, enfocándonos en regulación (Ley Ricarte Soto y Ley Nacional del Cáncer), difusión de ensayos clínicos y su ejecución en hospitales, basándonos en avances logrados por una mesa de trabajo colaborativa.&lt;br /&gt;
-Fueron recibidos por Gabinete de la Subsecretaría de Salud Pública, Dra. Ximena Luengo, oficina Bioética, Dr. Sunkg Kim, jefe del Departamento Cáncer, DIPRECE, Andrea Guerrero, Jefa oficina GES, Sara Correa, asesora Gabinete Pública y Katherine Cerda, DIPLAS.&lt;br /&gt;
-Tema: Mariela Formas y María Francisca Rodríguez, en representación de la Mesa de Colaboración Investigación Biomédica, presentan propuesta para fomentar la investigación clínica en el país. También presentan propuestas para aumentar la difusión de ensayos clínicos y de implementación en hospitales.</t>
+          <t>Present proposals to strengthen clinical research in Chile, focusing on regulation (Ricarte Soto Law and National Cancer Law), dissemination of clinical trials and their execution in hospitals, based on advances achieved by a collaborative work table. &lt;Br /&gt;
+They were received by the Cabinet of the Undersecretariat of Public Health, Dr. Ximena Luengo, Bioethics Office, Dr. Sunkg Kim, Head of the Cancer Department, Diprece, Andrea Guerrero, Chief Office Ges, Sara Correa, Adviser Public Cabinet and Katherine Cerda, Dipls. &lt;Br /&gt;
+Topic: Mariela Forms and María Francisca Rodríguez, on behalf of the Biomedical Research Collaboration Table, present a proposal to promote clinical research in the country. They also present proposals to increase the dissemination of clinical trials and implementation in hospitals.</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Mariela Formas</t>
+          <t>Mariela forms</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M519" t="inlineStr"/>
       <c r="N519" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Biomédica</t>
+          <t>Collaboration table for biomedical research</t>
         </is>
       </c>
     </row>
@@ -20693,13 +20693,13 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M520" t="inlineStr"/>
       <c r="N520" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Biomédica</t>
+          <t>Collaboration table for biomedical research</t>
         </is>
       </c>
     </row>
@@ -20721,13 +20721,13 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M521" t="inlineStr"/>
       <c r="N521" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
@@ -20759,7 +20759,7 @@
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20776,22 +20776,22 @@
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Emma Venezian</t>
+          <t>Emma in Venice</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>Sanofi-Aventis de Chile</t>
+          <t>Sanofi-Aventis of Chile</t>
         </is>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20813,13 +20813,13 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M524" t="inlineStr"/>
       <c r="N524" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20841,13 +20841,13 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M525" t="inlineStr"/>
       <c r="N525" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Biomédica</t>
+          <t>Collaboration table for biomedical research</t>
         </is>
       </c>
     </row>
@@ -20869,13 +20869,13 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M526" t="inlineStr"/>
       <c r="N526" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20929,13 +20929,13 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M528" t="inlineStr"/>
       <c r="N528" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20957,13 +20957,13 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M529" t="inlineStr"/>
       <c r="N529" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -20985,17 +20985,17 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>UNIVERSIDAD DEL DESARROLLO</t>
+          <t>University of Development</t>
         </is>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21017,13 +21017,13 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M531" t="inlineStr"/>
       <c r="N531" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Biomédica</t>
+          <t>Collaboration table for biomedical research</t>
         </is>
       </c>
     </row>
@@ -21045,13 +21045,13 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M532" t="inlineStr"/>
       <c r="N532" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21068,18 +21068,18 @@
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Sofía Patricia SALAS IBARRA</t>
+          <t>Sofia Patricia Salas Ibarra</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M533" t="inlineStr"/>
       <c r="N533" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Biomédica</t>
+          <t>Collaboration table for biomedical research</t>
         </is>
       </c>
     </row>
@@ -21101,13 +21101,13 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M534" t="inlineStr"/>
       <c r="N534" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21129,13 +21129,13 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M535" t="inlineStr"/>
       <c r="N535" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21157,13 +21157,13 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M536" t="inlineStr"/>
       <c r="N536" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21185,13 +21185,13 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M537" t="inlineStr"/>
       <c r="N537" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21213,13 +21213,13 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M538" t="inlineStr"/>
       <c r="N538" t="inlineStr">
         <is>
-          <t>Mesa de Colaboración para la Investigación Bio Médica</t>
+          <t>Collaboration table for medical research</t>
         </is>
       </c>
     </row>
@@ -21251,27 +21251,27 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Laboratorio presenta tema a tratar: "Presentación Estudio de Costo-Efectividad vacuna PCV20-neumococica, en el contexto del sistema de salud chileno".&lt;br /&gt;
-Temas Tratados:&lt;br /&gt;
-- Presentación vacuna 20 valente.&lt;br /&gt;
-- 7 serotipos adicionales.&lt;br /&gt;
-- Experiencia Hospital E. González Cortés.&lt;br /&gt;
-- Presentación de estudio Costo.Efectividad.&lt;br /&gt;
-Proveedor enviará datos de países donde el producto está lanzado, comercializado y cubierto, además de los documentos presentados al Departamento ETESA por correo departamento_etesa_extminsal.cl &lt;br /&gt;
-&lt;br /&gt;
-Se incorpora a la reunión por parte del Ministerio de Salud el Sr. Rodrigo Severino.&lt;br /&gt;
-Desde el Laboratorio Pfizer se incorpora el mismo día el Sr. Juan Francisco Falconi, Rut: 27.729.932-1 correo_e juanfrancisco.falconi@pfizer.com&lt;br /&gt;
-El Sr. Thomas Abbott no indicó en formulario de solicitud Lobby su correo, el que es entregado el mismo día de la reunión: thomaseduardo.abott@pfizer.com</t>
+          <t>Laboratory presents theme to be addressed: "Presentation of Cost-Effectivity Study Vaccine PCV20-Neumococics, in the context of the Chilean Health System". &lt;Br /&gt;
+Topics discussed: &lt;Br /&gt;
+- Presentation Vaccine 20 Valente. &lt;Br /&gt;
+- 7 additional serotypes. &lt;Br /&gt;
+- Experience E. González Cortés. &lt;Br /&gt;
+- Cost study presentation. Effectivity. &lt;Br /&gt;
+Supplier will send data from countries where the product is launched, marketed and covered, in addition to the documents submitted to the ETESA Department Department_etesa_extmininsal.cl &lt;Br /&gt;
+&lt;Br /&gt;
+Mr. Rodrigo Severino joins the meeting by the Ministry of Health. &lt;Br /&gt;
+From the Pfizer laboratory, Mr. Juan Francisco Falconi, RUT: 27,729,932-1 email_e Juanfrancisco.falconi@pfizer.com &lt;Br /&gt;
+Mr. Thomas Abbott did not indicate in Lobby application form his email, which is delivered on the same day of the meeting: thomaseduardo.abott@pfizer.com</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Tomás Abbott</t>
+          <t>Tomorrow Abbott</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M539" t="inlineStr"/>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M540" t="inlineStr"/>
@@ -21337,20 +21337,20 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Desarrollo reunión:&lt;br /&gt;
-Inicio 15:00 a 16:00 hrs, por contener 2 temas a tratar.&lt;br /&gt;
-- Presentación  trastuzumab-deruxtecan para las indicaciones de ca. mama HER2(+) y HER2 bajo.&lt;br /&gt;
-- Comparador: TDM1&lt;br /&gt;
-28.8 v/s 6.8 meses.&lt;br /&gt;
-- PPS 29,0 v/s 7,2 meses&lt;br /&gt;
-- OS 77,4 % v/s 69,9%&lt;br /&gt;
-67,6% v/s 62,5&lt;br /&gt;
-- Se menciona que actualmente hay 12 pac y que precio será 20% mayor al T-DM1 app.&lt;br /&gt;
-- Los representantes de Astrazeneca consultan sobre nuevo sistema DAC.&lt;br /&gt;
-- Se solicita que entreguen información a correo departamento_etesa_ext@minsal.cl&lt;br /&gt;
-&lt;br /&gt;
-No asiste a la reunión Joan Cornejo participante de laboratorio Astrazeneca.&lt;br /&gt;
-Desde el Ministerio de Salud acompaña a autoridad el Sr. Eduardo Quiñelén.</t>
+          <t>Meeting Development: &lt;Br /&gt;
+Home 15:00 to 4:00 p.m., for containing 2 topics to be addressed. &lt;Br /&gt;
+- Presentation Trasuzumab-Deruxecan for the indications of CA. mama her2 (+) and her2 bass. &lt;Br /&gt;
+- Comparator: TDM1 &lt;Br /&gt;
+28.8 v /s 6.8 months. &lt;Br /&gt;
+- PPS 29.0 v /s 7.2 months &lt;Br /&gt;
+- OS 77.4 % V /S 69.9 % &lt;Br /&gt;
+67.6% v /s 62.5 &lt;Br /&gt;
+- It is mentioned that there are currently 12 PAC and what price will be 20% higher than T-DM1 app. &lt;Br /&gt;
+- Astrazeneca representatives consult the new DAC system. &lt;Br /&gt;
+- It is requested that they deliver information from mail department_etesa_ext@minal.cl &lt;Br /&gt;
+&lt;Br /&gt;
+Does not attend the meeting Joan Cornejo participant in Astrazeneca laboratory. &lt;Br /&gt;
+From the Ministry of Health, Mr. Eduardo Quiñelén accompanies authority.</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -21360,12 +21360,12 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N541" t="inlineStr">
@@ -21392,12 +21392,12 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N542" t="inlineStr">
@@ -21424,12 +21424,12 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N543" t="inlineStr">
@@ -21456,12 +21456,12 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>Laboratorio Astrazeneca</t>
+          <t>Astrazeneca laboratory</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
@@ -21498,17 +21498,17 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Sacituzumab Govitecan&lt;br /&gt;
-- GADOR representante de Gilead en Chile.&lt;br /&gt;
-- Muestra dossier de efectividad y seguridad realizado por Neuvo Economix y con metodología GRADE.&lt;br /&gt;
-- Mediana OS es 6.9 v/s 11.8 meses.&lt;br /&gt;
-- Indicación (1) es para CMTN 2da línea.&lt;br /&gt;
-- Registro ISP aprobado hace 2 semanas.&lt;br /&gt;
-- Se solicita enviar documentoa a correo departamento_etesa_ext@minsal.cl&lt;br /&gt;
-- Mencionan que presentaron impacto presupuestario anteriormente y presentarán a ANACAN en marzo.&lt;br /&gt;
-&lt;br /&gt;
-Se especifica RUT de Sra. Barbosa de Colombia.&lt;br /&gt;
-Del Ministerio de Salud se incorporan a la reunión el Sr. Alain Palacios y Sra. Tamara Doberti.</t>
+          <t>Sacituzumab Govitecan &lt;Br /&gt;
+- Gilead representative in Chile. &lt;Br /&gt;
+- Sample Effective and Security dossier made by Neuvo Economix and with Grade Methodology. &lt;Br /&gt;
+- Median is 6.9 v /s 11.8 months. &lt;Br /&gt;
+- Indication (1) is for CMTN 2nd line. &lt;Br /&gt;
+- ISP registration approved 2 weeks ago. &lt;Br /&gt;
+- It is requested to send a document to mail department_etesa_ext@minsal.cl &lt;Br /&gt;
+- They mention that they presented budget impact previously and will present Anacan in March. &lt;Br /&gt;
+&lt;Br /&gt;
+Sra. Barbosa de Colombia is specified. &lt;Br /&gt;
+Of the Ministry of Health Mr. Alain Palacios and Mrs. Tamara Doberti are incorporated into the meeting.</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M545" t="inlineStr">
@@ -21528,7 +21528,7 @@
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M546" t="inlineStr">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -21577,18 +21577,18 @@
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Diva Barbosa</t>
+          <t>Barbosa Diva</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M547" t="inlineStr"/>
       <c r="N547" t="inlineStr">
         <is>
-          <t>GADOR  Ltda</t>
+          <t>GADOR LTDA</t>
         </is>
       </c>
     </row>
@@ -21615,33 +21615,33 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Se explica términos de presupuesto.&lt;br /&gt;
-Capacitación NMA 2-3 meses. Interpretación (online) y Realización de NMA (Presencial).&lt;br /&gt;
-Opción Online solamente interpretación de NMA. (en agosto se abren los cupos)&lt;br /&gt;
-Enviarán cotización al correo (no disponible online)&lt;br /&gt;
-APP para 15 personas, podría ser una cohorte antes de agosto.&lt;br /&gt;
-Por parte de los solicitantes se integra a la reunión Verónica Alfie.</t>
+          <t>Budget terms are explained. &lt;Br /&gt;
+Training NMA 2-3 months. Interpretation (online) and realization of NMA (face -to -face). &lt;Br /&gt;
+Online option only NMA interpretation. (In August the quotas open) &lt;Br /&gt;
+They will send price to the mail (not available online) &lt;Br /&gt;
+App for 15 people, it could be a cohort before August. &lt;Br /&gt;
+On the part of the applicants, the Verónica Alfie meeting is integrated.</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>sebastian garcia marti</t>
+          <t>Sebastian Garcia Marti</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M548" t="inlineStr"/>
       <c r="N548" t="inlineStr">
         <is>
-          <t>sebastian garcia marti</t>
+          <t>Sebastian Garcia Marti</t>
         </is>
       </c>
     </row>
@@ -21674,11 +21674,11 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Reuniones previas con FONASA, CENABAST y DIPLAS por el tema Ca. mama her2+.&lt;br /&gt;
-Informe NMA de ETESA, agosto 2023. Subgrupos de población, nuevos estudios.&lt;br /&gt;
-Palbociclib y su bioequivalente.&lt;br /&gt;
-Se incorpora a la reunión Victoria Hurtado del Ministerio de Salud.&lt;br /&gt;
-No asiste el Sr. Carlos Dufeu de Laboratorio Tecnofarma.</t>
+          <t>Previous meetings with Fonasa, Cenabast and Dipls for the subject CA. MAMA HER2+. &lt;Br /&gt;
+Etesa NMA Report, August 2023. Population subgroups, new studies. &lt;Br /&gt;
+Palbociclib and its bioequivalent. &lt;Br /&gt;
+Victoria Hurtado of the Ministry of Health is incorporated into the meeting. &lt;Br /&gt;
+Mr. Carlos Dufeu of Laboratory Tecnofarma does not attend.</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -21688,12 +21688,12 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Lobbista</t>
+          <t>Lobbyist</t>
         </is>
       </c>
       <c r="M549" t="inlineStr">
         <is>
-          <t>Consiglieri Asesorias Limitada</t>
+          <t>Limited Advice Directors</t>
         </is>
       </c>
       <c r="N549" t="inlineStr">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M550" t="inlineStr">
@@ -21752,12 +21752,12 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M551" t="inlineStr">
         <is>
-          <t>Tencofarma Industria Farmacéutica</t>
+          <t>Tencofarma Pharmaceutical industry</t>
         </is>
       </c>
       <c r="N551" t="inlineStr">
@@ -21794,9 +21794,9 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Presentan nueva tecnología HOF Estudios observacionales y estudios prospectivos. 13 hospitales y 183 pacientes incluyendo Hospital Barros Luco.&lt;br /&gt;
-Se solicita pedir otra reunión Lobby para continuar presentación de impacto presupuestario y costo-efectividad.&lt;br /&gt;
-Se cambia correo electrónico de participantes de Fresenius. Se corrige la entidad que representa a Rodrigo Pérez por rodrigo.perez@freseniusmedicalcare.com, indicando Fresenius. Se cambia correo electrónico de Patricia Herrera por patricia.herrera@freseniusmedicalcare.com</t>
+          <t>They present new Hof Observational Studies and Prospective Studies. 13 hospitals and 183 patients including Barros Luco hospital. &lt;Br /&gt;
+It is requested to request another lobby meeting to continue presentation of budget impact and cost-effectiveness. &lt;Br /&gt;
+Email of Fresenius participants is changed. The entity that represents Rodrigo Pérez by Rodrigo.perez@freseniusmedicalcare.com, indicating freshreenius, is corrected. Patricia Herrera email is changed to patricia.herrera@freseniusmedicalcare.com</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -21806,7 +21806,7 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M552" t="inlineStr"/>
@@ -21864,13 +21864,13 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Implementación del programa de medicamentos de alto costo, para las distonias: &lt;br /&gt;
-1. Implementacion del programa piloto de distonia laringe&lt;br /&gt;
-2. Cantidad de pacientes actualmente atendidos&lt;br /&gt;
-3. Regularidad de las licitaciones de compra de la toxina.&lt;br /&gt;
-4. Necesidad de contar con 2 tipos de toxinas, según los tipos de distonias, y segun la efectividad de cada uno, en pos de mejor uso los recursos publicos. &lt;br /&gt;
-5. Ampliacion de cobertura del programa de distonia, segun lista de espera.&lt;br /&gt;
-6. INformacion sobre la atencion de pacientes para cirugia de DBS en Ley Ricarte Soto</t>
+          <t>Implementation of the high -cost medicine program, for dystonia: &lt;Br /&gt;
+1. Implementation of the Dystonia Pilot Program Lark &lt;Br /&gt;
+2. Number of patients currently attended &lt;Br /&gt;
+3. Regularity of toxin purchase tenders. &lt;Br /&gt;
+4. need to have 2 types of toxins, according to the types of dystonia, and according to the effectiveness of each one, in pursuit of public resources. &lt;Br /&gt;
+5.
+6. Information to the care of patients for DBS surgery in Ricarte Soto law</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -21880,13 +21880,13 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M554" t="inlineStr"/>
       <c r="N554" t="inlineStr">
         <is>
-          <t>FUNDACION DISTONIA</t>
+          <t>Dystonia Foundation</t>
         </is>
       </c>
     </row>
@@ -21903,18 +21903,18 @@
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
-          <t>VICTORIA BAEZA</t>
+          <t>Victoria Baeza</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M555" t="inlineStr"/>
       <c r="N555" t="inlineStr">
         <is>
-          <t>FUNDACION DISTONIA</t>
+          <t>Dystonia Foundation</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Presentar el trabajo que realiza la Asociación de Dispositivos Médicos de Chile (Adimech) en el ámbito de la salud e innovación médica. Además, nos gustaría invitarle a participar  en un evento que estamos organizando en conjunto Adimech y la Facultad de Economía y Negocios de la Universidad de Chile (FEN), enfocado en los desafíos y oportunidades del financiamiento del sistema de salud en Chile.</t>
+          <t>Present the work carried out by the Association of Medical Devices of Chile (ADIMECH) in the field of health and medical innovation. In addition, we would like to invite you to participate in an event that we are organizing together Adimech and the Faculty of Economics and Business of the University of Chile (FEN), focused on the challenges and opportunities of the financing of the health system in Chile.</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M556" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dispositivos Médicos de Chile</t>
+          <t>Guild Association of Medical Devices of Chile</t>
         </is>
       </c>
       <c r="N556" t="inlineStr">
@@ -21983,12 +21983,12 @@
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Branggela Romero</t>
+          <t>Romero Brangel</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M557" t="inlineStr"/>
@@ -22026,9 +22026,9 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Abastecimiento fármacos GES&lt;br /&gt;
-&lt;br /&gt;
-- Participaron en este Lobby por parte de MINSAL Patricia Contreras y Andrea Peña. Por parte de Gador, participaron Pilar Fuenzalida, Hernán Henríquez y  Andrés Espina. Además, en su calidad de profesionales de la salud que intervienen en la compra de medicamentos en forma directa, participaron Fernanda Muñoz, Patricio Bustos. EU, Diego Jesús Vivanco, Daniela Insunza, Roberta  Zárate, Carla Muñoz. HRR, Héctor González y Juan Diaz.</t>
+          <t>SUPPLY DRUGS GES &lt;BR /&gt;
+&lt;Br /&gt;
+- They participated in this lobby by Minsal Patricia Contreras and Andrea Peña. On the part of Gador, Pilar Fuenzalida, Hernán Henríquez and Andrés Espina participated. In addition, in their capacity as health professionals involved in the purchase of medicines directly, Fernanda Muñoz, Patricio Bustos participated. EU, Diego Jesús Vivanco, Daniela Insunza, Roberta Zárate, Carla Muñoz. HRR, Héctor González and Juan Diaz.</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -22038,13 +22038,13 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M558" t="inlineStr"/>
       <c r="N558" t="inlineStr">
         <is>
-          <t>Gador Limitada</t>
+          <t>Limited gador</t>
         </is>
       </c>
     </row>
@@ -22076,11 +22076,11 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Ámbitos de investigación en Tuberculosis y Migrantes.&lt;br /&gt;
-&lt;br /&gt;
-Participaron en la audiencia Lobby.:&lt;br /&gt;
-- Por parte de MINSAL:  Sra. Patricia Contreras y Natalia Ruiz.&lt;br /&gt;
-- Por parte del solicitante: Sr. Pablo Valenzuela, Sra. María Elvira Balcells y Sra. Alexandra Obach.</t>
+          <t>Research fields in tuberculosis and migrants. &lt;Br /&gt;
+&lt;Br /&gt;
+They participated in the lobby.:&lt;br /&gt; audience
+- On the part of Minsal: Mrs. Patricia Contreras and Natalia Ruiz. &lt;Br /&gt;
+- On the part of the applicant: Mr. Pablo Valenzuela, Mrs. María Elvira Balcells and Mrs. Alexandra Obach.</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -22090,13 +22090,13 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M559" t="inlineStr"/>
       <c r="N559" t="inlineStr">
         <is>
-          <t>MARÍA ELVIRA BALCELLS MARTY</t>
+          <t>María Elvira Balcells Marty</t>
         </is>
       </c>
     </row>
@@ -22118,13 +22118,13 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M560" t="inlineStr"/>
       <c r="N560" t="inlineStr">
         <is>
-          <t>PABLO TOMAS VALENZUELA GARCÍA</t>
+          <t>Pablo Tomas Valenzuela Garcia</t>
         </is>
       </c>
     </row>
@@ -22141,18 +22141,18 @@
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Báltica Cabieses</t>
+          <t>Baltic Cabieses</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M561" t="inlineStr"/>
       <c r="N561" t="inlineStr">
         <is>
-          <t>BÁLTICA BEATRIZ CABIESES VALDÉS</t>
+          <t>Baltic Beatriz Cabieses Valdés</t>
         </is>
       </c>
     </row>

--- a/output/2025/scraped_data/Ministry of Health 2025.xlsx
+++ b/output/2025/scraped_data/Ministry of Health 2025.xlsx
@@ -521,11 +521,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/787706</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AO001AW1820108</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-04-24 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Teams sent by mail.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -543,7 +563,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
+          <t>Interest manager</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -569,11 +589,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785083</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AO001AW1824147</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-04-17 16:00:00-04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -653,11 +693,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/787704</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AO001AW1822545</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-04-16 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>teams</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0 horas, 10 minutos</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -670,7 +730,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mariella Parogi</t>
+          <t>Mariella Parodi</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -737,11 +797,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785092</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AO001AW1822503</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-04-15 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Preparation, processing, approval, modification, repeal or rejection of agreement, statements or decisions of the National Congress or its members included commissions.</t>
@@ -785,11 +865,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785097</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AO001AW1809365</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-04-14 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -869,11 +969,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785114</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AO001AW1801953</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-04-10 13:20:00-04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0 horas, 40 minutos</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1057,11 +1177,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785124</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AO001AW1810699</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1163,11 +1303,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785152</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AO001AW1804308</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-04-10 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1247,11 +1407,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/787715</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AO001AW1807184</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-04-08 11:30:00-04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Teams will be sent by mail</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1413,11 +1593,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785179</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AO001AW1765194</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-04-03 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1577,11 +1777,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/787747</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AO001AW1809376</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-03-31 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>teams</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -1657,11 +1877,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785854</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AO001AW1782554</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-03-27 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>According to your application, Mrs. Andrea Guerrero, Coordination guarantee and health benefits will contact you.
+Contact 225749994</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -1825,11 +2066,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785343</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AO001AW1789390</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-03-20 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hearing Link will be sent by email</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -1873,11 +2134,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785355</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AO001AW1796811</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-03-20 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>It will be sent by audience link</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>Preparation, processing, approval, modification, repeal or rejection of agreement, statements or decisions of the National Congress or its members included commissions.</t>
@@ -1885,7 +2166,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>It is intended to know the state of advance or novelties of the inclusion of the glucose sensor to the basket GES Diabetes type 1 for the period 2025-2028, which is already coded in Fonasa 3 years ago with the code 2301071 the sensor, and with the code 2301073 the reader.</t>
+          <t>It is intended to know the state of advance or novelties of the inclusion of the glucose sensor to the basket Type 1 diabetes Diabetes for the period 2025-2028, which is already coded in Fonasa 3 years ago with the code 2301071 the sensor, and with the code 2301073 the reader.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1949,11 +2230,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785350</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AO001AW1792972</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-03-20 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>It will be sent by audience link</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2025,11 +2326,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785348</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AO001AW1790697</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-03-20 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>It will be sent by audience link</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -2073,11 +2394,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785873</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AO001AW1786878</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-03-13 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Audience link is sent by mail</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2177,11 +2518,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/785883</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AO001AW1755887</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2229,11 +2590,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/784225</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AO001AW1748525</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Teams will be sent by mail</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -2277,11 +2658,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/784076</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AO001AW1775264</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-03-04 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Teams will be sent mail</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2329,11 +2730,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/783014</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AO001AW1780053</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2379,11 +2800,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/787766</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AO001AW1755863</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-02-20 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2432,11 +2873,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/778837</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AO001AW1739074</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2547,11 +3008,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/772488</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AO001AW1751419</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-01-23 10:10:00-03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2680,11 +3161,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/769890</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AO001AW1744835</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-01-14 15:05:00-03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Blue Salon, Mac Iver 541 Underground</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1 horas, 10 minutos</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2813,11 +3314,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/775474</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AO001AW1728306</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-01-14 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -2979,11 +3500,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/786002</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AO001AW1741932</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-01-10 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Teams will be sent by mail</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -3087,11 +3628,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/768685</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AO001AW1726982</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-01-09 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3231,11 +3792,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/109889/767769</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AO001AW1712237</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-01-07 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3323,11 +3904,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/119116/790769</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AO001AW1793038</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-03-28 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Videoconference, Dr. Carolina Mendoza- Head of the Department has been entrusted. Oral health and other deputies chiefs will accompany it. Diprece, related to the issue, will be held on March 28 at 3 pm, via telematics.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3399,11 +4000,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/786768</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AO001AW1828916</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:30:00-04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3491,11 +4112,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/787885</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AO001AW1776471</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-02-06 14:30:00-03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -3578,11 +4219,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/780151</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AO001AW1749073</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-01-22 12:30:00-03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>HIV PROGRAM OFFICE</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -3667,11 +4328,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/628861/782030</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AO001AW1763322</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-02-24 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>The audience was received by FASP Advisors from the Women's Program. Mt. Damaris Meza, Mt. Juan Herrera and Carla Lizama de Digedep, through Zoom.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3686,7 +4367,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
+          <t>María Zuleta</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -3809,11 +4490,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/628861/791682</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AO001AW1762497</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-02-05 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Audience will be received by Dr. Camilo Becerra, Advisor DISCAP and Ximena Barros, Reforma Advisor. 
+Treated theme: presents schedule services that could be implemented in the public sector</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -3905,11 +4607,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/628861/772714</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>AO001AW1745914</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-01-23 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hearing received by Dr. Camilo Becerra of the Primary Care Division, through Zoom.  
+ Professionals from the University of Santiago de Chile exposed on the application to an Anid Fund for National Interest Centers in Metabolomics. S</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by passive subjects., 
@@ -4032,11 +4755,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/628861/774986</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AO001AW1727047</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-01-21 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>By commitments of the DISCAP advisors, a hearing date is modified for Monday, January 13, 2025 at 12:00 through the same link. Meeting will be received by Dr. Camilo Becerra, Catalina Mayor and Antonio Vergara, of the Division of Attention</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -4252,11 +4995,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/789855</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AO001AW1824843</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-04-25 09:00:00-04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Usa to the Zoom Meeting
+https://us02web.zoom.us/j/83098292496?pwd=Gebuiptgprz29OZDS6Aqluabsft7ZZ.1
+Meeting ID: 830 9829 2496
+Access Code: 257554</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -4306,11 +5072,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/789858</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AO001AW1818602</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-04-25 08:00:00-04</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Usa to the Zoom Meeting
+https://us02web.zoom.us/j/85185791537?pwd=mnatxlyimskr01DQ6BByTgcedpCP85.1
+Meeting ID: 851 8579 1537
+Access Code: 576527</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4387,14 +5176,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/779740</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>AO001AW1766148</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-02-13 08:00:00-03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Orphans 670 floor 18</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -4474,11 +5283,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/779745</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>AO001AW1764639</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-02-07 08:30:00-03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Usa to the Zoom Meeting
+https://us02web.zoom.us/j/83245678165?pwd=stwzei6Nw1ZKFPEV9D12OHZKB0YQN.1
+Meeting ID: 832 4567 8165
+Access Code: 174609</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4592,11 +5424,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/776013</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>AO001AW1746924</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-01-31 08:30:00-03</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>It will be received by the Digital Health Maria José Letelier, attached Link 
+Usa to the Zoom Meeting
+https://us02Web.zoom.us/j/8226015597 ?PWD=9BBVS4IJXPBAAFBTLAUBDKJD0D49.1
+Meeting ID: 822 6015 5979
+Access Code: 130601</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4670,11 +5526,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/775440</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>AO001AW1744007</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-01-30 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Orphans 670 floor 18</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4750,11 +5626,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/775209</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AO001AW1740438</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-01-24 08:30:00-03</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Usa to the Zoom Meeting
+https://us02web.zoom.us/j/86581600705?pwd=cvzznaswhGU6auw8t3uhj5vatwqkdy.1
+Meeting ID: 865 8160 0705
+Access Code: 272113</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4798,11 +5697,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/775412</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>AO001AW1732756</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-01-24 08:00:00-03</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Join Zoom Meeting
+https://us02Web.zoom.us/j/8503438801?pwd=qdsodb3axBNHFM5DKB69R6LVHGCNOS.1
+Meeting ID: 850 3438 8801
+Access Code: 540197</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -4846,11 +5768,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/775199</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>AO001AW1728226</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-01-17 08:00:00-03</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Join Zoom Meeting
+https://us02web.zoom.us/j/81265947301?pwd=5ugorg7haa6bleyylpker9efhv3vap.1
+Meeting ID: 812 6594 7301
+Access Code: 040219</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -4922,11 +5867,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/768678</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>AO001AW1726026</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-01-10 08:30:00-03</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Digital Health Sala 1 is inviting a scheduled zoom meeting.
+Join Zoom Meeting
+https://us02web.zoom.us/j/8283990632?pwd=i9wqgdtndfza5jx2Bx0JH2oc9hj81x.1
+Meeting ID: 828 3990 6322
+Access Code: 752645</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -5002,11 +5971,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/305882/768677</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>AO001AW1722622</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-01-06 08:00:00-03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Orphans 670 floor 18</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -5106,11 +6095,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/787881</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>AO001AW1822390</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>He was entrusted to the Investment Division was received by Adrian Peña April 25</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -5178,11 +6187,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/791214</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>AO001AW1813233</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-04-24 10:30:00-04</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>It was received by Alison Morales Advisor of the Cabinet</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -5195,7 +6224,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Error 500 (Server Error)!!1500.That’s an error.There was an error. Please try again later.That’s all we know.</t>
+          <t>Carla Torres</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -5246,11 +6275,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/678098/777834</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AO001AW1764707</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-02-07 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Videoconference for Zoom</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -5439,11 +6488,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/678098/775592</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>AO001AW1754416</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-01-30 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>DEPT. of immunizations.
+Orphans 670, 7th floor.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -5520,11 +6590,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/678098/777833</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>AO001AW1738915</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-01-17 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>They will be contacted by the Department of Immunizations Diprece.
+Telephone: 225688128</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -5638,11 +6729,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/678098/777832</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>AO001AW1741583</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-01-08 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>HUERPANOS 670 FLOOR 7</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -5686,11 +6797,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/576747/782807</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>AO001AW1719162</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-02-13 08:30:00-03</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>You will receive the Minister (s) Mrs. Andrea Albagli Irureta Goyena.
+Mac-Ver 541 Floor 3
+Contact 225740412-13</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -5831,11 +6964,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/458394/767048</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>AO001AW1725134</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-01-03 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>It is carried out in person at Minsal offices - Legal Division - Head of Division and its Subrogant</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -5943,11 +7096,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/467720/774130</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>AO001AW1719588</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-01-28 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Face -to -face meeting in Monjitas 565, 10th floor.
+The head of the Food and Nutrition Department will participate
+Contact: 225740493</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6033,11 +7208,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/467738/792953</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>AO001AW1801036</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/89432990187
+Password 337893</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>0 horas, 45 minutos</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6117,14 +7313,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/471785/789385</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>AO001AW1799571</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-04-28 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Link sent to mail on 03/28/2025
+The team connected at the informed schedule and there was no presentation of the applicant.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>0 horas, 10 minutos</t>
+        </is>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -6169,14 +7386,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/471785/789400</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>AO001AW1806063</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-04-15 12:07:00-04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Email is sent with link on 03/28/2025
+Was received with training equipment</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>0 horas, 43 minutos</t>
+        </is>
+      </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -6224,11 +7462,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/471785/789394</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>AO001AW1774393</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-04-07 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Mail was sent with Link on 03/28
+It was received together with the training team.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I155" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6274,11 +7533,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/471785/789566</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>AO001AW1734160</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-01-27 10:30:00-03</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Minsal is inviting a scheduled zoom meeting.
+Theme: Lobby AO001AW1734160
+Time: Jan 275 10:30 a. m. Santiago
+Join Zoom Meeting
+https://us02web.zoom.us/j/85925864842?pwd=vlibesbytmfe2LTW47WKBI5BB5LHYT.1
+Meeting ID: 859 2586</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I156" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6322,11 +7606,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/471785/789559</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>AO001AW1733488</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-01-27 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Minsal is inviting a scheduled zoom meeting.
+Theme: Lobby AO001AW1733488 PAO change
+Time: Jan 275 10:00 a.m. m. Santiago
+Join Zoom Meeting
+https://us02Web.zoom.us/j/84074986064?pwd=btisgihissudttu3net3UVRTNOBDK.1
+Re</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>0 horas, 45 minutos</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -6398,14 +7707,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/473514/790778</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>AO001AW1807722</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Meeting was held April 25, 2025, by means of Teams.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -6485,11 +7814,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/473514/790776</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>AO001AW1822579</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-04-23 09:00:00-04</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Meeting was held April 23 at 09:00 through the Teams platform.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I160" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -6547,11 +7896,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/473514/790775</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>AO001AW1800063</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-03-18 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Meeting was held by Platform Teams, on March 18, 2025.</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I161" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6623,11 +7992,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/473514/790773</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>AO001AW1772015</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-02-18 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://minsal-cl-epi.zoom.us/j/87536320680?pwd=vylcddSP5Sqz5iyumkha3n7zsgrhf5.1 
+Meeting ID: 875 3632 0680 
+Access Code: 137710</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I163" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6707,11 +8098,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/796315</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>AO001AW1799196</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-04-30 09:00:00-04</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Mac-Iver 541</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I165" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6871,11 +8282,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/788122</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>AO001AW1714622</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-04-09 09:00:00-04</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Mac -Ver 541 - Floor 3
+Phone: 225740413</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -6951,11 +8383,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/788497</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>AO001AW1803986</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-04-02 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Mac-Iver 541</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -7027,11 +8479,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/784260</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>AO001AW1739302</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Mac-Iver 541 Floor 3
+Contact 225740412-12</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I174" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -7130,11 +8603,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/782921</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>AO001AW1742472</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-02-27 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Mac-Iver 541 Floor 3
+Contact 225740412-13</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -7213,11 +8707,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/774909</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>AO001AW1701115</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-01-30 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Ma-iver 541 floor 3
+Contact 225740412-13</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -7297,11 +8812,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/774498</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>AO001AW1731072</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-01-29 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Mac -Ver 541 - Floor 3
+Phone: 225740413</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -7381,11 +8917,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/508615/774506</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>AO001AW1730225</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-01-24 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Mac -Ver 541 - Floor 3
+Phone: 225749413</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -7513,11 +9070,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/517173/784279</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>AO001AW1717216</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:15:00-03</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>According to their solitude, they will be received by Dr. Najera de Ferrari, head of the Minister's Cabinet.
+Mac-Ver 541 Floor 4
+Contact 225740417
+Meeting is regularized, by platform</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>0 horas, 45 minutos</t>
+        </is>
+      </c>
       <c r="I186" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -7661,11 +9241,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/787288</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>AO001AW1801816</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-03-26 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>They were received by Dr. Tania Herrera Martínez, Chief Health Planning Division, Telephone 225740458.
+Connection link:
+https://minsal-cl-epi.zoom.us/j/8507812107?pwd=LFWTBN82GWSMMOVGHWIN0ZLGMHAYH.1</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I190" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -7715,7 +9317,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>A Marches Parogi</t>
+          <t>Mariella Parodi</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -7782,11 +9384,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/790090</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>AO001AW1772907</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-03-19 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>They will be received by Dr. Tania Herrera Martínez, Chief Health Planning Division, Telephone: 225740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/84619074497?pwd=muffsceooxyw5UUGTNVGTBTDTPRYZX.1</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I193" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -7869,14 +9492,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/789962</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>AO001AW1766312</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-03-19 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://minsal-cl-epi.zoom.us/j/88467387490?pwd=VueINtTrxjOxpfel3GwMgWrU5EjiSR.1</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -8017,11 +9660,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/788494</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>AO001AW1755138</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>They will be received by Dr. Tania Herrera Martínez, Chief Health Planning Division, Telephone: 225740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/81225353703?pwd=y9m9bzhqggk3beqto822PhGA7WCLV.1</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I199" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -8157,11 +9821,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/781935</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>AO001AW1774700</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-02-18 14:00:00-03</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>MAC IVER 541, Floor 4, Workshop 407 Jephanage Diplas.</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I203" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -8229,11 +9913,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/775118</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>AO001AW1753161</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2025-01-29 16:30:00-03</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>According to their request, they will be attended by Dr. Tania Herrera, head of the Health Planning Division, Telephone 225740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/83700129052?pwd=4p1lozuchtdehwzwyktzlpfwanmc4y.1</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I204" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -8308,11 +10013,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/775009</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>AO001AW1728901</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2025-01-29 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>They will be received by Dr. Tania Herrera Martínez, Chief Health Planning Division, Telephone 222740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/84595099490?pwd=WZN8BTBTT3TPZGFPHPHPHP2MYKIWOKZP4P0.1</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I206" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -8397,11 +10123,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/772998</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>AO001AW1727484</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>They will be received by Dr. Tania Herrera Martínez, Chief Health Planning Division, Telephone 225740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/822392318?</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I208" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -8517,11 +10264,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/525076/772935</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>AO001AW1723197</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>According to their request, they will be attended by Dr. Tania Herrera, head of the Health Planning Division, Telephone 225740458, with the following connection link:
+https://minsal-cl-epi.zoom.us/j/87053420391?pwd=3vxili0u4rbgnudpkjqapc7ztzpwad.1</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I211" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -8570,11 +10338,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/528073/778063</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>AO001AW1724575</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2025-01-30 03:30:00-03</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>According to their application, they will be received by Mrs. Patricia Rojo, Chief Administration and Frinance Division, Mr. Lorenzo Bascuñán, Advisor of the Minister, will accompany you.
+Mac-Ver 541 Floor 1, of. 106 
+Contact 2257404224</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I212" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -8646,11 +10436,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/532749/783791</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>AO001AW1722228</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2025-01-29 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Given the issue and as indicated by Mr. Andrés Benavente, after consulting the Department. Of legal advice, this request is entrusted Dr. Bernardo Martorell for resolution.  It is estimated to wait for the conclusion of the resource and then</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I214" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -8754,11 +10564,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/787338</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>AO001AW1828928</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Monjitas Investment Division 689 of. 34 Floor 3
+Mr. Carlos Manzi, Chief Division
+Mr. Adrián Peña, Head Department. of studies</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I217" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -8802,11 +10634,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/789092</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>AO001AW1828876</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2025-04-24 12:00:00-04</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I218" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -8872,11 +10724,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/787336</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>AO001AW1817374</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2025-04-14 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Office 34, Monjitas 689</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I219" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -8976,11 +10848,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/787331</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>AO001AW1809174</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2025-04-10 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/82347111871
+Password 949820</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I222" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9064,14 +10957,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/787325</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>AO001AW1780623</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2025-03-06 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 287 142 496 17 
+Access Code: 4RF9W8VA</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -9114,14 +11030,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/581982/779408</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>AO001AW1768807</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2025-02-13 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 268 473 965 419 
+Access Code: EE72RN6H</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -9170,11 +11109,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/590303/783847</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>AO001AW1722315</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2025-01-13 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>zoom</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I225" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9238,11 +11197,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/600488/786287</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>AO001AW1812237</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2025-04-25 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Plataforma Teams</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I227" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9292,11 +11271,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/789060</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>AO001AW1775112</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2025-03-21 10:30:00-03</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>They will be contacted by Dipol
+Telephone 225740493 or 225740588</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I228" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -9355,11 +11355,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/789058</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>AO001AW1784870</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>They were treated Telematics by Mr. Collao, Head of the Department.</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I229" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9528,11 +11548,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/789053</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>AO001AW1745414</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2025-02-28 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>It will be attended by Mr. Collao, promptly will be sent together</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I234" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9622,11 +11662,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/789057</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>AO001AW1745415</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2025-02-28 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>It will be attended by Mr. Collao, promptly will be sent together</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I236" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9716,11 +11776,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783059</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>AO001AW1738548</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2025-01-24 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>They will be contacted by the Department of Pharmaceutical Policies and Regulations of the Dipol.
+Telephone: 225740588</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I238" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9801,11 +11882,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783062</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>AO001AW1732664</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2025-01-24 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Zoom audience
+Your application will be referred to the Head of the Department of Pharmaceutical Policies and Regulations.
+Telephone: 225740588</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I240" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9904,11 +12007,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783068</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>AO001AW1739251</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2025-01-24 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>It will be attended telematic by Mr. Collao, connecting connection link will soon be made</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -9996,11 +12119,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783084</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>AO001AW1731027</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2025-01-17 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>It will be virtually attended by Mr. Collao, connection link will soon be made</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I244" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -10076,15 +12219,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783081</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>AO001AW1725968</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2025-01-17 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Zoom audience
+They will be contacted by Department of Pharmaceutical Policies and Regulations, Health Providers and Complementary Medicines, Dipol
+Telephone: 225740588</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I246" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
-Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -10127,11 +12292,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783066</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>AO001AW1719422</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2025-01-10 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>It will be treated telematic by Mr. Juan Collao, we will prompt the link.</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I247" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -10186,11 +12371,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783103</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>AO001AW1718657</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2025-01-10 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>It will be treated telematic by Mr. Collao, connecting link will be sent.</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I248" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -10342,11 +12547,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/622861/783064</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>AO001AW1718743</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2025-01-10 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>It will be treated telematic by Mr. Collao, connecting link will be sent.</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I252" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -10498,11 +12723,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/784942</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>AO001AW1803376</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2025-04-22 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I256" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -10581,11 +12826,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/784941</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>AO001AW1802323</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2025-04-15 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I258" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -10659,11 +12924,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/784940</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>AO001AW1790401</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2025-04-01 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Zoom</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I260" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -10673,7 +12958,7 @@
         <is>
           <t>Portfolio presentation Pfizer Hematology &lt;Br /&gt;
 &lt;Br /&gt;
-• Angela del Pino (Product Manager of Peru) and Carolina Cruz (Access Manager 17,598,315-5), Raquel Marina (Medical Manager 24,359,617-3) attend. &lt;Br /&gt;
+• Angela del Pino (Peru Products Manager) and Carolina Cruz (Access Manager 17,598,315-5), Raquel Marina (Medical Manager 24,359,617-3) attend. &lt;Br /&gt;
 • Presents Raquel, Inotouzumab Ozogamicin for adult patients with a diagnosis of refractory or relapse.</t>
         </is>
       </c>
@@ -10778,11 +13063,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/784939</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>AO001AW1767121</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2025-03-25 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>The next room is created: 
+Link https://us02web.zoom.us/j/88461607758
+Password 521622</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I263" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -10885,11 +13192,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/784938</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>AO001AW1777519</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2025-03-23 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/88525779955
+Password 547399</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I266" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -11037,11 +13366,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/785142</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>AO001AW1770729</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2025-03-19 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>The next room is created: 
+Link https://us02web.zoom.us/j/82415462110
+Password 464914</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I270" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by passive subjects., 
@@ -11142,11 +13493,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/785160</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>AO001AW1777164</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2025-03-12 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/82003524998
+Password 737096</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I273" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by passive subjects., 
@@ -11290,11 +13663,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/783368</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>AO001AW1725571</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2025-02-26 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/82541103918
+Password 588321</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I277" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -11427,11 +13822,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/780943</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>AO001AW1721954</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2025-02-19 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/87930501491
+Password 988661</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>0 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I281" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by passive subjects., 
@@ -11546,11 +13963,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/780073</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>AO001AW1721936</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2025-02-12 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>The next room is created: 
+Link https://us02web.zoom.us/j/84516908165
+Password 822879</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I284" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -11614,11 +14053,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/780068</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>AO001AW1712194</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2025-02-12 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/86283658490
+Password 533752</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I286" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -11752,11 +14213,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/778128</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>AO001AW1764302</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2025-02-10 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>The next room is created: 
+Link https://us02web.zoom.us/j/86144836051
+Password 809269</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I290" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -11821,11 +14304,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/777472</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>AO001AW1704203</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2025-02-05 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Connection link:
+Link https://us02web.zoom.us/j/83801756262
+708893 password</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I291" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -11958,11 +14463,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/777470</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>AO001AW1737027</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2025-02-05 03:30:00-03</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/8942118833
+Password 692765</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I295" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12120,11 +14647,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/774682</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>AO001AW1727848</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>2025-01-29 16:00:00-03</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/86076823343
+Password 693646</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I300" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12211,11 +14760,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/774677</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>AO001AW1717813</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>2025-01-29 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>The next room is created: (January 29, 2025) 
+Link https://us02web.zoom.us/j/89932213820
+Password 006012</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I302" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12269,11 +14840,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/774676</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>AO001AW1717813</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>2025-01-29 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>The next room is created: (January 29, 2025) 
+Link https://us02web.zoom.us/j/89932213820
+Password 006012</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I303" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12327,11 +14920,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/774686</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>AO001AW1701766</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>2025-01-29 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/81516866298
+Password 045814</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I304" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12345,7 +14960,7 @@
 • Pablo Skarmeta and Sung Kim attend. &lt;Br /&gt;
 • They will invest, in Chile from 2025, US $ 100M in research and development for 56 studies where 1,000 patients will receive free treatment during the project years. &lt;BR /&gt;
 • Lung cancer: CM816 Study on non-microcytic PD-L1&gt; 1% for neoadjuvant treatment where 359 patients are estimated annually through the Opdivo or Nivolumab. The therapy is finite of 3 cycles every 21 days of infusion. Reduction of 6.3% spending according to Rony Lenz study and 70% of living patients at 4 years. In their opinion, the entrance must be via Ges. See how we can do it Nersevimab. Prepare minute contrasting demand estimation from the pharmaceutical and cost savings study. &lt;Br /&gt;
-• Gastric cancer: CM649 study on Biomarker CPS&gt; 5 in metastatic cousin where 941 annual patients and treatment with opdivo or nivolumab plus chemotherapy with 57% of living patients a year and avoid 20% of deaths at 5 years are estimated. &lt;Br /&gt;
+• Gastric cancer: CM649 Study on CPS Biomarker&gt; 5 in a metastatic cousin where 941 annual patients and opdivo treatment or Nivolumab plus chemotherapy with 57% of living patients a year and avoid 20% of deaths at 5 years are estimated. &lt;Br /&gt;
 • Bladder cancer with CM274 studio for adjuvancy, among others, 7 total indications that were sent mining for proposal for a shared risk agreement for DAC and/or GES, the proposal is in force.</t>
         </is>
       </c>
@@ -12418,11 +15033,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/768858</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
-      <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>AO001AW1726444</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2025-01-24 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/88208582881
+Password 068853
+With the host role you can apply security, record, activate waiting room, close the microphones and manage the meeting. Key to claim host role</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I306" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12501,11 +15139,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/772527</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>AO001AW1679273</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2025-01-22 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/8230383352
+Password 892110</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I308" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12533,7 +15193,7 @@
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>AFATHEIA Medical SPA</t>
+          <t>alatheia Medical spa</t>
         </is>
       </c>
     </row>
@@ -12605,11 +15265,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/772512</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>AO001AW1718765</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2025-01-22 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/84627480103
+Password 596986</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I311" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -12676,11 +15358,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/770161</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>AO001AW1732446</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/88345423802
+Contraseña 379143</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I313" t="inlineStr">
         <is>
           <t>Preparation, processing, approval, modification, repeal or rejection of agreement, statements or decisions of the National Congress or its members included commissions.</t>
@@ -12784,11 +15488,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/770185</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>AO001AW1675760</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/89138621036
+Password 227149</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>0 horas, 15 minutos</t>
+        </is>
+      </c>
       <c r="I316" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation. 
@@ -12837,11 +15563,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/769975</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>AO001AW1704100</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>The next room is created to join the audience:
+Link https://us02web.zoom.us/j/86896145495
+Password 163195</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>0 horas, 40 minutos</t>
+        </is>
+      </c>
       <c r="I317" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12896,11 +15644,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/768873</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>AO001AW1673727</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/88263314728
+Password 133563</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I318" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -12996,11 +15766,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/651929/768872</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>AO001AW1673727</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2025-01-08 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>The next room is created:
+Link https://us02web.zoom.us/j/88263314728
+Password 133563</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I321" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13096,11 +15888,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/650558/776610</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>AO001AW1744223</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2025-02-04 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Monjitas 689 Office 56</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I324" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -13192,14 +16004,38 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/650558/776605</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
-      <c r="E327" t="inlineStr"/>
-      <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>AO001AW1758444</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2025-02-04 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Estimated, the head of division D. Verónica Bustos and the head of training D. Maria Gabriela Hoffmann will attend it
+Microsoft Teams 
+Join the meeting now 
+Meeting Id: 242 754 819 525 
+Access Code: 39tz9g92</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>1 horas, 15 minutos</t>
+        </is>
+      </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -13305,11 +16141,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/793430</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr"/>
-      <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>AO001AW1815484</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2025-04-22 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Via Teams
+Meeting Id: 279 488 449 998 
+Access Code: T8OG6QJ7</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I330" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13366,11 +16224,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/793360</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr"/>
-      <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>AO001AW1788940</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2025-03-21 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I331" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13430,11 +16308,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/793356</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr"/>
-      <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>AO001AW1776790</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2025-03-19 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Join the meeting now 
+Meeting Id: 260 184 421 988 
+Access Code: TG9NM7F7</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I332" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13523,11 +16423,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/774934</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr"/>
-      <c r="E334" t="inlineStr"/>
-      <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>AO001AW1732200</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2025-01-30 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Orphans 669, 2nd floor.</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I334" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13573,11 +16493,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/776184</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>AO001AW1754165</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2025-01-29 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>According to your request, you will contact you, the delegate Daniela Vielma González, of the Compin Nation.
+Contact 225750021</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I335" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13680,11 +16621,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/774948</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr"/>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>AO001AW1727400</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2025-01-22 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Need help? 
+Join the meeting now 
+Meeting ID: 280 307 519 162 
+Passcode: xi23PF2C</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I338" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13747,14 +16711,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/774942</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
-      <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>AO001AW1729462</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2025-01-22 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 227 262 753 056 
+Access Code: XJ2BV72A</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -13800,11 +16787,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666328/776180</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>AO001AW1734140</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2025-01-17 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 256 266 949 101 
+Access Code: F7SD6SD7</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I340" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -13853,11 +16863,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666594/787299</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>AO001AW1797888</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:30:00-04</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I341" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -13945,11 +16975,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666594/786809</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr"/>
-      <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>AO001AW1791746</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>2025-03-25 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>HIV PROGRAM OFFICE</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I343" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation. 
@@ -14011,11 +17061,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666594/770093</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
-      <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>AO001AW1588488</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2025-01-13 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Monjitas 565 floor 7 of. 716</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I344" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14071,11 +17141,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666594/768259</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
-      <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>AO001AW1635463</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2025-01-06 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>On Line
+Lobby starts at 10:00 am by telematic way.
+15 minutes are expected, interested do not connect.
+Lobby is finished at 10:15 am 
+Participates in Hearing Mr. Rafael Vidal N.</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>0 horas, 15 minutos</t>
+        </is>
+      </c>
       <c r="I345" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14149,11 +17243,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666594/771204</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr"/>
-      <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>AO001AW1644086</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2025-01-03 10:05:00-03</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>0 horas, 55 minutos</t>
+        </is>
+      </c>
       <c r="I347" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14202,11 +17316,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666931/767067</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr"/>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>AO001AW1721507</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2025-01-03 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Estimada
+Se crea la siguiente sala:
+Link https://us02web.zoom.us/j/89654034971
+Join our Cloud HD Video Meeting
+Zoom is the leader in modern enterprise video communications, with an easy, reliable cloud platform for video and audio conferencing, ch</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I348" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -14287,11 +17425,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/666971/788418</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr"/>
-      <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>AO001AW1806671</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2025-04-03 16:30:00-03</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>zoom</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I350" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14335,11 +17493,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/667093/793397</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
-      <c r="E351" t="inlineStr"/>
-      <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>AO001AW1806135</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2025-04-02 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>It is sent by citation because the page was defective</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I351" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14396,11 +17574,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/667151/796892</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>AO001AW1705730</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:30:00-04</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Primary Care Division - Monjitas 565 Eighth Floor</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I352" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14545,11 +17743,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/667151/775370</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>AO001AW1747272</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2025-01-31 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 237 468 984 090 
+Access Code: KM9TW6YH</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I357" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14671,11 +17892,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/667235/783200</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>AO001AW1752524</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2025-02-28 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Virtual, via Teams.
+Meeting link: https://teams.live.com/meet/932312638436?p=ukg3upamr58YM5y5on</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I361" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14724,11 +17966,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/791219</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
-      <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr"/>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>AO001AW1818207</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2025-04-30 11:30:00-04</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>________________________________________________________________________________
+Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 232 779 215 625 1 
+Access Code: JX6XM6CK 
+________________________________________</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I362" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -14807,11 +18074,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/791216</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr"/>
-      <c r="E364" t="inlineStr"/>
-      <c r="F364" t="inlineStr"/>
-      <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr"/>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>AO001AW1821905</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:30:00-04</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>________________________________________________________________________________
+Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 219 390 702 097 
+Access Code: SH9HY7BV 
+________________________________________
+For organi</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I364" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -14858,11 +18151,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786830</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr"/>
-      <c r="E365" t="inlineStr"/>
-      <c r="F365" t="inlineStr"/>
-      <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>AO001AW1824346</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:08:00-04</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>TEAMS</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>0 horas, 24 minutos</t>
+        </is>
+      </c>
       <c r="I365" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14912,11 +18225,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/792945</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr"/>
-      <c r="E366" t="inlineStr"/>
-      <c r="F366" t="inlineStr"/>
-      <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr"/>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>AO001AW1817899</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2025-04-16 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>His request was referred to the Head of the Department of Food and Food, Cristian Cofré.
+The scheduled date for this meeting is April 16 at 10:00 a.m. By Teams.</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I366" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -14993,11 +18327,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786901</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr"/>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>AO001AW1794021</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2025-04-03 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>TEAMS</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I368" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -15111,11 +18465,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786779</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>AO001AW1768724</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2025-03-20 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 258 027 902 879 
+Access Code: OD6EC2NK</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I371" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -15225,11 +18602,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786426</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
-      <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>AO001AW1774793</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2025-03-11 10:15:00-03</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Join the meeting now 
+Meeting Id: 284 905 498 830 
+Access Code: QT3TO9VQ</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I374" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -15324,11 +18723,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/782041</t>
         </is>
       </c>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
-      <c r="G376" t="inlineStr"/>
-      <c r="H376" t="inlineStr"/>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>AO001AW1728173</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2025-02-06 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>icrosoft Teams Need help? 
+Join the meeting now 
+Meeting ID: 264 466 391 204 
+Passcode: MH3BY2eg 
+________________________________________
+For organizers: Meeting options</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I376" t="inlineStr">
         <is>
           <t>Preparation, processing, approval, modification, repeal or rejection of agreement, statements or decisions of the National Congress or its members included commissions.</t>
@@ -15377,11 +18801,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786808</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
-      <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>AO001AW1738803</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2025-01-23 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>________________________________________________________________________________
+Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 253 873 862 315 
+Access Code: HK39FJ9P 
+________________________________________
+For organi</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I377" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -15448,11 +18898,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/786823</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr"/>
-      <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>AO001AW1729553</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2025-01-23 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>________________________________________________________________________________
+Microsoft Teams Need help? 
+Join the meeting now 
+Meeting ID: 232 822 053 006 
+Passcode: Ny79nJ7R 
+________________________________________
+For organizers: Meeting options</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I378" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -15562,11 +19038,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/772108</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr"/>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>AO001AW1723716</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2025-01-16 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Email link is sent</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I381" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -15649,11 +19145,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/769600</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr"/>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>AO001AW1721312</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2025-01-14 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Need help? 
+Join the meeting now 
+Meeting ID: 233 002 523 612 
+Passcode: mt9pB2Ke 
+________________________________________
+For organizers: Meeting options 
+________________________________________________________________________________</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I383" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -15760,11 +19282,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/684820/769598</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>AO001AW1718326</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2025-01-14 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Microsoft Teams Do you need help? 
+Join the meeting now 
+Meeting Id: 217 552 549 22 
+Access Code: Jx6ja6uu 
+________________________________________
+For organizers: meeting options 
+_________________________________________________</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I386" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -15866,11 +19414,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/788391</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr"/>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>AO001AW1831757</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2025-04-30 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Teams</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>0 horas, 48 minutos</t>
+        </is>
+      </c>
       <c r="I389" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -15947,11 +19515,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785975</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>AO001AW1829174</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2025-04-28 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Teams sent by mail.</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>0 horas, 15 minutos</t>
+        </is>
+      </c>
       <c r="I391" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16083,11 +19671,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785840</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>AO001AW1804200</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2025-04-27 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Enrique Mac Iver 541, 4th floor, Dipls Meeting Room</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I395" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -16151,11 +19759,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785561</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>AO001AW1779424</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2025-04-04 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail.
+Join the meeting now 
+Meeting Id: 243 455 922 070 
+Access Code: EH9FH2JG</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I397" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16283,11 +19914,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785512</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>AO001AW1788381</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>2025-04-01 17:00:00-03</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Will be sent by email link</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>0 horas, 15 minutos</t>
+        </is>
+      </c>
       <c r="I401" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16335,11 +19986,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785837</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>AO001AW1803665</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2025-03-27 14:30:00-03</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Email audience link will be sent</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I402" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16420,11 +20091,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785833</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr"/>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr"/>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>AO001AW1803532</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>2025-03-24 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Hearing Link will be sent by email</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I404" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16536,11 +20227,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785830</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>AO001AW1802668</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2025-03-24 12:30:00-03</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Email audience link will be sent</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I407" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16620,11 +20331,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785697</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>AO001AW1789153</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2025-03-24 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Hearing Link will be sent by email</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>1 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I409" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16736,11 +20467,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785739</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>AO001AW1799401</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>2025-03-20 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Hearing Link will be sent by email</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I412" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16840,11 +20591,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785707</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
-      <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>AO001AW1792392</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2025-03-14 10:30:00-03</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Meeting link will be sent by email</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I415" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -16956,11 +20727,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785700</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr"/>
-      <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>AO001AW1791571</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2025-03-14 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>It will be sent by audience link</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I418" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17040,11 +20831,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785880</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr"/>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>AO001AW1760445</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2025-03-13 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Teams will also be sent to the mail
+Join the meeting now 
+Meeting Id: 295 089 356 521 
+Access Code: K7XH2By2</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I420" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17120,11 +20934,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/785693</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr"/>
-      <c r="E422" t="inlineStr"/>
-      <c r="F422" t="inlineStr"/>
-      <c r="G422" t="inlineStr"/>
-      <c r="H422" t="inlineStr"/>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>AO001AW1789050</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2025-03-07 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Will be sent by email access to meeting</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I422" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation. 
@@ -17169,11 +21003,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/781503</t>
         </is>
       </c>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
-      <c r="F423" t="inlineStr"/>
-      <c r="G423" t="inlineStr"/>
-      <c r="H423" t="inlineStr"/>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>AO001AW1750439</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2025-02-20 16:30:00-03</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Teams is sent to the mail</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I423" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -17238,11 +21092,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/778784</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
-      <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
-      <c r="H425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>AO001AW1769799</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2025-02-10 03:30:00-03</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Teams will be sent by mail</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I425" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17383,11 +21257,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/777934</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
-      <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
-      <c r="H429" t="inlineStr"/>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>AO001AW1744903</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2025-02-07 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>1 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I429" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17564,11 +21458,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/776962</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr"/>
-      <c r="F434" t="inlineStr"/>
-      <c r="G434" t="inlineStr"/>
-      <c r="H434" t="inlineStr"/>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>AO001AW1747235</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>2025-02-03 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Teams will be sent to the mail</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I434" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17726,11 +21640,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/698401/768935</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr"/>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr"/>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>AO001AW1698784</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2025-01-10 10:30:00-03</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Teams bond will be sent by email</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I439" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17887,11 +21821,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/713987/779570</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr"/>
-      <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>AO001AW1743764</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2025-01-13 11:00:00-03</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>According to request, he will be contacted by Mrs. Laura Camus Camus, Chief Department of Person
+FONO CONTACT: 225740057</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I444" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -17975,11 +21930,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/717439/773340</t>
         </is>
       </c>
-      <c r="D447" t="inlineStr"/>
-      <c r="E447" t="inlineStr"/>
-      <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>AO001AW1727109</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>2025-01-24 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/83044806232
+Password 517667 Presentation of the home hospitalization project in Mental Health of the Private Company Inred, where contextual aspects are discussed for the implementation of the provision of HD SM in</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I447" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -18083,11 +22059,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/717439/769736</t>
         </is>
       </c>
-      <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
-      <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr"/>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>AO001AW1737318</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2025-01-14 03:00:00-03</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Monjitas 565, 9th floor
+From Fresenius Care, the following history of the meeting are presented.
+- General pocket spending data is reported that must be assumed by users and their families, associated with the cost in transportation for retreat</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I450" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -18144,11 +22142,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/717439/769723</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr"/>
-      <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr"/>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>AO001AW1682720</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>2025-01-07 03:10:00-03</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/81513869522
+Password 547308
+Date is modified at the request of the applicant. ECM company Engineering Representative of Xstrahl presented X -ray generating equipment to perform surface and orthovoltage therapy.
+Reference</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>1 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I451" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -18212,11 +22233,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/717439/768155</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr"/>
-      <c r="E453" t="inlineStr"/>
-      <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>AO001AW1710183</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2025-01-02 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/85873794346
+Password 895877
+Will be received by Mr. Cristian Parra.        20 minutes are expected, they did not connect from Novartis.</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>0 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I453" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -18296,11 +22339,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/788048</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
-      <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>AO001AW1822168</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2025-04-30 10:00:00-04</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>ROOM MEETING Dmo (Monjitas 689, Floor 4, Of. 42).
+They also participate, Felipe Espinoza, Sebastián Aravena and Luis Rodríguez, Dmo
+(Regularization of commitment already made, for previous problems on lobby platform)</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>1 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I455" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -18348,14 +22413,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/788015</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
-      <c r="H456" t="inlineStr"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>AO001AW1819001</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>2025-04-21 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>ROOM MEETING Dmo (Monjitas 689, Floor 4, Of. 42).
+Also participates, Edith Aburto, professional dmo
+(Regularization of commitment already made, for previous problems on lobby platform)</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>0 horas, 40 minutos</t>
+        </is>
+      </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -18400,11 +22487,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/787989</t>
         </is>
       </c>
-      <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr"/>
-      <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>AO001AW1784065</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>2025-04-08 16:00:00-04</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>ROOM MEETING Dmo (Monjitas 689, Floor 4, Of. 42).
+It also participates, Sebastián Aravena, professional dmo
+(Regularization of commitment already made, for previous problems on lobby platform)</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I457" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -18452,11 +22561,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/788000</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr"/>
-      <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr"/>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>AO001AW1809619</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>2025-04-07 16:00:00-04</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>ROOM MEETING Dmo (Monjitas 689, Floor 4, Of. 42).
+It also participates, Sebastián Aravena, professional dmo
+(Regularization of commitment already made, for previous problems on lobby platform)</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>0 horas, 50 minutos</t>
+        </is>
+      </c>
       <c r="I458" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -18564,11 +22695,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/773726</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr"/>
-      <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>AO001AW1744588</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2025-01-24 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>According to your solce, you will contact you, the Head of the Department. of works monitoring Mr. Germán Sáez.
+Link is attached to connect. 
+They also participate, Ana María Barroux and Felipe Espinoza, Divin professionals
+https://us02web.zoom.us/j</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>1 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I461" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -18614,11 +22768,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/769469</t>
         </is>
       </c>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>AO001AW1738845</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>2025-01-14 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Department meetings. Works monitoring (Monjitas 689 Floor 4 of. 42)
+It also participates, Mr. Felipe Espinoza. DMO technical coordinator</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>0 horas, 45 minutos</t>
+        </is>
+      </c>
       <c r="I462" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -18698,11 +22873,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/720886/767628</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>AO001AW1724099</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2025-01-07 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Will be received at audience by German Sáez. Investment Division. Contact Telephone: 225740518, Department meetings. Works monitoring (Monjitas 689, 4th floor, office 42)
+They also participate, Felipe Espinoza and María José Alarcón, DMO professionals</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>1 horas, 25 minutos</t>
+        </is>
+      </c>
       <c r="I464" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -18838,11 +23034,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/728909/788074</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
-      <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>AO001AW1793508</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2025-03-24 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Link was indicated in a timely manner.
+Attend A Smoked Romina Commitment, Darq professional
+(Regularization of commitment already made, for previous problems on lobby platform)</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I468" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -18851,7 +23069,7 @@
       <c r="J468" t="inlineStr">
         <is>
           <t>Estimated, &lt;Br /&gt;
-Together with greeting, I write to request a meeting to present our work team and the solutions we work in terms of medical equipment, clinical furniture and hospital asset management software. &lt;Br /&gt;
+Together with greeting, I write to request a presentation meeting of our work team and the solutions we work in terms of medical equipment, clinical furniture and hospital asset management software. &lt;Br /&gt;
 &lt;Br /&gt;
 Is it possible to schedule an online meeting with the person in charge of projects to present our solutions? &lt;Br /&gt;
 &lt;Br /&gt;
@@ -18897,11 +23115,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/728911/788472</t>
         </is>
       </c>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>AO001AW1809860</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2025-04-07 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Link https://us02web.zoom.us/j/81651446831
+Password 711873
+Audience attended by Ahumada Romina, Darq professional
+(Publication in platform is regularized, given the above problems that said media presented)</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I469" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -18945,11 +23186,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/787699</t>
         </is>
       </c>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
-      <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>AO001AW1829204</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>2025-04-28 17:00:00-04</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Monjitas Investment Division 689 of. 34 Floor 3
+Mr. Carlos Manzi, Chief Investment Division
+Adrián Peña, Head Department of Studies
+Andrea Seguel, Project Manager
+Eduardo Aragonese Department. Architecture
+Claudia Jimenez, Department. Architecture</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I470" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -19081,14 +23347,36 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/785161</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>AO001AW1811762</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>2025-04-23 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Investment Division
+Mr. Carlos Manzi
+Monjitas 689 of. 34 Floor 3</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -19186,11 +23474,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/785120</t>
         </is>
       </c>
-      <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
-      <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr"/>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>AO001AW1819188</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2025-04-17 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Monjitas 689 of. 34 Floor 3
+Investment Division</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I477" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -19262,11 +23571,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/787700</t>
         </is>
       </c>
-      <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr"/>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>AO001AW1812366</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>2025-04-16 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>INVESTMENT DIVISION: Given the zero operation of the lobby platform on that occasion, the process is regularized dated 04-30-2025. The meeting was held on April 16, 2025 from 09:30 to 10:30 hrs.</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I479" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
@@ -19370,14 +23699,35 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/785126</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
-      <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>AO001AW1812406</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2025-04-07 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Monjitas 689 Floor 4 of. 44
+Germán Sáez, Depth Chief. Works monitoring</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -19522,11 +23872,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/785156</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>AO001AW1781618</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2025-03-06 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>According to your request, they will be received by Mr. Carlos Manzi, Chief Division Investments of Assistance Networks.
+Contact 225740447</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I488" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -19670,11 +24041,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/783777</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr"/>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>AO001AW1748102</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>2025-03-04 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Audience will be attended by Messrs. Carlos Manzi and Pablo Araya, in the meeting room investment division, Monjitas 689, 3rd floor, office 34. Contact: 22 5740447.
+The meeting is held from 12:00 to 13:00 hrs.</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I494" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -19818,11 +24210,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/780933</t>
         </is>
       </c>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>AO001AW1754186</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>2025-01-31 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>According to their application, they will be received by Don Carlos Manzi, Head of Division of Investments, of the Undersecretariat of Assistance Networks.
+Mac-Ver 541</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I498" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -19866,14 +24279,37 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/784212</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>AO001AW1749038</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2025-01-30 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Chief Investment Division Mr. Carlos Manzi
+Mac-Ver 541 of. 34 Floor 3
+INVESTMENT DIVISION MEETING ROOM
+The company does not present 09:48 hrs.</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>0 horas, 18 minutos</t>
+        </is>
+      </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation.</t>
+          <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -20003,11 +24439,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/780930</t>
         </is>
       </c>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="inlineStr"/>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>AO001AW1745514</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>2025-01-25 09:00:00-03</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>The head of the Investment Division D.Carlos Manzi will receive his contact is 225740447 his secretary Mane Pizarro</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I503" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -20053,11 +24509,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/780931</t>
         </is>
       </c>
-      <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr"/>
-      <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
-      <c r="H504" t="inlineStr"/>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>AO001AW1744468</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>2025-01-23 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>INVESTMENT DIVISION MEETING ROOM
+Mr. Carlos Manzi, Chief Investment Division</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I504" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out the passive subjects and that are necessary for their operation. 
@@ -20066,7 +24543,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>We request a meeting to learn about the initiatives of investment and replacement projects of the sector by 2025, with the aim of having the best technology and availability options to offer in bidding processes and meet expectations and requirements.</t>
+          <t>We request a meeting to learn about the initiatives of investment and replacement projects of the sector by 2025, with the objective of having the best technology and availability options to offer in bidding processes and meet expectations and requirements.</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -20106,11 +24583,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/771136</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
-      <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr"/>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>AO001AW1750072</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>2025-01-20 08:00:00-03</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>It will be received by the Chief of Investments D. Carlos Manzi and head of concessions projects D Marcelo Carvallo, in Mac Iver 541 Floor 3 Office 34, Contact Man Mane Pizarro 225740447</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I505" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -20243,11 +24740,34 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/739415/771141</t>
         </is>
       </c>
-      <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
-      <c r="H509" t="inlineStr"/>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>AO001AW1737942</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2025-01-09 09:30:00-03</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Mr. Carlos Manzi, Chief Investment Division
+Mr. Marcelo Carvallo, Head Department. Concessions
+Enrique Mac-Ver 541 of. 34 Floor 3 (Monjitas Building)
+As indicated by Miss Valeska Castro, Mr. Carlos Kattan is included as a participant</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I509" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -20351,11 +24871,32 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/745631/773882</t>
         </is>
       </c>
-      <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
-      <c r="H512" t="inlineStr"/>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>AO001AW1738677</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>2025-01-15 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>According to your request, Mrs. Sara Correa, advisor to the Undersecretary of Public Health will be in touch.
+ Contact 225740407</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I512" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -20431,11 +24972,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/745631/771769</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>AO001AW1750612</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>2025-01-14 12:00:00-03</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Subsecretariat of Public Health.
+Telephone: 225740407
+Mac-Ver 541, 3rd floor</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I514" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -20561,11 +25124,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/745631/773876</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr"/>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>AO001AW1725907</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2025-01-09 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>According to your application, it will be attended by Miss Sara Correa, Cabinet Advisor Undersecretariat of Health.
+Link and access key will be sent
+Phone: 225740407</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I517" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -20641,11 +25226,33 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/745631/768214</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>AO001AW1711575</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>2025-01-06 16:30:00-03</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>In person</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>According to your application, they will be attended by Mrs. Sara Correa, advisor to the Cabinet of the Undersecretariat of Public Health.
+Mac-Ver 541, 3rd floor
+FONO CONTACT: 225740407</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I519" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -21239,11 +25846,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/787962</t>
         </is>
       </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>AO001AW1816249</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>2025-04-24 11:30:00-04</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I539" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -21266,7 +25893,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Tomorrow Abbott</t>
+          <t>Tomb Abbott</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -21325,11 +25952,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/784389</t>
         </is>
       </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr"/>
-      <c r="H541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>AO001AW1748668</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>2025-03-06 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I541" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -21486,11 +26133,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/782860</t>
         </is>
       </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>AO001AW1777472</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2025-02-27 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>0 horas, 38 minutos</t>
+        </is>
+      </c>
       <c r="I545" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -21608,11 +26275,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/781588</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>AO001AW1775913</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>2025-02-21 10:00:00-03</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>0 horas, 23 minutos</t>
+        </is>
+      </c>
       <c r="I548" t="inlineStr">
         <is>
           <t>Celebration, modification or termination of any title, of contracts that carry out passive subjects and that are necessary for their operation.</t>
@@ -21661,11 +26348,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/780665</t>
         </is>
       </c>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr"/>
-      <c r="H549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>AO001AW1727483</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>2025-01-16 15:30:00-03</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>0 horas, 20 minutos</t>
+        </is>
+      </c>
       <c r="I549" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects., 
@@ -21782,11 +26489,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/747159/780660</t>
         </is>
       </c>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
-      <c r="H552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>AO001AW1715853</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2025-01-16 15:00:00-03</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I552" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -21852,11 +26579,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/792610/788123</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>AO001AW1814506</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>2025-04-25 16:00:00-04</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>It was received by the head of Cabinet Dra Ximena Barros</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I554" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -21934,11 +26681,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/792610/788121</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr"/>
-      <c r="H556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>AO001AW1815280</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>2025-04-25 15:30:00-04</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>It was received by the head of Cabinet Dra Ximena Barros</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
       <c r="I556" t="inlineStr">
         <is>
           <t>Elaboration, dictation, modification, denial or rejection of administrative acts, bills and laws and also of the decisions made by passive subjects.</t>
@@ -22014,11 +26781,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/174504/788242</t>
         </is>
       </c>
-      <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>AO001AW1825011</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2025-04-29 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>The audience will be held telematically (Teams). The connection link is sent by email to the applicant. The answer is entered out of time due to intermittency problems on the lobby platform.</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>0 horas, 30 minutos</t>
+        </is>
+      </c>
       <c r="I558" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>
@@ -22064,11 +26851,31 @@
           <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/174504/785072</t>
         </is>
       </c>
-      <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
-      <c r="H559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>AO001AW1816310</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>2025-04-09 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>Videoconferentia</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>The audience is scheduled telematically (Teams). The connection link is sent by email to the applicant. The answer is entered out of time due to intermittency problems on the lobby platform.</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>0 horas, 40 minutos</t>
+        </is>
+      </c>
       <c r="I559" t="inlineStr">
         <is>
           <t>Design, implementation and evaluation of policies, plans and programs carried out by the taxpayers.</t>

--- a/output/2025/scraped_data/Ministry of Health 2025.xlsx
+++ b/output/2025/scraped_data/Ministry of Health 2025.xlsx
@@ -6262,37 +6262,40 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Paola Pontoni</t>
+          <t>Bernardo Martorell</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jefa Departamento de Reducción del Riesgo para Emergencias Sanitarias - SSP</t>
+          <t>Subsecretario de Redes Asistenciales</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/257591/805327</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/807448</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>AO001AW1854499</t>
+          <t>AO001AW1859806</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2025-06-09 04:30:00-04</t>
+          <t>2025-06-16 11:00:00-04</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Presencial</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Monjitas 689 piso 7 oficina 72</t>
+          <t>Será recibida en audiencia via teams, por Alison Morales, Asesora de Gabinete SUBSEREDES
+Id. de reunión: 259 600 552 338 
+Código de acceso: iC3JA9ck
+No se presentan</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6302,17 +6305,19 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos., 
+Elaboración, tramitación, aprobación, modificación, derogación o rechazo de acuerdo, declaraciones o decisiones del Congreso Nacional o sus miembros incluídas comisiones.</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Soy medico urgenciologo, magister en emergencia y desastres. Me gustaría la asesoría de la jefa de departamento para el diseño de un proyecto que estoy llevando a cabo sobre manejo de múltiples victimas en hospitales.</t>
+          <t>CARGA LABORAL&lt;br /&gt;
+ELABORAR MESA TÉCNICA: AGRESIÓN Y RIESGOS DE TENS</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Rubén Nissin</t>
+          <t>Mireya Sanhueza</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -6323,82 +6328,29 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>ruben nissin</t>
+          <t>COLEGIO NACIONAL DE TECNICOS EN ENFERMERIA DE CHILE</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Paola Pontoni</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Jefa Departamento de Reducción del Riesgo para Emergencias Sanitarias - SSP</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/257591/805541</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>AO001AW1815597</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2025-04-09 17:30:00-04</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>oficina 1001 monjitas 565</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Oportunidades de Mercado para la gestión climática bajo Art 6 del Acuerdo de París:&lt;br /&gt;
-(1) lista priorizada para tipología de proyectos; (2) línea del tiempo para lista priorizada; (3) apetito de proyectos en sector</t>
-        </is>
-      </c>
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>María Lucila Serra Lahunsembarne</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>South Pole Carbon Asset Management Ltd.</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>South Pole Carbon Asset Management Ltd.</t>
-        </is>
-      </c>
+          <t>Patricia Herrera Valenzuela</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -6413,104 +6365,32 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Rodrigo Bórquez</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>South Pole Carbon Asset Management Ltd.</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>South Pole Carbon Asset Management Ltd.</t>
-        </is>
-      </c>
+          <t>MANUEL LETELIER CUEVAS</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Edith Carmen Ortiz Nuñez</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/786768</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>AO001AW1828916</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2025-04-17 10:30:00-04</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>On line</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Presentación de productos para detección y categorización de VPH, detección de VIH, Sífilis, HCV y HTLV&lt;br /&gt;
-&lt;br /&gt;
-Presentan equipos e insumos para la autotoma de examen de detección de VPH, a través de orina, permitiendo la amplificación y secuenciación de algunos genotipos. Presentan equipos e insumos para otros agentes: VIH, VHC, HTLV1, Sífilis. &lt;br /&gt;
-&lt;br /&gt;
-Se les sugiere reunión con ANACAN, y con redes asistenciales.&lt;br /&gt;
-&lt;br /&gt;
-Participan&lt;br /&gt;
-Dr. Leonardo Chanqueo Cornejo&lt;br /&gt;
-Carolina Peredo Courtier</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Andrés Fernández</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
-        </is>
-      </c>
+          <t>RICARDO FUENTEALBA GUERRERO</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -6525,49 +6405,37 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Jorge Touma</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
-        </is>
-      </c>
+          <t>SANDRA MELLA ORTIZ</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Edith Carmen Ortiz Nuñez</t>
+          <t>Bernardo Martorell</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
+          <t>Subsecretario de Redes Asistenciales</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/787885</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/803893</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>AO001AW1776471</t>
+          <t>AO001AW1847326</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2025-02-06 14:30:00-03</t>
+          <t>2025-06-02 11:00:00-04</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6577,7 +6445,10 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>On line</t>
+          <t>lo recibirá Alison Morales Asesora del Subsecretario via Team
+Unirse a la reunión ahora 
+Id. de reunión: 290 165 488 188 5   lo recibió Alison Morales de forma presencial
+Código de acceso: Wm6RW9W6</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6592,23 +6463,12 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Reunión de seguimiento lobby AO001AW1749073 en relación a la situación de Kaletra jarabe en programa VIH y una posible descontinuación.&lt;br /&gt;
-&lt;br /&gt;
-Se informa que se consultó al Comité asesor VIH pediátrico sobre existencia de alternativas terapéuticas, quienes señalaron y manifestaron la necesidad de mantener la disponibilidad de Kaletra® jarabe como parte del arsenal farmacológico para los niños y niñas que viven con VIH. &lt;br /&gt;
-Las alternativas disponibles en nuestro país pueden utilizarse a partir de los 40 kg, siendo inapropiados para la mayoría de los niños en crecimiento y no disponemos en Chile de su formulación en jarabes. Actualmente existen niños en control en que Kaletra® jarabe forma parte de su esquema de 2da línea y que no tienen el peso adecuado para optar a las alternativas disponibles.  &lt;br /&gt;
-&lt;br /&gt;
-Señalan que con estos antecedentes y teniendo claridad del requerimiento desde MINSAL realizarán gestiones para mantener la provisión de este producto en el país. &lt;br /&gt;
-&lt;br /&gt;
-Desde MINSAL se solicita informar sobre los avances de las gestiones por lo que se acuerda realizar una próxima reunión de seguimiento. &lt;br /&gt;
- &lt;br /&gt;
-Participan&lt;br /&gt;
-Leonardo Chanqueo Cornejo&lt;br /&gt;
-María Teresa Silva</t>
+          <t>Buenos solicito expresamente un audiencia con esta autoridad, para manifestar personalmente mi reclamo y con documentos en mano , lo que estoy reclamando en forma reiterada antes los diferentes organismos de salud y ala vez solicito que no se me derive nuevamente con otra persona , ya que con la persona que me derivaron anteriormente no he conseguido nada , ya que ella en aquella oportunidad se contactó con una persona del servicio de salud Ñuble y durante esta semana fuí a preguntarle que había sucedido con las gestiones que le habían solicitado desde el ministerio de salud desde Santiago, y la Respuesta INSÓLITA que me dio fue, Que HABÍA QUÉ MATAR AÚN PAR De PACIENTE PARA Que Yo pudiera ser atendido, lo cual creo que no corresponde ese tipo de respuesta sobre todo de un funcionario de dicho dpt de salud, por que ellos están Pará ayudar a tratar de solucionar los diferentes problemas que se le presenten a los pacientes y no dar ése tipo de respuesta</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>María Pons</t>
+          <t>Marcelo Chavarria Fuentes</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -6619,24 +6479,71 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>Marcelo Chavarria fuentes</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bernardo Martorell</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Subsecretario de Redes Asistenciales</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/803892</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>AO001AW1831450</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:00:00-04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Tema: Lobby 1831450  ACTI A.G. 
+Hora: 2 jun 2025 11:00 p. m. Santiago
+Únase a la reunión de Zoom
+https://us02web.zoom.us/j/85980392427?pwd=UVg6NReDoYodcykhepWQsl99CWD9CD.1
+ID de reunión: 859 8039 2427
+Código de acceso: 755281    lo recibió Vanessa Diaz</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>La Asociación Chilena de Empresas de Tecnologías de Información A.G., a través de su Mesa de Salud, solicita poder reunirse con el señor Bernardo Martorell, Subsecretario de Redes Asistenciales, para conversar sobre de Ley Interoperabilidad de Fichas Clínicas y ofrecer la disposición desde ACTI a colaborar en esa instancia.&lt;br /&gt;
+&lt;br /&gt;
+A la reunión asistirán los señores Martín Kozak y René Prieto, Presidente y Vicepresidente de la Mesa de Salud de ACTI.</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Claudio Silva</t>
+          <t>Leandro Martin Kozak</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -6644,80 +6551,31 @@
           <t>Gestor de intereses</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Intersysyems Chile Ltda</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ASOCIACIÓN CHILENA DE EMPRESAS DE TECNOLOGÍAS DE INFORMACIÓN A.G. - ACTI A.G.</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Edith Carmen Ortiz Nuñez</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/780151</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>AO001AW1749073</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2025-01-22 12:30:00-03</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Oficina Programa de VIH</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Situación lopinavir/ritonavir solución oral en programa pediátrico VIH&lt;br /&gt;
-&lt;br /&gt;
-Señalan que debido a nuevas alternativas terapéuticas ha disminuido su demanda a nivel mundial, lo que se ha traducido en una discontinuación en la producción del producto. &lt;br /&gt;
-Actualmente tiene contrato vigente con CENABAST hasta diciembre 2025. Para el 2026 existe riesgo de descontinuación. &lt;br /&gt;
-Señalan que en caso de que MINSAL requiera mantener disponible este producto en el país podrían hacer las gestiones pertinentes para ello, considerando las dificultades que se pueden presentar. &lt;br /&gt;
-Desde el Depto VIH se plantea que es necesario disponer de esta presentación como una alternativa en tratamiento de rescate cuando existe resistencia a antirretrovirales. Lopinavir/ritonavir es la única alternativa que existe para estos casos en niños menores a &lt; 40 kilos. Igualmente se hará la consulta al Comité asesor VIH pediátrico para tener certeza que no existen otras alternativas terapéuticas en esta situación.&lt;br /&gt;
-Se acuerda realizar una próxima reunión de seguimiento para informar si se requiere mantener la disponibilidad de lopinavir/ritonavir solución en el país y realizar las gestiones correspondientes para ello. &lt;br /&gt;
-&lt;br /&gt;
-Asisten&lt;br /&gt;
-&lt;br /&gt;
-Dr. leonardo Chanqueo   Jefe Programa de VIH&lt;br /&gt;
-Sra. María Teresa Silva Profesional Programa de VIH&lt;br /&gt;
-Sra. María Pons&lt;br /&gt;
-Sr. Claudio Silva</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>María Pons</t>
+          <t>René Prieto</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -6728,24 +6586,70 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>ASOCIACIÓN CHILENA DE EMPRESAS DE TECNOLOGÍAS DE INFORMACIÓN A.G. - ACTI A.G.</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bernardo Martorell</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Subsecretario de Redes Asistenciales</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800580</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>AO001AW1840794</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-05-23 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>lo recibira Alison Morales asesora del Subsecretario de Redes ,  
+via TEAMS
+Unirse a la reunión ahora
+Id. de reunión: 268 496 198 113
+Código de acceso: vB2sX98b</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>1.- Implementación y funcionamiento del Ges 85 en APS y red de salud a nivel nacional, &lt;br /&gt;
+2.- Consultar si existe Protocolo en Atención Terciaria para hospitalización de personas con Alzheimer y Otras Demencias y personas con discapacidad, dependencia, o alguna condición.&lt;br /&gt;
+3.- Implementación ley 21.380 relacionada a las personas cuidadoras y exámenes médicos,</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Claudio Silva</t>
+          <t>Paola Reyes</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -6756,70 +6660,24 @@
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Abbvie Ltda</t>
+          <t>Paola Reyes Franco</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Carolina Neira</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Jefa (S) Departamento Enfermedades No Transmisibles</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/278283/792465</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>AO001AW1794134</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2025-05-09 15:00:00-04</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>________________________________________________________________________________
-Microsoft Teams ¿Necesita ayuda? 
-Unirse a la reunión ahora 
-Id. de reunión: 228 396 235 533 1 
-Código de acceso: 5Nk3zg7Q 
-________________________________________</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>0 horas, 15 minutos</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Celebración, modificación o terminación a cualquier título, de contratos que realicen los sujetos pasivos y que sean necesarios para su funcionamiento., 
-Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>No se presenta a audiencia de Lobby.</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Juan Ríos</t>
+          <t>Constanza Gonzalez</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -6830,7 +6688,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Marcela Cofré Cervera</t>
+          <t>Constanza Gonzalez</t>
         </is>
       </c>
     </row>
@@ -6847,30 +6705,27 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/807448</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/796246</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>AO001AW1859806</t>
+          <t>AO001AW1824856</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2025-06-16 11:00:00-04</t>
+          <t>2025-05-16 08:30:00-04</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Videoconferencia</t>
+          <t>Presencial</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Será recibida en audiencia via teams, por Alison Morales, Asesora de Gabinete SUBSEREDES
-Id. de reunión: 259 600 552 338 
-Código de acceso: iC3JA9ck
-No se presentan</t>
+          <t>lo recibirá el Dr Bernardo Martorell, Subsecretario de Redes Asistenciales en Mac Iver 541 piso 2</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6880,19 +6735,17 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos., 
-Elaboración, tramitación, aprobación, modificación, derogación o rechazo de acuerdo, declaraciones o decisiones del Congreso Nacional o sus miembros incluídas comisiones.</t>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>CARGA LABORAL&lt;br /&gt;
-ELABORAR MESA TÉCNICA: AGRESIÓN Y RIESGOS DE TENS</t>
+          <t>Dar a conocer al Subsecretario trabajo de FALP con pacientes del Sistema Público de Salud</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Mireya Sanhueza</t>
+          <t>Cristian Enrique Ayala Munita</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -6900,10 +6753,14 @@
           <t>Gestor de intereses</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Fundación Arturo Lopez Perez</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>COLEGIO NACIONAL DE TECNICOS EN ENFERMERIA DE CHILE</t>
+          <t>FUNDACION ARTURO LOPEZ PEREZ</t>
         </is>
       </c>
     </row>
@@ -6920,52 +6777,186 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Patricia Herrera Valenzuela</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
+          <t>Vladimir Pizarro</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>SERVICIO SALUD METROPOLITANO OCCIDENTE</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>FUNDACION ARTURO LOPEZ PEREZ</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Bernardo Martorell</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Subsecretario de Redes Asistenciales</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800575</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>AO001AW1824783</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>lo recibira via TEEM Alyson Morales Asesora del Gabinete  
+se adjunta TEEMUnirse a la reunión ahora 
+Id. de reunión: 291 166 863 411 9 
+Código de acceso: KU78PQ9o</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>MINUTA REUNIÓN SUBSECRETARIO DE REDES ASISTENCIALES. &lt;br /&gt;
+&lt;br /&gt;
+EL DEPARTAMENTO DE SALUD DE PAIHUANO, ES UN DEPARTAMENTO CUYO APORTE ES DE MENOS DE 5 MIL HABITANTES, POR ELLO ES CONSIDERANDO COMO COMUNA DE COSTO FPOR LO QUE EL APORTE MENSUAL ES VÍA PRCAPITA   DE PARTE DEL MINSAL POR CASI 43 MILLONES DE PESOS., RECUSO QUE ES UTILIZADO EN SU TOTALIDAD PARA LA CANCELACIÓN DE RECURSO HUMANO.&lt;br /&gt;
+EL APORTE MNICIPAL A SU VEZ AL DEPARTAMENTO DE SALUD ES DE ALREDEDOR DEL 55% DEL PRESUPUESTO DE SALUD ANUAL. ESE ES UN GRAN COMPROMISO HACIA EL DEPARTAMENTO ADQUIRIDO POR AÑOS   PERO QUE NO PUEDE SER MAYOR POR TODOS LOS COMPROMISOS QUE EL MUNICIPIO DEBE CUMPLIR CON LOS OTROS DEPARTAMENTOS. &lt;br /&gt;
+DE ESA FORMA SE HAN IDO GENERANDO BRECHAS., BRECHAS D TODO TIPO, QUE SE HAN TRATADO DE DISMINUIR REALIZANDO GESTIONES EN DIVERSOS NIVELES, PERO NINGUNA HA TENIDO RESULTADOS., POR DICHA RAZÓN SOLICITAMOS SU APOYO EN LOS SIGUIENTS REQUERIMIENTOS:&lt;br /&gt;
+1.- El DEAPRTAMENTO DE SALUD, CONTRATA SUS SERVICIOS DE EXÁMENES DE LABORATORIO CON EL HOSPITAL DE VICUÑA, POR MOTIVOS PRESUPUESTARIOS NO HA SIDO POSIBLE CANCELAR  DICHO SERVICIO, AL DÍA DE HOY EXISTE UNA DEUDA ACUMULADA DE 125 MILLONES DE PESOS, QUE NO PODEMOS CANCELAR , SOLICITAMOS QUE  SE PUEDA INTERVENIR EN APROBAR UN PROYECTO AGL  PARA LA  CANCELACIÓN  DE LOS EXÁMENES DE LABORATORIO  O LA RECONVERSIÓN DE RECURSOS , YA SEA RENDIR  RECURSO HUMANO DE DOTACIÓN  MUNICIPAL DE SALUD Y PARA PODER CONTAR DE ESA MANERA CON  EL DINERO DISPONIBLE PARA LA CANCELACIÓN DEL LABORATOTRIO  U  OTRA VIA POSIBLE DE COLABORACIÓN.&lt;br /&gt;
+2.-  SE REQUIERE EL APOYO DEL MINISTERIO DE SALUD EN EL PROCESO DE ACREDITACIÓN EN CALIDAD, 20 MILLONES PARA LA INSCRIPCIÓN EN EL PROCESO Y MEJORAS INTERNAS QUE SE REQUIERAN REALIZAR EN POSTAS Y CESFAM PARA AFRONTAR DICHO PROCESO.&lt;br /&gt;
+3.- ADQUISICIÓN DE CAMIONETA PARA RONDAS ASISITENCIALES Y OTRAS PRESTACIONES.&lt;br /&gt;
+4.- APROBACIÓN DE AGL Y PMI&lt;br /&gt;
+5.- CANCELACIÓN DE RECURSO HUMANO DE DOTACIÓN PARA LIBERACIÓN DE PRESUPUESTO&lt;br /&gt;
+&lt;br /&gt;
+                                                             AGRADECIDOS DEL APOYO.</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>MANUEL LETELIER CUEVAS</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
+          <t>Mildred Varela</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>MUNICIPALIDAD DE PAIHUANO</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>ILUSTRE MUNICIPALIDAD DE PAIHUANO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Bernardo Martorell</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Subsecretario de Redes Asistenciales</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800576</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>AO001AW1825815</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:30:00-04</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>lo recibirá en audiencia Alyson Morales Asesora del Gabinete 
+ Via TEEMUnirse a la reunión ahora 
+Id. de reunión: 264 303 737 002 5 
+Código de acceso: De6hw7fe</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Presentar los Círculos de Escucha como una tecnología social y práctica grupal de bienestar recogida en el REM, y a Corporación Escuchar, como OSFL con 10 años de experiencia en instalar Círculos de Escucha y formar monitoras/es para ello. &lt;br /&gt;
+Proponemos usar Círculos de Escucha para:&lt;br /&gt;
+- promover la participación ciudadana en salud.&lt;br /&gt;
+- promover bienestar y salud comunitaria a bajo costo, en base a la comunidad.&lt;br /&gt;
+- construir y/o desarrollar vínculos saludables para potenciar las comunidades.&lt;br /&gt;
+- levantar, relevar, difundir y potenciar los activos comunitarios territoriales.</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>RICARDO FUENTEALBA GUERRERO</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
+          <t>Verónica Virgilio</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Corporación Escuchar</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -6980,12 +6971,20 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>SANDRA MELLA ORTIZ</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+          <t>Yasna Nanjari</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Corporación Escuchar</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7000,17 +6999,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/803893</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800572</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>AO001AW1847326</t>
+          <t>AO001AW1815203</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2025-06-02 11:00:00-04</t>
+          <t>2025-05-09 11:00:00-04</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7020,10 +7019,11 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>lo recibirá Alison Morales Asesora del Subsecretario via Team
+          <t>lo recibirá en reunión  Alyson Morales asesora del Gabinete  por TEEM
+Microsoft Teams 
 Unirse a la reunión ahora 
-Id. de reunión: 290 165 488 188 5   lo recibió Alison Morales de forma presencial
-Código de acceso: Wm6RW9W6</t>
+Id. de reunión: 285 804 262 906 4 
+Código de acceso: ch7HJ6qQ</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7038,12 +7038,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Buenos solicito expresamente un audiencia con esta autoridad, para manifestar personalmente mi reclamo y con documentos en mano , lo que estoy reclamando en forma reiterada antes los diferentes organismos de salud y ala vez solicito que no se me derive nuevamente con otra persona , ya que con la persona que me derivaron anteriormente no he conseguido nada , ya que ella en aquella oportunidad se contactó con una persona del servicio de salud Ñuble y durante esta semana fuí a preguntarle que había sucedido con las gestiones que le habían solicitado desde el ministerio de salud desde Santiago, y la Respuesta INSÓLITA que me dio fue, Que HABÍA QUÉ MATAR AÚN PAR De PACIENTE PARA Que Yo pudiera ser atendido, lo cual creo que no corresponde ese tipo de respuesta sobre todo de un funcionario de dicho dpt de salud, por que ellos están Pará ayudar a tratar de solucionar los diferentes problemas que se le presenten a los pacientes y no dar ése tipo de respuesta</t>
+          <t>Vulneración de derechos a paciente Albero Jesús Garrido Pérez, en atenciones brindadas.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Marcelo Chavarria Fuentes</t>
+          <t>Alberto Garrido</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -7054,7 +7054,7 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Marcelo Chavarria fuentes</t>
+          <t>Gabriela Calderón Álvarez</t>
         </is>
       </c>
     </row>
@@ -7071,32 +7071,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/803892</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/796230</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>AO001AW1831450</t>
+          <t>AO001AW1822942</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2025-06-02 11:00:00-04</t>
+          <t>2025-05-08 11:30:00-04</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Videoconferencia</t>
+          <t>Presencial</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Tema: Lobby 1831450  ACTI A.G. 
-Hora: 2 jun 2025 11:00 p. m. Santiago
-Únase a la reunión de Zoom
-https://us02web.zoom.us/j/85980392427?pwd=UVg6NReDoYodcykhepWQsl99CWD9CD.1
-ID de reunión: 859 8039 2427
-Código de acceso: 755281    lo recibió Vanessa Diaz</t>
+          <t>Mac Iver 541 piso 2 Ministerio de Salud, contacto Doris González 225740370</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7106,19 +7101,17 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>La Asociación Chilena de Empresas de Tecnologías de Información A.G., a través de su Mesa de Salud, solicita poder reunirse con el señor Bernardo Martorell, Subsecretario de Redes Asistenciales, para conversar sobre de Ley Interoperabilidad de Fichas Clínicas y ofrecer la disposición desde ACTI a colaborar en esa instancia.&lt;br /&gt;
-&lt;br /&gt;
-A la reunión asistirán los señores Martín Kozak y René Prieto, Presidente y Vicepresidente de la Mesa de Salud de ACTI.</t>
+          <t>Presentar Exposalud 2025 a realizarse 1,2 y 3 de diciembre en Espacio Riesco, con la finalidad de mostrar la plataforma público privada que es y como es que esto favorece la comunicación en el área de Salud. Es necesario que sepa las gestiones que realizamos para contar con su acuerdo y verificar que nos aliniemos en el trabajo a realizar.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Leandro Martin Kozak</t>
+          <t>Andrea Buzzetti</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -7128,12 +7121,12 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Intersysyems Chile Ltda</t>
+          <t>FRESENIUS KABI</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>ASOCIACIÓN CHILENA DE EMPRESAS DE TECNOLOGÍAS DE INFORMACIÓN A.G. - ACTI A.G.</t>
+          <t>andrea buzzetti</t>
         </is>
       </c>
     </row>
@@ -7150,7 +7143,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>René Prieto</t>
+          <t>Miguel Berrios Momberg</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -7161,7 +7154,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>ASOCIACIÓN CHILENA DE EMPRESAS DE TECNOLOGÍAS DE INFORMACIÓN A.G. - ACTI A.G.</t>
+          <t>Miguel Berrios</t>
         </is>
       </c>
     </row>
@@ -7178,17 +7171,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800580</t>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/787881</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>AO001AW1840794</t>
+          <t>AO001AW1822390</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2025-05-23 15:00:00-04</t>
+          <t>2025-04-25 10:00:00-04</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7198,11 +7191,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>lo recibira Alison Morales asesora del Subsecretario de Redes ,  
-via TEAMS
-Unirse a la reunión ahora
-Id. de reunión: 268 496 198 113
-Código de acceso: vB2sX98b</t>
+          <t>se encomendó a la División de Inversiones lo recibió  Adrian Peña  25 abril</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7212,574 +7201,10 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
-        <is>
-          <t>1.- Implementación y funcionamiento del Ges 85 en APS y red de salud a nivel nacional, &lt;br /&gt;
-2.- Consultar si existe Protocolo en Atención Terciaria para hospitalización de personas con Alzheimer y Otras Demencias y personas con discapacidad, dependencia, o alguna condición.&lt;br /&gt;
-3.- Implementación ley 21.380 relacionada a las personas cuidadoras y exámenes médicos,</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Paola Reyes</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>Paola Reyes Franco</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr"/>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Constanza Gonzalez</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>Constanza Gonzalez</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/796246</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>AO001AW1824856</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2025-05-16 08:30:00-04</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>lo recibirá el Dr Bernardo Martorell, Subsecretario de Redes Asistenciales en Mac Iver 541 piso 2</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Dar a conocer al Subsecretario trabajo de FALP con pacientes del Sistema Público de Salud</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Cristian Enrique Ayala Munita</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Fundación Arturo Lopez Perez</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>FUNDACION ARTURO LOPEZ PEREZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Vladimir Pizarro</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>SERVICIO SALUD METROPOLITANO OCCIDENTE</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>FUNDACION ARTURO LOPEZ PEREZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800575</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>AO001AW1824783</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2025-05-13 09:30:00-04</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>lo recibira via TEEM Alyson Morales Asesora del Gabinete  
-se adjunta TEEMUnirse a la reunión ahora 
-Id. de reunión: 291 166 863 411 9 
-Código de acceso: KU78PQ9o</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>MINUTA REUNIÓN SUBSECRETARIO DE REDES ASISTENCIALES. &lt;br /&gt;
-&lt;br /&gt;
-EL DEPARTAMENTO DE SALUD DE PAIHUANO, ES UN DEPARTAMENTO CUYO APORTE ES DE MENOS DE 5 MIL HABITANTES, POR ELLO ES CONSIDERANDO COMO COMUNA DE COSTO FPOR LO QUE EL APORTE MENSUAL ES VÍA PRCAPITA   DE PARTE DEL MINSAL POR CASI 43 MILLONES DE PESOS., RECUSO QUE ES UTILIZADO EN SU TOTALIDAD PARA LA CANCELACIÓN DE RECURSO HUMANO.&lt;br /&gt;
-EL APORTE MNICIPAL A SU VEZ AL DEPARTAMENTO DE SALUD ES DE ALREDEDOR DEL 55% DEL PRESUPUESTO DE SALUD ANUAL. ESE ES UN GRAN COMPROMISO HACIA EL DEPARTAMENTO ADQUIRIDO POR AÑOS   PERO QUE NO PUEDE SER MAYOR POR TODOS LOS COMPROMISOS QUE EL MUNICIPIO DEBE CUMPLIR CON LOS OTROS DEPARTAMENTOS. &lt;br /&gt;
-DE ESA FORMA SE HAN IDO GENERANDO BRECHAS., BRECHAS D TODO TIPO, QUE SE HAN TRATADO DE DISMINUIR REALIZANDO GESTIONES EN DIVERSOS NIVELES, PERO NINGUNA HA TENIDO RESULTADOS., POR DICHA RAZÓN SOLICITAMOS SU APOYO EN LOS SIGUIENTS REQUERIMIENTOS:&lt;br /&gt;
-1.- El DEAPRTAMENTO DE SALUD, CONTRATA SUS SERVICIOS DE EXÁMENES DE LABORATORIO CON EL HOSPITAL DE VICUÑA, POR MOTIVOS PRESUPUESTARIOS NO HA SIDO POSIBLE CANCELAR  DICHO SERVICIO, AL DÍA DE HOY EXISTE UNA DEUDA ACUMULADA DE 125 MILLONES DE PESOS, QUE NO PODEMOS CANCELAR , SOLICITAMOS QUE  SE PUEDA INTERVENIR EN APROBAR UN PROYECTO AGL  PARA LA  CANCELACIÓN  DE LOS EXÁMENES DE LABORATORIO  O LA RECONVERSIÓN DE RECURSOS , YA SEA RENDIR  RECURSO HUMANO DE DOTACIÓN  MUNICIPAL DE SALUD Y PARA PODER CONTAR DE ESA MANERA CON  EL DINERO DISPONIBLE PARA LA CANCELACIÓN DEL LABORATOTRIO  U  OTRA VIA POSIBLE DE COLABORACIÓN.&lt;br /&gt;
-2.-  SE REQUIERE EL APOYO DEL MINISTERIO DE SALUD EN EL PROCESO DE ACREDITACIÓN EN CALIDAD, 20 MILLONES PARA LA INSCRIPCIÓN EN EL PROCESO Y MEJORAS INTERNAS QUE SE REQUIERAN REALIZAR EN POSTAS Y CESFAM PARA AFRONTAR DICHO PROCESO.&lt;br /&gt;
-3.- ADQUISICIÓN DE CAMIONETA PARA RONDAS ASISITENCIALES Y OTRAS PRESTACIONES.&lt;br /&gt;
-4.- APROBACIÓN DE AGL Y PMI&lt;br /&gt;
-5.- CANCELACIÓN DE RECURSO HUMANO DE DOTACIÓN PARA LIBERACIÓN DE PRESUPUESTO&lt;br /&gt;
-&lt;br /&gt;
-                                                             AGRADECIDOS DEL APOYO.</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Mildred Varela</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>MUNICIPALIDAD DE PAIHUANO</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>ILUSTRE MUNICIPALIDAD DE PAIHUANO</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800576</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>AO001AW1825815</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:30:00-04</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>lo recibirá en audiencia Alyson Morales Asesora del Gabinete 
- Via TEEMUnirse a la reunión ahora 
-Id. de reunión: 264 303 737 002 5 
-Código de acceso: De6hw7fe</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Presentar los Círculos de Escucha como una tecnología social y práctica grupal de bienestar recogida en el REM, y a Corporación Escuchar, como OSFL con 10 años de experiencia en instalar Círculos de Escucha y formar monitoras/es para ello. &lt;br /&gt;
-Proponemos usar Círculos de Escucha para:&lt;br /&gt;
-- promover la participación ciudadana en salud.&lt;br /&gt;
-- promover bienestar y salud comunitaria a bajo costo, en base a la comunidad.&lt;br /&gt;
-- construir y/o desarrollar vínculos saludables para potenciar las comunidades.&lt;br /&gt;
-- levantar, relevar, difundir y potenciar los activos comunitarios territoriales.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Verónica Virgilio</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>Corporación Escuchar</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Yasna Nanjari</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Corporación Escuchar</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/800572</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>AO001AW1815203</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:00:00-04</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>lo recibirá en reunión  Alyson Morales asesora del Gabinete  por TEEM
-Microsoft Teams 
-Unirse a la reunión ahora 
-Id. de reunión: 285 804 262 906 4 
-Código de acceso: ch7HJ6qQ</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Vulneración de derechos a paciente Albero Jesús Garrido Pérez, en atenciones brindadas.</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Alberto Garrido</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Gabriela Calderón Álvarez</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/796230</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>AO001AW1822942</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:30:00-04</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Presencial</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Mac Iver 541 piso 2 Ministerio de Salud, contacto Doris González 225740370</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Presentar Exposalud 2025 a realizarse 1,2 y 3 de diciembre en Espacio Riesco, con la finalidad de mostrar la plataforma público privada que es y como es que esto favorece la comunicación en el área de Salud. Es necesario que sepa las gestiones que realizamos para contar con su acuerdo y verificar que nos aliniemos en el trabajo a realizar.</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Andrea Buzzetti</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>FRESENIUS KABI</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>andrea buzzetti</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Miguel Berrios Momberg</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Gestor de intereses</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Miguel Berrios</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/787881</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>AO001AW1822390</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2025-04-25 10:00:00-04</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>se encomendó a la División de Inversiones lo recibió  Adrian Peña  25 abril</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
         <is>
           <t>Señor&lt;br /&gt;
 &lt;br /&gt;
@@ -7804,81 +7229,602 @@
 Datamedica Spa.</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Lobbista</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>DATAMEDICA S.A</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>DATAMEDICA SPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bernardo Martorell</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Subsecretario de Redes Asistenciales</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/791214</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AO001AW1813233</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-04-24 10:30:00-04</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>lo recibió  Alison Morales Asesora del Gabinete</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Solicita audiencia Lobby para tratar situación actual del Centro Anun y todo lo que conlleva a su continuidad.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Carla Torres</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>municipalidad de Coronel</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Boris CHAMORRO</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Paola Pontoni</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Jefa Departamento de Reducción del Riesgo para Emergencias Sanitarias - SSP</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/257591/805327</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AO001AW1854499</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-06-09 04:30:00-04</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Monjitas 689 piso 7 oficina 72</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Soy medico urgenciologo, magister en emergencia y desastres. Me gustaría la asesoría de la jefa de departamento para el diseño de un proyecto que estoy llevando a cabo sobre manejo de múltiples victimas en hospitales.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Rubén Nissin</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>ruben nissin</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Paola Pontoni</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Jefa Departamento de Reducción del Riesgo para Emergencias Sanitarias - SSP</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/257591/805541</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>AO001AW1815597</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-04-09 17:30:00-04</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>oficina 1001 monjitas 565</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Oportunidades de Mercado para la gestión climática bajo Art 6 del Acuerdo de París:&lt;br /&gt;
+(1) lista priorizada para tipología de proyectos; (2) línea del tiempo para lista priorizada; (3) apetito de proyectos en sector</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>María Lucila Serra Lahunsembarne</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>South Pole Carbon Asset Management Ltd.</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>South Pole Carbon Asset Management Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Rodrigo Bórquez</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>South Pole Carbon Asset Management Ltd.</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>South Pole Carbon Asset Management Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Edith Carmen Ortiz Nuñez</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/786768</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>AO001AW1828916</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-04-17 10:30:00-04</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Presentación de productos para detección y categorización de VPH, detección de VIH, Sífilis, HCV y HTLV&lt;br /&gt;
+&lt;br /&gt;
+Presentan equipos e insumos para la autotoma de examen de detección de VPH, a través de orina, permitiendo la amplificación y secuenciación de algunos genotipos. Presentan equipos e insumos para otros agentes: VIH, VHC, HTLV1, Sífilis. &lt;br /&gt;
+&lt;br /&gt;
+Se les sugiere reunión con ANACAN, y con redes asistenciales.&lt;br /&gt;
+&lt;br /&gt;
+Participan&lt;br /&gt;
+Dr. Leonardo Chanqueo Cornejo&lt;br /&gt;
+Carolina Peredo Courtier</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Andrés Fernández</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Jorge Touma</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial Mihovilovic Hnos. y Otro Ltda.</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Sociedad Comercial Mihovilovic y Hnos y otro Limitada</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Edith Carmen Ortiz Nuñez</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/787885</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>AO001AW1776471</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-02-06 14:30:00-03</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>On line</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Reunión de seguimiento lobby AO001AW1749073 en relación a la situación de Kaletra jarabe en programa VIH y una posible descontinuación.&lt;br /&gt;
+&lt;br /&gt;
+Se informa que se consultó al Comité asesor VIH pediátrico sobre existencia de alternativas terapéuticas, quienes señalaron y manifestaron la necesidad de mantener la disponibilidad de Kaletra® jarabe como parte del arsenal farmacológico para los niños y niñas que viven con VIH. &lt;br /&gt;
+Las alternativas disponibles en nuestro país pueden utilizarse a partir de los 40 kg, siendo inapropiados para la mayoría de los niños en crecimiento y no disponemos en Chile de su formulación en jarabes. Actualmente existen niños en control en que Kaletra® jarabe forma parte de su esquema de 2da línea y que no tienen el peso adecuado para optar a las alternativas disponibles.  &lt;br /&gt;
+&lt;br /&gt;
+Señalan que con estos antecedentes y teniendo claridad del requerimiento desde MINSAL realizarán gestiones para mantener la provisión de este producto en el país. &lt;br /&gt;
+&lt;br /&gt;
+Desde MINSAL se solicita informar sobre los avances de las gestiones por lo que se acuerda realizar una próxima reunión de seguimiento. &lt;br /&gt;
+ &lt;br /&gt;
+Participan&lt;br /&gt;
+Leonardo Chanqueo Cornejo&lt;br /&gt;
+María Teresa Silva</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>María Pons</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Abbvie Ltda</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Claudio Silva</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Abbvie Ltda</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Edith Carmen Ortiz Nuñez</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jefa (S) Departamento Programa Nacional de Prevención y Control del VIH/SIDA e ITS DIPRECE</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/275447/780151</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>AO001AW1749073</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-01-22 12:30:00-03</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Presencial</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Oficina Programa de VIH</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1 horas, 0 minutos</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Elaboración, dictación, modificación, denegación o rechazo de actos administrativos, proyectos de ley y leyes y también de las decisiones que tomen los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Situación lopinavir/ritonavir solución oral en programa pediátrico VIH&lt;br /&gt;
+&lt;br /&gt;
+Señalan que debido a nuevas alternativas terapéuticas ha disminuido su demanda a nivel mundial, lo que se ha traducido en una discontinuación en la producción del producto. &lt;br /&gt;
+Actualmente tiene contrato vigente con CENABAST hasta diciembre 2025. Para el 2026 existe riesgo de descontinuación. &lt;br /&gt;
+Señalan que en caso de que MINSAL requiera mantener disponible este producto en el país podrían hacer las gestiones pertinentes para ello, considerando las dificultades que se pueden presentar. &lt;br /&gt;
+Desde el Depto VIH se plantea que es necesario disponer de esta presentación como una alternativa en tratamiento de rescate cuando existe resistencia a antirretrovirales. Lopinavir/ritonavir es la única alternativa que existe para estos casos en niños menores a &lt; 40 kilos. Igualmente se hará la consulta al Comité asesor VIH pediátrico para tener certeza que no existen otras alternativas terapéuticas en esta situación.&lt;br /&gt;
+Se acuerda realizar una próxima reunión de seguimiento para informar si se requiere mantener la disponibilidad de lopinavir/ritonavir solución en el país y realizar las gestiones correspondientes para ello. &lt;br /&gt;
+&lt;br /&gt;
+Asisten&lt;br /&gt;
+&lt;br /&gt;
+Dr. leonardo Chanqueo   Jefe Programa de VIH&lt;br /&gt;
+Sra. María Teresa Silva Profesional Programa de VIH&lt;br /&gt;
+Sra. María Pons&lt;br /&gt;
+Sr. Claudio Silva</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Miguel Arteaga</t>
+          <t>María Pons</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Lobista</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>DATAMEDICA S.A</t>
-        </is>
-      </c>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>DATAMEDICA SPA</t>
+          <t>Abbvie Ltda</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Bernardo Martorell</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Subsecretario de Redes Asistenciales</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/791073/791214</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>AO001AW1813233</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2025-04-24 10:30:00-04</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Videoconferencia</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>lo recibió  Alison Morales Asesora del Gabinete</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>1 horas, 0 minutos</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Solicita audiencia Lobby para tratar situación actual del Centro Anun y todo lo que conlleva a su continuidad.</t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Carla Torres</t>
+          <t>Claudio Silva</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -7889,29 +7835,83 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>municipalidad de Coronel</t>
+          <t>Abbvie Ltda</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Carolina Neira</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Jefa (S) Departamento Enfermedades No Transmisibles</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.leylobby.gob.cl/instituciones/AO001/audiencias/2025/278283/792465</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>AO001AW1794134</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-05-09 15:00:00-04</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>________________________________________________________________________________
+Microsoft Teams ¿Necesita ayuda? 
+Unirse a la reunión ahora 
+Id. de reunión: 228 396 235 533 1 
+Código de acceso: 5Nk3zg7Q 
+________________________________________</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0 horas, 15 minutos</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Celebración, modificación o terminación a cualquier título, de contratos que realicen los sujetos pasivos y que sean necesarios para su funcionamiento., 
+Diseño, implementación y evaluación de políticas, planes y programas efectuados por los sujetos pasivos.</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>No se presenta a audiencia de Lobby.</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Boris CHAMORRO</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr"/>
+          <t>Juan Ríos</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Gestor de intereses</t>
+        </is>
+      </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Marcela Cofré Cervera</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -17744,7 +17744,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
@@ -27202,7 +27202,7 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M540" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M551" t="inlineStr">
@@ -30845,7 +30845,7 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M621" t="inlineStr"/>
@@ -33530,7 +33530,7 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M681" t="inlineStr">
@@ -36415,7 +36415,7 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Gestor de intereses</t>
         </is>
       </c>
       <c r="M739" t="inlineStr">
@@ -36820,7 +36820,7 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Gestor de intereses</t>
         </is>
       </c>
       <c r="M747" t="inlineStr">
@@ -37804,7 +37804,7 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M770" t="inlineStr">
@@ -39767,7 +39767,7 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Gestor de intereses</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M811" t="inlineStr">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M934" t="inlineStr">
@@ -45479,7 +45479,7 @@
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M936" t="inlineStr">
@@ -46937,7 +46937,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M963" t="inlineStr">
@@ -47994,7 +47994,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -48149,7 +48149,7 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M985" t="inlineStr">
@@ -48213,7 +48213,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M987" t="inlineStr">
@@ -48325,7 +48325,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M989" t="inlineStr">
@@ -48389,7 +48389,7 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M991" t="inlineStr">
@@ -49583,7 +49583,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Lobista</t>
+          <t>Lobbista</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr">
